--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,82 +665,88 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3311200</v>
+        <v>3344500</v>
       </c>
       <c r="E8" s="3">
-        <v>3543700</v>
+        <v>3337800</v>
       </c>
       <c r="F8" s="3">
-        <v>3831600</v>
+        <v>3572100</v>
       </c>
       <c r="G8" s="3">
-        <v>3858000</v>
+        <v>3862400</v>
       </c>
       <c r="H8" s="3">
-        <v>3706100</v>
+        <v>3889000</v>
       </c>
       <c r="I8" s="3">
-        <v>3628200</v>
+        <v>3735900</v>
       </c>
       <c r="J8" s="3">
+        <v>3657400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3731200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -768,8 +774,11 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -797,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,8 +822,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -839,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -868,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -897,37 +916,43 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-327600</v>
+        <v>-258300</v>
       </c>
       <c r="E15" s="3">
-        <v>-254900</v>
+        <v>-330200</v>
       </c>
       <c r="F15" s="3">
-        <v>-426600</v>
+        <v>-257000</v>
       </c>
       <c r="G15" s="3">
-        <v>-306400</v>
+        <v>-430000</v>
       </c>
       <c r="H15" s="3">
-        <v>-497900</v>
+        <v>-308900</v>
       </c>
       <c r="I15" s="3">
-        <v>-322300</v>
+        <v>-501900</v>
       </c>
       <c r="J15" s="3">
+        <v>-324900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-247000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -936,66 +961,73 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3504100</v>
+        <v>1118400</v>
       </c>
       <c r="E17" s="3">
-        <v>2038000</v>
+        <v>3532200</v>
       </c>
       <c r="F17" s="3">
-        <v>1352500</v>
+        <v>2054400</v>
       </c>
       <c r="G17" s="3">
-        <v>1489900</v>
+        <v>1363400</v>
       </c>
       <c r="H17" s="3">
-        <v>1415900</v>
+        <v>1501800</v>
       </c>
       <c r="I17" s="3">
-        <v>1056600</v>
+        <v>1427300</v>
       </c>
       <c r="J17" s="3">
+        <v>1065100</v>
+      </c>
+      <c r="K17" s="3">
         <v>879600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-192800</v>
+        <v>2226100</v>
       </c>
       <c r="E18" s="3">
-        <v>1505700</v>
+        <v>-194400</v>
       </c>
       <c r="F18" s="3">
-        <v>2479100</v>
+        <v>1517800</v>
       </c>
       <c r="G18" s="3">
-        <v>2368200</v>
+        <v>2499000</v>
       </c>
       <c r="H18" s="3">
-        <v>2290200</v>
+        <v>2387200</v>
       </c>
       <c r="I18" s="3">
-        <v>2571600</v>
+        <v>2308600</v>
       </c>
       <c r="J18" s="3">
+        <v>2592200</v>
+      </c>
+      <c r="K18" s="3">
         <v>2851600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1007,37 +1039,41 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1509700</v>
+        <v>-1753500</v>
       </c>
       <c r="E20" s="3">
-        <v>-820200</v>
+        <v>-1521800</v>
       </c>
       <c r="F20" s="3">
-        <v>-437200</v>
+        <v>-826800</v>
       </c>
       <c r="G20" s="3">
-        <v>-2378700</v>
+        <v>-440700</v>
       </c>
       <c r="H20" s="3">
-        <v>-70000</v>
+        <v>-2397900</v>
       </c>
       <c r="I20" s="3">
-        <v>-1233600</v>
+        <v>-70600</v>
       </c>
       <c r="J20" s="3">
+        <v>-1243500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1065,8 +1101,11 @@
       <c r="K21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1094,66 +1133,75 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1702500</v>
+        <v>472600</v>
       </c>
       <c r="E23" s="3">
-        <v>685500</v>
+        <v>-1716200</v>
       </c>
       <c r="F23" s="3">
-        <v>2041900</v>
+        <v>691000</v>
       </c>
       <c r="G23" s="3">
-        <v>-10600</v>
+        <v>2058300</v>
       </c>
       <c r="H23" s="3">
-        <v>2220200</v>
+        <v>-10700</v>
       </c>
       <c r="I23" s="3">
-        <v>1338000</v>
+        <v>2238100</v>
       </c>
       <c r="J23" s="3">
+        <v>1348700</v>
+      </c>
+      <c r="K23" s="3">
         <v>755500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>-523000</v>
+        <v>275600</v>
       </c>
       <c r="E24" s="3">
-        <v>248300</v>
+        <v>-527200</v>
       </c>
       <c r="F24" s="3">
-        <v>48900</v>
+        <v>250300</v>
       </c>
       <c r="G24" s="3">
-        <v>265500</v>
+        <v>49300</v>
       </c>
       <c r="H24" s="3">
-        <v>-29100</v>
+        <v>267600</v>
       </c>
       <c r="I24" s="3">
-        <v>285300</v>
+        <v>-29300</v>
       </c>
       <c r="J24" s="3">
+        <v>287600</v>
+      </c>
+      <c r="K24" s="3">
         <v>155900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,66 +1229,75 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1179500</v>
+        <v>197000</v>
       </c>
       <c r="E26" s="3">
-        <v>437200</v>
+        <v>-1188900</v>
       </c>
       <c r="F26" s="3">
-        <v>1993100</v>
+        <v>440700</v>
       </c>
       <c r="G26" s="3">
-        <v>-276000</v>
+        <v>2009100</v>
       </c>
       <c r="H26" s="3">
-        <v>2249300</v>
+        <v>-278300</v>
       </c>
       <c r="I26" s="3">
-        <v>1052700</v>
+        <v>2267400</v>
       </c>
       <c r="J26" s="3">
+        <v>1061100</v>
+      </c>
+      <c r="K26" s="3">
         <v>599600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1311500</v>
+        <v>81200</v>
       </c>
       <c r="E27" s="3">
-        <v>380400</v>
+        <v>-1322100</v>
       </c>
       <c r="F27" s="3">
-        <v>1862300</v>
+        <v>383400</v>
       </c>
       <c r="G27" s="3">
-        <v>-416000</v>
+        <v>1877300</v>
       </c>
       <c r="H27" s="3">
-        <v>1758000</v>
+        <v>-419400</v>
       </c>
       <c r="I27" s="3">
-        <v>933800</v>
+        <v>1772100</v>
       </c>
       <c r="J27" s="3">
+        <v>941300</v>
+      </c>
+      <c r="K27" s="3">
         <v>541500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1268,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1297,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1326,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1355,66 +1421,75 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1509700</v>
+        <v>1753500</v>
       </c>
       <c r="E32" s="3">
-        <v>820200</v>
+        <v>1521800</v>
       </c>
       <c r="F32" s="3">
-        <v>437200</v>
+        <v>826800</v>
       </c>
       <c r="G32" s="3">
-        <v>2378700</v>
+        <v>440700</v>
       </c>
       <c r="H32" s="3">
-        <v>70000</v>
+        <v>2397900</v>
       </c>
       <c r="I32" s="3">
-        <v>1233600</v>
+        <v>70600</v>
       </c>
       <c r="J32" s="3">
+        <v>1243500</v>
+      </c>
+      <c r="K32" s="3">
         <v>2096100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1311500</v>
+        <v>81200</v>
       </c>
       <c r="E33" s="3">
-        <v>380400</v>
+        <v>-1322100</v>
       </c>
       <c r="F33" s="3">
-        <v>1862300</v>
+        <v>383400</v>
       </c>
       <c r="G33" s="3">
-        <v>-416000</v>
+        <v>1877300</v>
       </c>
       <c r="H33" s="3">
-        <v>1758000</v>
+        <v>-419400</v>
       </c>
       <c r="I33" s="3">
-        <v>933800</v>
+        <v>1772100</v>
       </c>
       <c r="J33" s="3">
+        <v>941300</v>
+      </c>
+      <c r="K33" s="3">
         <v>541500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1442,71 +1517,80 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1311500</v>
+        <v>81200</v>
       </c>
       <c r="E35" s="3">
-        <v>380400</v>
+        <v>-1322100</v>
       </c>
       <c r="F35" s="3">
-        <v>1862300</v>
+        <v>383400</v>
       </c>
       <c r="G35" s="3">
-        <v>-416000</v>
+        <v>1877300</v>
       </c>
       <c r="H35" s="3">
-        <v>1758000</v>
+        <v>-419400</v>
       </c>
       <c r="I35" s="3">
-        <v>933800</v>
+        <v>1772100</v>
       </c>
       <c r="J35" s="3">
+        <v>941300</v>
+      </c>
+      <c r="K35" s="3">
         <v>541500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1518,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1531,66 +1616,73 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>149583400</v>
+        <v>157440700</v>
       </c>
       <c r="E41" s="3">
-        <v>119387500</v>
+        <v>150785000</v>
       </c>
       <c r="F41" s="3">
-        <v>116952000</v>
+        <v>120346600</v>
       </c>
       <c r="G41" s="3">
-        <v>127709800</v>
+        <v>117891500</v>
       </c>
       <c r="H41" s="3">
-        <v>129853500</v>
+        <v>128735700</v>
       </c>
       <c r="I41" s="3">
-        <v>127907900</v>
+        <v>130896600</v>
       </c>
       <c r="J41" s="3">
+        <v>128935400</v>
+      </c>
+      <c r="K41" s="3">
         <v>134514500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>337885800</v>
+        <v>313053400</v>
       </c>
       <c r="E42" s="3">
-        <v>383791200</v>
+        <v>340600100</v>
       </c>
       <c r="F42" s="3">
-        <v>299520800</v>
+        <v>386874200</v>
       </c>
       <c r="G42" s="3">
-        <v>353133000</v>
+        <v>301926900</v>
       </c>
       <c r="H42" s="3">
-        <v>305047000</v>
+        <v>355969800</v>
       </c>
       <c r="I42" s="3">
-        <v>294773900</v>
+        <v>307497500</v>
       </c>
       <c r="J42" s="3">
+        <v>297141900</v>
+      </c>
+      <c r="K42" s="3">
         <v>275342400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1618,8 +1710,11 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1647,8 +1742,11 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1676,8 +1774,11 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1705,8 +1806,11 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1734,8 +1838,11 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1745,55 +1852,61 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>6508900</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="3">
-        <v>1717000</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6561100</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1730800</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>5746800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8719900</v>
+        <v>8787200</v>
       </c>
       <c r="E49" s="3">
-        <v>8742300</v>
+        <v>8789900</v>
       </c>
       <c r="F49" s="3">
-        <v>8746300</v>
+        <v>8812500</v>
       </c>
       <c r="G49" s="3">
-        <v>8778000</v>
+        <v>8816500</v>
       </c>
       <c r="H49" s="3">
-        <v>8758200</v>
+        <v>8848500</v>
       </c>
       <c r="I49" s="3">
+        <v>8828500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8808500</v>
+      </c>
+      <c r="K49" s="3">
         <v>8738300</v>
       </c>
-      <c r="J49" s="3">
-        <v>8738300</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1821,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1850,8 +1966,11 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1873,14 +1992,17 @@
       <c r="I52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J52" s="3">
+      <c r="J52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K52" s="3">
         <v>3719300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,37 +2030,43 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1065728300</v>
+        <v>1053884300</v>
       </c>
       <c r="E54" s="3">
-        <v>1079936000</v>
+        <v>1074289400</v>
       </c>
       <c r="F54" s="3">
-        <v>954982700</v>
+        <v>1088611200</v>
       </c>
       <c r="G54" s="3">
-        <v>1025602700</v>
+        <v>962654100</v>
       </c>
       <c r="H54" s="3">
-        <v>964003700</v>
+        <v>1033841400</v>
       </c>
       <c r="I54" s="3">
-        <v>949827600</v>
+        <v>971747600</v>
       </c>
       <c r="J54" s="3">
+        <v>957457700</v>
+      </c>
+      <c r="K54" s="3">
         <v>916938600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1950,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1963,8 +2092,9 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1992,8 +2122,11 @@
       <c r="K57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2021,8 +2154,11 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2044,14 +2180,17 @@
       <c r="I59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K59" s="3">
         <v>7039800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2079,37 +2218,43 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>85877800</v>
+        <v>78972000</v>
       </c>
       <c r="E61" s="3">
-        <v>77620200</v>
+        <v>86567600</v>
       </c>
       <c r="F61" s="3">
-        <v>72906300</v>
+        <v>78243700</v>
       </c>
       <c r="G61" s="3">
-        <v>76220100</v>
+        <v>73491900</v>
       </c>
       <c r="H61" s="3">
-        <v>76860700</v>
+        <v>76832400</v>
       </c>
       <c r="I61" s="3">
-        <v>68753700</v>
+        <v>77478200</v>
       </c>
       <c r="J61" s="3">
+        <v>69306000</v>
+      </c>
+      <c r="K61" s="3">
         <v>66392200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2131,14 +2276,17 @@
       <c r="I62" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J62" s="3">
+      <c r="J62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K62" s="3">
         <v>4786500</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2166,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2195,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2224,37 +2378,43 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1008798300</v>
+        <v>996383800</v>
       </c>
       <c r="E66" s="3">
-        <v>1021606000</v>
+        <v>1016902000</v>
       </c>
       <c r="F66" s="3">
-        <v>897466200</v>
+        <v>1029812600</v>
       </c>
       <c r="G66" s="3">
-        <v>967316200</v>
+        <v>904675600</v>
       </c>
       <c r="H66" s="3">
-        <v>902955400</v>
+        <v>975086700</v>
       </c>
       <c r="I66" s="3">
-        <v>888897000</v>
+        <v>910208900</v>
       </c>
       <c r="J66" s="3">
+        <v>896037500</v>
+      </c>
+      <c r="K66" s="3">
         <v>856531000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2266,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2295,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2324,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2353,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2382,37 +2552,43 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31462500</v>
+        <v>31889700</v>
       </c>
       <c r="E72" s="3">
-        <v>35587400</v>
+        <v>31715300</v>
       </c>
       <c r="F72" s="3">
-        <v>32791300</v>
+        <v>35873200</v>
       </c>
       <c r="G72" s="3">
-        <v>31096700</v>
+        <v>33054700</v>
       </c>
       <c r="H72" s="3">
-        <v>33898100</v>
+        <v>31346500</v>
       </c>
       <c r="I72" s="3">
-        <v>33822800</v>
+        <v>34170400</v>
       </c>
       <c r="J72" s="3">
+        <v>34094500</v>
+      </c>
+      <c r="K72" s="3">
         <v>33274700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2440,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2469,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2498,37 +2680,43 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>56930000</v>
+        <v>57500500</v>
       </c>
       <c r="E76" s="3">
-        <v>58330000</v>
+        <v>57387300</v>
       </c>
       <c r="F76" s="3">
-        <v>57516400</v>
+        <v>58798600</v>
       </c>
       <c r="G76" s="3">
-        <v>58286500</v>
+        <v>57978500</v>
       </c>
       <c r="H76" s="3">
-        <v>61048200</v>
+        <v>58754700</v>
       </c>
       <c r="I76" s="3">
-        <v>60930700</v>
+        <v>61538600</v>
       </c>
       <c r="J76" s="3">
+        <v>61420100</v>
+      </c>
+      <c r="K76" s="3">
         <v>60407700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2556,71 +2744,80 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1311500</v>
+        <v>81200</v>
       </c>
       <c r="E81" s="3">
-        <v>380400</v>
+        <v>-1322100</v>
       </c>
       <c r="F81" s="3">
-        <v>1862300</v>
+        <v>383400</v>
       </c>
       <c r="G81" s="3">
-        <v>-416000</v>
+        <v>1877300</v>
       </c>
       <c r="H81" s="3">
-        <v>1758000</v>
+        <v>-419400</v>
       </c>
       <c r="I81" s="3">
-        <v>933800</v>
+        <v>1772100</v>
       </c>
       <c r="J81" s="3">
+        <v>941300</v>
+      </c>
+      <c r="K81" s="3">
         <v>541500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2632,8 +2829,9 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2661,8 +2859,11 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2690,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2719,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2748,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2777,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2806,8 +3019,11 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2835,8 +3051,11 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2848,8 +3067,9 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2877,8 +3097,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2906,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2935,8 +3161,11 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2964,8 +3193,11 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2977,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3006,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3035,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3064,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3093,8 +3335,11 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3122,8 +3367,11 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3151,8 +3399,11 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3178,6 +3429,9 @@
         <v>0</v>
       </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,88 +665,94 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3344500</v>
+        <v>3253100</v>
       </c>
       <c r="E8" s="3">
-        <v>3337800</v>
+        <v>3449500</v>
       </c>
       <c r="F8" s="3">
-        <v>3572100</v>
+        <v>3442600</v>
       </c>
       <c r="G8" s="3">
-        <v>3862400</v>
+        <v>3684300</v>
       </c>
       <c r="H8" s="3">
-        <v>3889000</v>
+        <v>3983600</v>
       </c>
       <c r="I8" s="3">
-        <v>3735900</v>
+        <v>4011100</v>
       </c>
       <c r="J8" s="3">
+        <v>3853200</v>
+      </c>
+      <c r="K8" s="3">
         <v>3657400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3731200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -777,8 +783,11 @@
       <c r="L9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +818,11 @@
       <c r="L10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,8 +835,9 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -855,8 +868,11 @@
       <c r="L12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +903,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,40 +938,46 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-258300</v>
+        <v>-370800</v>
       </c>
       <c r="E15" s="3">
-        <v>-330200</v>
+        <v>-266400</v>
       </c>
       <c r="F15" s="3">
-        <v>-257000</v>
+        <v>-340600</v>
       </c>
       <c r="G15" s="3">
-        <v>-430000</v>
+        <v>-265000</v>
       </c>
       <c r="H15" s="3">
-        <v>-308900</v>
+        <v>-443500</v>
       </c>
       <c r="I15" s="3">
-        <v>-501900</v>
+        <v>-318600</v>
       </c>
       <c r="J15" s="3">
+        <v>-517700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-324900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-247000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,72 +987,79 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1118400</v>
+        <v>725000</v>
       </c>
       <c r="E17" s="3">
-        <v>3532200</v>
+        <v>1153500</v>
       </c>
       <c r="F17" s="3">
-        <v>2054400</v>
+        <v>3643100</v>
       </c>
       <c r="G17" s="3">
-        <v>1363400</v>
+        <v>2118800</v>
       </c>
       <c r="H17" s="3">
-        <v>1501800</v>
+        <v>1406100</v>
       </c>
       <c r="I17" s="3">
-        <v>1427300</v>
+        <v>1549000</v>
       </c>
       <c r="J17" s="3">
+        <v>1472100</v>
+      </c>
+      <c r="K17" s="3">
         <v>1065100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>879600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2226100</v>
+        <v>2528000</v>
       </c>
       <c r="E18" s="3">
-        <v>-194400</v>
+        <v>2296000</v>
       </c>
       <c r="F18" s="3">
-        <v>1517800</v>
+        <v>-200500</v>
       </c>
       <c r="G18" s="3">
-        <v>2499000</v>
+        <v>1565400</v>
       </c>
       <c r="H18" s="3">
-        <v>2387200</v>
+        <v>2577500</v>
       </c>
       <c r="I18" s="3">
-        <v>2308600</v>
+        <v>2462100</v>
       </c>
       <c r="J18" s="3">
+        <v>2381100</v>
+      </c>
+      <c r="K18" s="3">
         <v>2592200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2851600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,40 +1072,44 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1753500</v>
+        <v>-2440200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1521800</v>
+        <v>-1808500</v>
       </c>
       <c r="F20" s="3">
-        <v>-826800</v>
+        <v>-1569600</v>
       </c>
       <c r="G20" s="3">
-        <v>-440700</v>
+        <v>-852800</v>
       </c>
       <c r="H20" s="3">
-        <v>-2397900</v>
+        <v>-454500</v>
       </c>
       <c r="I20" s="3">
-        <v>-70600</v>
+        <v>-2473100</v>
       </c>
       <c r="J20" s="3">
+        <v>-72800</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1104,8 +1140,11 @@
       <c r="L21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1136,72 +1175,81 @@
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>472600</v>
+        <v>87900</v>
       </c>
       <c r="E23" s="3">
-        <v>-1716200</v>
+        <v>487500</v>
       </c>
       <c r="F23" s="3">
-        <v>691000</v>
+        <v>-1770000</v>
       </c>
       <c r="G23" s="3">
-        <v>2058300</v>
+        <v>712700</v>
       </c>
       <c r="H23" s="3">
-        <v>-10700</v>
+        <v>2123000</v>
       </c>
       <c r="I23" s="3">
-        <v>2238100</v>
+        <v>-11000</v>
       </c>
       <c r="J23" s="3">
+        <v>2308300</v>
+      </c>
+      <c r="K23" s="3">
         <v>1348700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>755500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>275600</v>
+        <v>115300</v>
       </c>
       <c r="E24" s="3">
-        <v>-527200</v>
+        <v>284300</v>
       </c>
       <c r="F24" s="3">
-        <v>250300</v>
+        <v>-543800</v>
       </c>
       <c r="G24" s="3">
-        <v>49300</v>
+        <v>258200</v>
       </c>
       <c r="H24" s="3">
-        <v>267600</v>
+        <v>50800</v>
       </c>
       <c r="I24" s="3">
-        <v>-29300</v>
+        <v>276000</v>
       </c>
       <c r="J24" s="3">
+        <v>-30200</v>
+      </c>
+      <c r="K24" s="3">
         <v>287600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>155900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,72 +1280,81 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>197000</v>
+        <v>-27500</v>
       </c>
       <c r="E26" s="3">
-        <v>-1188900</v>
+        <v>203200</v>
       </c>
       <c r="F26" s="3">
-        <v>440700</v>
+        <v>-1226300</v>
       </c>
       <c r="G26" s="3">
-        <v>2009100</v>
+        <v>454500</v>
       </c>
       <c r="H26" s="3">
-        <v>-278300</v>
+        <v>2072100</v>
       </c>
       <c r="I26" s="3">
-        <v>2267400</v>
+        <v>-287000</v>
       </c>
       <c r="J26" s="3">
+        <v>2338500</v>
+      </c>
+      <c r="K26" s="3">
         <v>1061100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>599600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>81200</v>
+        <v>-149700</v>
       </c>
       <c r="E27" s="3">
-        <v>-1322100</v>
+        <v>83800</v>
       </c>
       <c r="F27" s="3">
-        <v>383400</v>
+        <v>-1363600</v>
       </c>
       <c r="G27" s="3">
-        <v>1877300</v>
+        <v>395500</v>
       </c>
       <c r="H27" s="3">
-        <v>-419400</v>
+        <v>1936200</v>
       </c>
       <c r="I27" s="3">
-        <v>1772100</v>
+        <v>-432600</v>
       </c>
       <c r="J27" s="3">
+        <v>1827700</v>
+      </c>
+      <c r="K27" s="3">
         <v>941300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>541500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1385,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1420,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1455,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,72 +1490,81 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1753500</v>
+        <v>2440200</v>
       </c>
       <c r="E32" s="3">
-        <v>1521800</v>
+        <v>1808500</v>
       </c>
       <c r="F32" s="3">
-        <v>826800</v>
+        <v>1569600</v>
       </c>
       <c r="G32" s="3">
-        <v>440700</v>
+        <v>852800</v>
       </c>
       <c r="H32" s="3">
-        <v>2397900</v>
+        <v>454500</v>
       </c>
       <c r="I32" s="3">
-        <v>70600</v>
+        <v>2473100</v>
       </c>
       <c r="J32" s="3">
+        <v>72800</v>
+      </c>
+      <c r="K32" s="3">
         <v>1243500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2096100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>81200</v>
+        <v>-149700</v>
       </c>
       <c r="E33" s="3">
-        <v>-1322100</v>
+        <v>83800</v>
       </c>
       <c r="F33" s="3">
-        <v>383400</v>
+        <v>-1363600</v>
       </c>
       <c r="G33" s="3">
-        <v>1877300</v>
+        <v>395500</v>
       </c>
       <c r="H33" s="3">
-        <v>-419400</v>
+        <v>1936200</v>
       </c>
       <c r="I33" s="3">
-        <v>1772100</v>
+        <v>-432600</v>
       </c>
       <c r="J33" s="3">
+        <v>1827700</v>
+      </c>
+      <c r="K33" s="3">
         <v>941300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>541500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,77 +1595,86 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>81200</v>
+        <v>-149700</v>
       </c>
       <c r="E35" s="3">
-        <v>-1322100</v>
+        <v>83800</v>
       </c>
       <c r="F35" s="3">
-        <v>383400</v>
+        <v>-1363600</v>
       </c>
       <c r="G35" s="3">
-        <v>1877300</v>
+        <v>395500</v>
       </c>
       <c r="H35" s="3">
-        <v>-419400</v>
+        <v>1936200</v>
       </c>
       <c r="I35" s="3">
-        <v>1772100</v>
+        <v>-432600</v>
       </c>
       <c r="J35" s="3">
+        <v>1827700</v>
+      </c>
+      <c r="K35" s="3">
         <v>941300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>541500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1687,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,72 +1702,79 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>157440700</v>
+        <v>180497600</v>
       </c>
       <c r="E41" s="3">
-        <v>150785000</v>
+        <v>162382500</v>
       </c>
       <c r="F41" s="3">
-        <v>120346600</v>
+        <v>155517900</v>
       </c>
       <c r="G41" s="3">
-        <v>117891500</v>
+        <v>124124000</v>
       </c>
       <c r="H41" s="3">
-        <v>128735700</v>
+        <v>121591900</v>
       </c>
       <c r="I41" s="3">
-        <v>130896600</v>
+        <v>132776500</v>
       </c>
       <c r="J41" s="3">
+        <v>135005200</v>
+      </c>
+      <c r="K41" s="3">
         <v>128935400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>134514500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>313053400</v>
+        <v>323404100</v>
       </c>
       <c r="E42" s="3">
-        <v>340600100</v>
+        <v>322879500</v>
       </c>
       <c r="F42" s="3">
-        <v>386874200</v>
+        <v>351290800</v>
       </c>
       <c r="G42" s="3">
-        <v>301926900</v>
+        <v>399017400</v>
       </c>
       <c r="H42" s="3">
-        <v>355969800</v>
+        <v>311403800</v>
       </c>
       <c r="I42" s="3">
-        <v>307497500</v>
+        <v>367142900</v>
       </c>
       <c r="J42" s="3">
+        <v>317149200</v>
+      </c>
+      <c r="K42" s="3">
         <v>297141900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>275342400</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1713,8 +1805,11 @@
       <c r="L43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,8 +1840,11 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1777,8 +1875,11 @@
       <c r="L45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1809,8 +1910,11 @@
       <c r="L46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1841,8 +1945,11 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1855,58 +1962,64 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
-        <v>6561100</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I48" s="3">
-        <v>1730800</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>6767100</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>1785100</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>5746800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8787200</v>
+        <v>9138600</v>
       </c>
       <c r="E49" s="3">
-        <v>8789900</v>
+        <v>9063100</v>
       </c>
       <c r="F49" s="3">
-        <v>8812500</v>
+        <v>9065800</v>
       </c>
       <c r="G49" s="3">
-        <v>8816500</v>
+        <v>9089100</v>
       </c>
       <c r="H49" s="3">
-        <v>8848500</v>
+        <v>9093300</v>
       </c>
       <c r="I49" s="3">
-        <v>8828500</v>
+        <v>9126200</v>
       </c>
       <c r="J49" s="3">
+        <v>9105600</v>
+      </c>
+      <c r="K49" s="3">
         <v>8808500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8738300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2050,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,40 +2085,46 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K52" s="3">
+      <c r="D52" s="3">
+        <v>0</v>
+      </c>
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L52" s="3">
         <v>3719300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,40 +2155,46 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1053884300</v>
+        <v>1097853000</v>
       </c>
       <c r="E54" s="3">
-        <v>1074289400</v>
+        <v>1086963600</v>
       </c>
       <c r="F54" s="3">
-        <v>1088611200</v>
+        <v>1108009200</v>
       </c>
       <c r="G54" s="3">
-        <v>962654100</v>
+        <v>1122780600</v>
       </c>
       <c r="H54" s="3">
-        <v>1033841400</v>
+        <v>992869900</v>
       </c>
       <c r="I54" s="3">
-        <v>971747600</v>
+        <v>1066291600</v>
       </c>
       <c r="J54" s="3">
+        <v>1002248800</v>
+      </c>
+      <c r="K54" s="3">
         <v>957457700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>916938600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2207,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,8 +2222,9 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2125,8 +2255,11 @@
       <c r="L57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2157,40 +2290,46 @@
       <c r="L58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K59" s="3">
+      <c r="D59" s="3">
+        <v>0</v>
+      </c>
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+      <c r="F59" s="3">
+        <v>0</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>0</v>
+      </c>
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L59" s="3">
         <v>7039800</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2221,72 +2360,81 @@
       <c r="L60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>78972000</v>
+        <v>76586900</v>
       </c>
       <c r="E61" s="3">
-        <v>86567600</v>
+        <v>81450800</v>
       </c>
       <c r="F61" s="3">
-        <v>78243700</v>
+        <v>89284800</v>
       </c>
       <c r="G61" s="3">
-        <v>73491900</v>
+        <v>80699600</v>
       </c>
       <c r="H61" s="3">
-        <v>76832400</v>
+        <v>75798700</v>
       </c>
       <c r="I61" s="3">
-        <v>77478200</v>
+        <v>79244000</v>
       </c>
       <c r="J61" s="3">
+        <v>79910000</v>
+      </c>
+      <c r="K61" s="3">
         <v>69306000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>66392200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K62" s="3">
+      <c r="D62" s="3">
+        <v>0</v>
+      </c>
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L62" s="3">
         <v>4786500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2465,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2500,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,40 +2535,46 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>996383800</v>
+        <v>1037624900</v>
       </c>
       <c r="E66" s="3">
-        <v>1016902000</v>
+        <v>1027658300</v>
       </c>
       <c r="F66" s="3">
-        <v>1029812600</v>
+        <v>1048820600</v>
       </c>
       <c r="G66" s="3">
-        <v>904675600</v>
+        <v>1062136400</v>
       </c>
       <c r="H66" s="3">
-        <v>975086700</v>
+        <v>933071600</v>
       </c>
       <c r="I66" s="3">
-        <v>910208900</v>
+        <v>1005692800</v>
       </c>
       <c r="J66" s="3">
+        <v>938778600</v>
+      </c>
+      <c r="K66" s="3">
         <v>896037500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>856531000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2587,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2620,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2655,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2690,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,40 +2725,46 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31889700</v>
+        <v>32198600</v>
       </c>
       <c r="E72" s="3">
-        <v>31715300</v>
+        <v>32890600</v>
       </c>
       <c r="F72" s="3">
-        <v>35873200</v>
+        <v>32710800</v>
       </c>
       <c r="G72" s="3">
-        <v>33054700</v>
+        <v>36999200</v>
       </c>
       <c r="H72" s="3">
-        <v>31346500</v>
+        <v>34092200</v>
       </c>
       <c r="I72" s="3">
-        <v>34170400</v>
+        <v>32330400</v>
       </c>
       <c r="J72" s="3">
+        <v>35242900</v>
+      </c>
+      <c r="K72" s="3">
         <v>34094500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33274700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2795,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2830,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,40 +2865,46 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>57500500</v>
+        <v>60228100</v>
       </c>
       <c r="E76" s="3">
-        <v>57387300</v>
+        <v>59305300</v>
       </c>
       <c r="F76" s="3">
-        <v>58798600</v>
+        <v>59188600</v>
       </c>
       <c r="G76" s="3">
-        <v>57978500</v>
+        <v>60644200</v>
       </c>
       <c r="H76" s="3">
-        <v>58754700</v>
+        <v>59798300</v>
       </c>
       <c r="I76" s="3">
-        <v>61538600</v>
+        <v>60598900</v>
       </c>
       <c r="J76" s="3">
+        <v>63470200</v>
+      </c>
+      <c r="K76" s="3">
         <v>61420100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>60407700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,77 +2935,86 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>81200</v>
+        <v>-149700</v>
       </c>
       <c r="E81" s="3">
-        <v>-1322100</v>
+        <v>83800</v>
       </c>
       <c r="F81" s="3">
-        <v>383400</v>
+        <v>-1363600</v>
       </c>
       <c r="G81" s="3">
-        <v>1877300</v>
+        <v>395500</v>
       </c>
       <c r="H81" s="3">
-        <v>-419400</v>
+        <v>1936200</v>
       </c>
       <c r="I81" s="3">
-        <v>1772100</v>
+        <v>-432600</v>
       </c>
       <c r="J81" s="3">
+        <v>1827700</v>
+      </c>
+      <c r="K81" s="3">
         <v>941300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>541500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3027,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2862,8 +3060,11 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3095,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3130,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3165,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3200,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,8 +3235,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3054,8 +3270,11 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3287,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3100,8 +3320,11 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3355,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,8 +3390,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3196,8 +3425,11 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3442,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3475,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3510,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3545,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,8 +3580,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3370,8 +3615,11 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3402,8 +3650,11 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3432,6 +3683,9 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,94 +665,98 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3253100</v>
+        <v>3324100</v>
       </c>
       <c r="E8" s="3">
-        <v>3449500</v>
+        <v>3352400</v>
       </c>
       <c r="F8" s="3">
-        <v>3442600</v>
+        <v>3554800</v>
       </c>
       <c r="G8" s="3">
-        <v>3684300</v>
+        <v>3547700</v>
       </c>
       <c r="H8" s="3">
-        <v>3983600</v>
+        <v>3796700</v>
       </c>
       <c r="I8" s="3">
-        <v>4011100</v>
+        <v>4105200</v>
       </c>
       <c r="J8" s="3">
+        <v>4133500</v>
+      </c>
+      <c r="K8" s="3">
         <v>3853200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3657400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3731200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -786,8 +790,11 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -821,8 +828,11 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -836,8 +846,9 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -871,8 +882,11 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -906,8 +920,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -941,43 +958,49 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-370800</v>
+        <v>-290100</v>
       </c>
       <c r="E15" s="3">
-        <v>-266400</v>
+        <v>-382100</v>
       </c>
       <c r="F15" s="3">
-        <v>-340600</v>
+        <v>-274500</v>
       </c>
       <c r="G15" s="3">
-        <v>-265000</v>
+        <v>-350900</v>
       </c>
       <c r="H15" s="3">
-        <v>-443500</v>
+        <v>-273100</v>
       </c>
       <c r="I15" s="3">
-        <v>-318600</v>
+        <v>-457100</v>
       </c>
       <c r="J15" s="3">
+        <v>-328300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-517700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-324900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-247000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -988,78 +1011,85 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>725000</v>
+        <v>447200</v>
       </c>
       <c r="E17" s="3">
-        <v>1153500</v>
+        <v>747200</v>
       </c>
       <c r="F17" s="3">
-        <v>3643100</v>
+        <v>1188700</v>
       </c>
       <c r="G17" s="3">
-        <v>2118800</v>
+        <v>3754300</v>
       </c>
       <c r="H17" s="3">
-        <v>1406100</v>
+        <v>2183500</v>
       </c>
       <c r="I17" s="3">
-        <v>1549000</v>
+        <v>1449100</v>
       </c>
       <c r="J17" s="3">
+        <v>1596200</v>
+      </c>
+      <c r="K17" s="3">
         <v>1472100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1065100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>879600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>2876900</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2605200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2366100</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-206600</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1613200</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2656200</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2537300</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2381100</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2592200</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2851600</v>
+      </c>
+      <c r="N18" s="3">
         <v>2528000</v>
       </c>
-      <c r="E18" s="3">
-        <v>2296000</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-200500</v>
-      </c>
-      <c r="G18" s="3">
-        <v>1565400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>2577500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>2462100</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2381100</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2592200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2851600</v>
-      </c>
-      <c r="M18" s="3">
-        <v>2528000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1073,43 +1103,47 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-2440200</v>
+        <v>-1538200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1808500</v>
+        <v>-2514700</v>
       </c>
       <c r="F20" s="3">
-        <v>-1569600</v>
+        <v>-1863700</v>
       </c>
       <c r="G20" s="3">
-        <v>-852800</v>
+        <v>-1617500</v>
       </c>
       <c r="H20" s="3">
-        <v>-454500</v>
+        <v>-878800</v>
       </c>
       <c r="I20" s="3">
-        <v>-2473100</v>
+        <v>-468400</v>
       </c>
       <c r="J20" s="3">
+        <v>-2548600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-72800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1143,8 +1177,11 @@
       <c r="M21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1178,78 +1215,87 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>87900</v>
+        <v>1338700</v>
       </c>
       <c r="E23" s="3">
-        <v>487500</v>
+        <v>90600</v>
       </c>
       <c r="F23" s="3">
-        <v>-1770000</v>
+        <v>502400</v>
       </c>
       <c r="G23" s="3">
-        <v>712700</v>
+        <v>-1824100</v>
       </c>
       <c r="H23" s="3">
-        <v>2123000</v>
+        <v>734400</v>
       </c>
       <c r="I23" s="3">
-        <v>-11000</v>
+        <v>2187800</v>
       </c>
       <c r="J23" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="K23" s="3">
         <v>2308300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1348700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>755500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>115300</v>
+        <v>329700</v>
       </c>
       <c r="E24" s="3">
-        <v>284300</v>
+        <v>118900</v>
       </c>
       <c r="F24" s="3">
-        <v>-543800</v>
+        <v>292900</v>
       </c>
       <c r="G24" s="3">
-        <v>258200</v>
+        <v>-560400</v>
       </c>
       <c r="H24" s="3">
-        <v>50800</v>
+        <v>266000</v>
       </c>
       <c r="I24" s="3">
-        <v>276000</v>
+        <v>52400</v>
       </c>
       <c r="J24" s="3">
+        <v>284400</v>
+      </c>
+      <c r="K24" s="3">
         <v>-30200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>287600</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>155900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1283,78 +1329,87 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-27500</v>
+        <v>1009000</v>
       </c>
       <c r="E26" s="3">
-        <v>203200</v>
+        <v>-28300</v>
       </c>
       <c r="F26" s="3">
-        <v>-1226300</v>
+        <v>209400</v>
       </c>
       <c r="G26" s="3">
-        <v>454500</v>
+        <v>-1263700</v>
       </c>
       <c r="H26" s="3">
-        <v>2072100</v>
+        <v>468400</v>
       </c>
       <c r="I26" s="3">
-        <v>-287000</v>
+        <v>2135400</v>
       </c>
       <c r="J26" s="3">
+        <v>-295800</v>
+      </c>
+      <c r="K26" s="3">
         <v>2338500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1061100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>599600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-149700</v>
+        <v>877400</v>
       </c>
       <c r="E27" s="3">
-        <v>83800</v>
+        <v>-154200</v>
       </c>
       <c r="F27" s="3">
-        <v>-1363600</v>
+        <v>86300</v>
       </c>
       <c r="G27" s="3">
-        <v>395500</v>
+        <v>-1405200</v>
       </c>
       <c r="H27" s="3">
-        <v>1936200</v>
+        <v>407600</v>
       </c>
       <c r="I27" s="3">
-        <v>-432600</v>
+        <v>1995300</v>
       </c>
       <c r="J27" s="3">
+        <v>-445800</v>
+      </c>
+      <c r="K27" s="3">
         <v>1827700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>941300</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>541500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1388,8 +1443,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1423,8 +1481,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1458,8 +1519,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1493,78 +1557,87 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>2440200</v>
+        <v>1538200</v>
       </c>
       <c r="E32" s="3">
-        <v>1808500</v>
+        <v>2514700</v>
       </c>
       <c r="F32" s="3">
-        <v>1569600</v>
+        <v>1863700</v>
       </c>
       <c r="G32" s="3">
-        <v>852800</v>
+        <v>1617500</v>
       </c>
       <c r="H32" s="3">
-        <v>454500</v>
+        <v>878800</v>
       </c>
       <c r="I32" s="3">
-        <v>2473100</v>
+        <v>468400</v>
       </c>
       <c r="J32" s="3">
+        <v>2548600</v>
+      </c>
+      <c r="K32" s="3">
         <v>72800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1243500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2096100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-149700</v>
+        <v>877400</v>
       </c>
       <c r="E33" s="3">
-        <v>83800</v>
+        <v>-154200</v>
       </c>
       <c r="F33" s="3">
-        <v>-1363600</v>
+        <v>86300</v>
       </c>
       <c r="G33" s="3">
-        <v>395500</v>
+        <v>-1405200</v>
       </c>
       <c r="H33" s="3">
-        <v>1936200</v>
+        <v>407600</v>
       </c>
       <c r="I33" s="3">
-        <v>-432600</v>
+        <v>1995300</v>
       </c>
       <c r="J33" s="3">
+        <v>-445800</v>
+      </c>
+      <c r="K33" s="3">
         <v>1827700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>941300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>541500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1598,83 +1671,92 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-149700</v>
+        <v>877400</v>
       </c>
       <c r="E35" s="3">
-        <v>83800</v>
+        <v>-154200</v>
       </c>
       <c r="F35" s="3">
-        <v>-1363600</v>
+        <v>86300</v>
       </c>
       <c r="G35" s="3">
-        <v>395500</v>
+        <v>-1405200</v>
       </c>
       <c r="H35" s="3">
-        <v>1936200</v>
+        <v>407600</v>
       </c>
       <c r="I35" s="3">
-        <v>-432600</v>
+        <v>1995300</v>
       </c>
       <c r="J35" s="3">
+        <v>-445800</v>
+      </c>
+      <c r="K35" s="3">
         <v>1827700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>941300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>541500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1688,8 +1770,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1703,78 +1786,85 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>180497600</v>
+        <v>208850400</v>
       </c>
       <c r="E41" s="3">
-        <v>162382500</v>
+        <v>186007700</v>
       </c>
       <c r="F41" s="3">
-        <v>155517900</v>
+        <v>167339600</v>
       </c>
       <c r="G41" s="3">
-        <v>124124000</v>
+        <v>160265500</v>
       </c>
       <c r="H41" s="3">
-        <v>121591900</v>
+        <v>127913200</v>
       </c>
       <c r="I41" s="3">
-        <v>132776500</v>
+        <v>125303700</v>
       </c>
       <c r="J41" s="3">
+        <v>136829800</v>
+      </c>
+      <c r="K41" s="3">
         <v>135005200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>128935400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>134514500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>323404100</v>
+        <v>266766600</v>
       </c>
       <c r="E42" s="3">
-        <v>322879500</v>
+        <v>333276800</v>
       </c>
       <c r="F42" s="3">
-        <v>351290800</v>
+        <v>332736200</v>
       </c>
       <c r="G42" s="3">
-        <v>399017400</v>
+        <v>362014900</v>
       </c>
       <c r="H42" s="3">
-        <v>311403800</v>
+        <v>411198400</v>
       </c>
       <c r="I42" s="3">
-        <v>367142900</v>
+        <v>320910200</v>
       </c>
       <c r="J42" s="3">
+        <v>378350900</v>
+      </c>
+      <c r="K42" s="3">
         <v>317149200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>297141900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>275342400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1808,8 +1898,11 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1843,8 +1936,11 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1878,8 +1974,11 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1913,8 +2012,11 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1948,8 +2050,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1965,61 +2070,67 @@
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
-        <v>6767100</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>6973700</v>
+      </c>
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>1785100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>5746800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9138600</v>
+        <v>9433100</v>
       </c>
       <c r="E49" s="3">
-        <v>9063100</v>
+        <v>9417600</v>
       </c>
       <c r="F49" s="3">
-        <v>9065800</v>
+        <v>9339700</v>
       </c>
       <c r="G49" s="3">
-        <v>9089100</v>
+        <v>9342600</v>
       </c>
       <c r="H49" s="3">
-        <v>9093300</v>
+        <v>9366600</v>
       </c>
       <c r="I49" s="3">
-        <v>9126200</v>
+        <v>9370900</v>
       </c>
       <c r="J49" s="3">
+        <v>9404800</v>
+      </c>
+      <c r="K49" s="3">
         <v>9105600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8808500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8738300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2053,8 +2164,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2088,8 +2202,11 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2114,17 +2231,20 @@
       <c r="J52" s="3">
         <v>0</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M52" s="3">
         <v>3719300</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2158,43 +2278,49 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1097853000</v>
+        <v>1089317700</v>
       </c>
       <c r="E54" s="3">
-        <v>1086963600</v>
+        <v>1131367700</v>
       </c>
       <c r="F54" s="3">
-        <v>1108009200</v>
+        <v>1120145900</v>
       </c>
       <c r="G54" s="3">
-        <v>1122780600</v>
+        <v>1141833900</v>
       </c>
       <c r="H54" s="3">
-        <v>992869900</v>
+        <v>1157056200</v>
       </c>
       <c r="I54" s="3">
-        <v>1066291600</v>
+        <v>1023179700</v>
       </c>
       <c r="J54" s="3">
+        <v>1098842800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>957457700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>916938600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2208,8 +2334,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2223,8 +2350,9 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2258,8 +2386,11 @@
       <c r="M57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2293,8 +2424,11 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2319,17 +2453,20 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L59" s="3">
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M59" s="3">
         <v>7039800</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2363,43 +2500,49 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>76586900</v>
+        <v>73332400</v>
       </c>
       <c r="E61" s="3">
-        <v>81450800</v>
+        <v>78924900</v>
       </c>
       <c r="F61" s="3">
-        <v>89284800</v>
+        <v>83937200</v>
       </c>
       <c r="G61" s="3">
-        <v>80699600</v>
+        <v>92010500</v>
       </c>
       <c r="H61" s="3">
-        <v>75798700</v>
+        <v>83163200</v>
       </c>
       <c r="I61" s="3">
-        <v>79244000</v>
+        <v>78112700</v>
       </c>
       <c r="J61" s="3">
+        <v>81663200</v>
+      </c>
+      <c r="K61" s="3">
         <v>79910000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>69306000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>66392200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2424,17 +2567,20 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L62" s="3">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M62" s="3">
         <v>4786500</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2468,8 +2614,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2503,8 +2652,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2538,43 +2690,49 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1037624900</v>
+        <v>1028915200</v>
       </c>
       <c r="E66" s="3">
-        <v>1027658300</v>
+        <v>1069301000</v>
       </c>
       <c r="F66" s="3">
-        <v>1048820600</v>
+        <v>1059030100</v>
       </c>
       <c r="G66" s="3">
-        <v>1062136400</v>
+        <v>1080838400</v>
       </c>
       <c r="H66" s="3">
-        <v>933071600</v>
+        <v>1094560700</v>
       </c>
       <c r="I66" s="3">
-        <v>1005692800</v>
+        <v>961555900</v>
       </c>
       <c r="J66" s="3">
+        <v>1036394000</v>
+      </c>
+      <c r="K66" s="3">
         <v>938778600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>896037500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>856531000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2588,8 +2746,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2623,8 +2782,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2658,8 +2820,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2693,8 +2858,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2728,43 +2896,49 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32198600</v>
+        <v>32369200</v>
       </c>
       <c r="E72" s="3">
-        <v>32890600</v>
+        <v>33181500</v>
       </c>
       <c r="F72" s="3">
-        <v>32710800</v>
+        <v>33894700</v>
       </c>
       <c r="G72" s="3">
-        <v>36999200</v>
+        <v>33709300</v>
       </c>
       <c r="H72" s="3">
-        <v>34092200</v>
+        <v>38128700</v>
       </c>
       <c r="I72" s="3">
-        <v>32330400</v>
+        <v>35132900</v>
       </c>
       <c r="J72" s="3">
+        <v>33317300</v>
+      </c>
+      <c r="K72" s="3">
         <v>35242900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>34094500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33274700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2798,8 +2972,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2833,8 +3010,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2868,43 +3048,49 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60228100</v>
+        <v>60402600</v>
       </c>
       <c r="E76" s="3">
-        <v>59305300</v>
+        <v>62066700</v>
       </c>
       <c r="F76" s="3">
-        <v>59188600</v>
+        <v>61115800</v>
       </c>
       <c r="G76" s="3">
-        <v>60644200</v>
+        <v>60995500</v>
       </c>
       <c r="H76" s="3">
-        <v>59798300</v>
+        <v>62495500</v>
       </c>
       <c r="I76" s="3">
-        <v>60598900</v>
+        <v>61623800</v>
       </c>
       <c r="J76" s="3">
+        <v>62448800</v>
+      </c>
+      <c r="K76" s="3">
         <v>63470200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>61420100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>60407700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2938,83 +3124,92 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-149700</v>
+        <v>877400</v>
       </c>
       <c r="E81" s="3">
-        <v>83800</v>
+        <v>-154200</v>
       </c>
       <c r="F81" s="3">
-        <v>-1363600</v>
+        <v>86300</v>
       </c>
       <c r="G81" s="3">
-        <v>395500</v>
+        <v>-1405200</v>
       </c>
       <c r="H81" s="3">
-        <v>1936200</v>
+        <v>407600</v>
       </c>
       <c r="I81" s="3">
-        <v>-432600</v>
+        <v>1995300</v>
       </c>
       <c r="J81" s="3">
+        <v>-445800</v>
+      </c>
+      <c r="K81" s="3">
         <v>1827700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>941300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>541500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3028,8 +3223,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3063,8 +3259,11 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3098,8 +3297,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3133,8 +3335,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3168,8 +3373,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3203,8 +3411,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3238,8 +3449,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3273,8 +3487,11 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3288,8 +3505,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3323,8 +3541,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3358,8 +3579,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3393,8 +3617,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3428,8 +3655,11 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3443,8 +3673,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3478,8 +3709,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3513,8 +3747,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3548,8 +3785,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3583,8 +3823,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3618,8 +3861,11 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3653,8 +3899,11 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3686,6 +3935,9 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,98 +665,106 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3324100</v>
+        <v>3318100</v>
       </c>
       <c r="E8" s="3">
-        <v>3352400</v>
+        <v>3203500</v>
       </c>
       <c r="F8" s="3">
-        <v>3554800</v>
+        <v>3230800</v>
       </c>
       <c r="G8" s="3">
-        <v>3547700</v>
+        <v>3425800</v>
       </c>
       <c r="H8" s="3">
-        <v>3796700</v>
+        <v>3419000</v>
       </c>
       <c r="I8" s="3">
-        <v>4105200</v>
+        <v>3659000</v>
       </c>
       <c r="J8" s="3">
+        <v>3956400</v>
+      </c>
+      <c r="K8" s="3">
         <v>4133500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3853200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3657400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3731200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -793,8 +801,11 @@
       <c r="N9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -831,8 +842,11 @@
       <c r="N10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,8 +861,9 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -885,8 +900,11 @@
       <c r="N12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -923,8 +941,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -961,46 +982,52 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-290100</v>
+        <v>-285000</v>
       </c>
       <c r="E15" s="3">
-        <v>-382100</v>
+        <v>-279600</v>
       </c>
       <c r="F15" s="3">
-        <v>-274500</v>
+        <v>-368200</v>
       </c>
       <c r="G15" s="3">
-        <v>-350900</v>
+        <v>-264600</v>
       </c>
       <c r="H15" s="3">
-        <v>-273100</v>
+        <v>-338200</v>
       </c>
       <c r="I15" s="3">
-        <v>-457100</v>
+        <v>-263200</v>
       </c>
       <c r="J15" s="3">
+        <v>-440500</v>
+      </c>
+      <c r="K15" s="3">
         <v>-328300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-517700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-324900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-247000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1012,84 +1039,91 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>447200</v>
+        <v>-214100</v>
       </c>
       <c r="E17" s="3">
-        <v>747200</v>
+        <v>431000</v>
       </c>
       <c r="F17" s="3">
-        <v>1188700</v>
+        <v>720100</v>
       </c>
       <c r="G17" s="3">
-        <v>3754300</v>
+        <v>1145600</v>
       </c>
       <c r="H17" s="3">
-        <v>2183500</v>
+        <v>3618100</v>
       </c>
       <c r="I17" s="3">
-        <v>1449100</v>
+        <v>2104300</v>
       </c>
       <c r="J17" s="3">
+        <v>1396500</v>
+      </c>
+      <c r="K17" s="3">
         <v>1596200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1472100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1065100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>879600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2876900</v>
+        <v>3532200</v>
       </c>
       <c r="E18" s="3">
-        <v>2605200</v>
+        <v>2772600</v>
       </c>
       <c r="F18" s="3">
-        <v>2366100</v>
+        <v>2510700</v>
       </c>
       <c r="G18" s="3">
-        <v>-206600</v>
+        <v>2280300</v>
       </c>
       <c r="H18" s="3">
-        <v>1613200</v>
+        <v>-199100</v>
       </c>
       <c r="I18" s="3">
-        <v>2656200</v>
+        <v>1554700</v>
       </c>
       <c r="J18" s="3">
+        <v>2559800</v>
+      </c>
+      <c r="K18" s="3">
         <v>2537300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2381100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2592200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2851600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1104,46 +1138,50 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1538200</v>
+        <v>-1406100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2514700</v>
+        <v>-1482400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1863700</v>
+        <v>-2423500</v>
       </c>
       <c r="G20" s="3">
-        <v>-1617500</v>
+        <v>-1796100</v>
       </c>
       <c r="H20" s="3">
-        <v>-878800</v>
+        <v>-1558800</v>
       </c>
       <c r="I20" s="3">
-        <v>-468400</v>
+        <v>-846900</v>
       </c>
       <c r="J20" s="3">
+        <v>-451400</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-72800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1180,8 +1218,11 @@
       <c r="N21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1218,84 +1259,93 @@
       <c r="N22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1338700</v>
+        <v>2126100</v>
       </c>
       <c r="E23" s="3">
-        <v>90600</v>
+        <v>1290100</v>
       </c>
       <c r="F23" s="3">
-        <v>502400</v>
+        <v>87300</v>
       </c>
       <c r="G23" s="3">
-        <v>-1824100</v>
+        <v>484100</v>
       </c>
       <c r="H23" s="3">
-        <v>734400</v>
+        <v>-1757900</v>
       </c>
       <c r="I23" s="3">
-        <v>2187800</v>
+        <v>707800</v>
       </c>
       <c r="J23" s="3">
+        <v>2108400</v>
+      </c>
+      <c r="K23" s="3">
         <v>-11300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2308300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1348700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>755500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>329700</v>
+        <v>275500</v>
       </c>
       <c r="E24" s="3">
-        <v>118900</v>
+        <v>317800</v>
       </c>
       <c r="F24" s="3">
-        <v>292900</v>
+        <v>114600</v>
       </c>
       <c r="G24" s="3">
-        <v>-560400</v>
+        <v>282300</v>
       </c>
       <c r="H24" s="3">
-        <v>266000</v>
+        <v>-540100</v>
       </c>
       <c r="I24" s="3">
-        <v>52400</v>
+        <v>256400</v>
       </c>
       <c r="J24" s="3">
+        <v>50500</v>
+      </c>
+      <c r="K24" s="3">
         <v>284400</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-30200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>287600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>155900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1332,84 +1382,93 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1009000</v>
+        <v>1850700</v>
       </c>
       <c r="E26" s="3">
-        <v>-28300</v>
+        <v>972400</v>
       </c>
       <c r="F26" s="3">
-        <v>209400</v>
+        <v>-27300</v>
       </c>
       <c r="G26" s="3">
-        <v>-1263700</v>
+        <v>201800</v>
       </c>
       <c r="H26" s="3">
-        <v>468400</v>
+        <v>-1217900</v>
       </c>
       <c r="I26" s="3">
-        <v>2135400</v>
+        <v>451400</v>
       </c>
       <c r="J26" s="3">
+        <v>2058000</v>
+      </c>
+      <c r="K26" s="3">
         <v>-295800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2338500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1061100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>599600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>877400</v>
+        <v>1666600</v>
       </c>
       <c r="E27" s="3">
-        <v>-154200</v>
+        <v>845500</v>
       </c>
       <c r="F27" s="3">
-        <v>86300</v>
+        <v>-148700</v>
       </c>
       <c r="G27" s="3">
-        <v>-1405200</v>
+        <v>83200</v>
       </c>
       <c r="H27" s="3">
-        <v>407600</v>
+        <v>-1354200</v>
       </c>
       <c r="I27" s="3">
-        <v>1995300</v>
+        <v>392800</v>
       </c>
       <c r="J27" s="3">
+        <v>1922900</v>
+      </c>
+      <c r="K27" s="3">
         <v>-445800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1827700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>941300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>541500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1446,8 +1505,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1484,8 +1546,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1522,8 +1587,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1560,84 +1628,93 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1538200</v>
+        <v>1406100</v>
       </c>
       <c r="E32" s="3">
-        <v>2514700</v>
+        <v>1482400</v>
       </c>
       <c r="F32" s="3">
-        <v>1863700</v>
+        <v>2423500</v>
       </c>
       <c r="G32" s="3">
-        <v>1617500</v>
+        <v>1796100</v>
       </c>
       <c r="H32" s="3">
-        <v>878800</v>
+        <v>1558800</v>
       </c>
       <c r="I32" s="3">
-        <v>468400</v>
+        <v>846900</v>
       </c>
       <c r="J32" s="3">
+        <v>451400</v>
+      </c>
+      <c r="K32" s="3">
         <v>2548600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>72800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1243500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2096100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>877400</v>
+        <v>1666600</v>
       </c>
       <c r="E33" s="3">
-        <v>-154200</v>
+        <v>845500</v>
       </c>
       <c r="F33" s="3">
-        <v>86300</v>
+        <v>-148700</v>
       </c>
       <c r="G33" s="3">
-        <v>-1405200</v>
+        <v>83200</v>
       </c>
       <c r="H33" s="3">
-        <v>407600</v>
+        <v>-1354200</v>
       </c>
       <c r="I33" s="3">
-        <v>1995300</v>
+        <v>392800</v>
       </c>
       <c r="J33" s="3">
+        <v>1922900</v>
+      </c>
+      <c r="K33" s="3">
         <v>-445800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1827700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>941300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>541500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1674,89 +1751,98 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>877400</v>
+        <v>1666600</v>
       </c>
       <c r="E35" s="3">
-        <v>-154200</v>
+        <v>845500</v>
       </c>
       <c r="F35" s="3">
-        <v>86300</v>
+        <v>-148700</v>
       </c>
       <c r="G35" s="3">
-        <v>-1405200</v>
+        <v>83200</v>
       </c>
       <c r="H35" s="3">
-        <v>407600</v>
+        <v>-1354200</v>
       </c>
       <c r="I35" s="3">
-        <v>1995300</v>
+        <v>392800</v>
       </c>
       <c r="J35" s="3">
+        <v>1922900</v>
+      </c>
+      <c r="K35" s="3">
         <v>-445800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1827700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>941300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>541500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1771,8 +1857,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1787,84 +1874,91 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>208850400</v>
+        <v>217779500</v>
       </c>
       <c r="E41" s="3">
-        <v>186007700</v>
+        <v>201276300</v>
       </c>
       <c r="F41" s="3">
-        <v>167339600</v>
+        <v>179262000</v>
       </c>
       <c r="G41" s="3">
-        <v>160265500</v>
+        <v>161270900</v>
       </c>
       <c r="H41" s="3">
-        <v>127913200</v>
+        <v>154453300</v>
       </c>
       <c r="I41" s="3">
-        <v>125303700</v>
+        <v>123274300</v>
       </c>
       <c r="J41" s="3">
+        <v>120759500</v>
+      </c>
+      <c r="K41" s="3">
         <v>136829800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>135005200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>128935400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134514500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>266766600</v>
+        <v>245142600</v>
       </c>
       <c r="E42" s="3">
-        <v>333276800</v>
+        <v>257092100</v>
       </c>
       <c r="F42" s="3">
-        <v>332736200</v>
+        <v>321190300</v>
       </c>
       <c r="G42" s="3">
-        <v>362014900</v>
+        <v>320669300</v>
       </c>
       <c r="H42" s="3">
-        <v>411198400</v>
+        <v>348886100</v>
       </c>
       <c r="I42" s="3">
-        <v>320910200</v>
+        <v>396286000</v>
       </c>
       <c r="J42" s="3">
+        <v>309272100</v>
+      </c>
+      <c r="K42" s="3">
         <v>378350900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>317149200</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>297141900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>275342400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1901,8 +1995,11 @@
       <c r="N43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1939,8 +2036,11 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1977,8 +2077,11 @@
       <c r="N45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2015,8 +2118,11 @@
       <c r="N46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2053,8 +2159,11 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2073,64 +2182,70 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
-        <v>6973700</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>6720800</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>1785100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>5746800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9433100</v>
+        <v>9129200</v>
       </c>
       <c r="E49" s="3">
-        <v>9417600</v>
+        <v>9091000</v>
       </c>
       <c r="F49" s="3">
-        <v>9339700</v>
+        <v>9076000</v>
       </c>
       <c r="G49" s="3">
-        <v>9342600</v>
+        <v>9001000</v>
       </c>
       <c r="H49" s="3">
-        <v>9366600</v>
+        <v>9003700</v>
       </c>
       <c r="I49" s="3">
-        <v>9370900</v>
+        <v>9026900</v>
       </c>
       <c r="J49" s="3">
+        <v>9031000</v>
+      </c>
+      <c r="K49" s="3">
         <v>9404800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9105600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8808500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8738300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2167,8 +2282,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2205,8 +2323,11 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2234,17 +2355,20 @@
       <c r="K52" s="3">
         <v>0</v>
       </c>
-      <c r="L52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M52" s="3">
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N52" s="3">
         <v>3719300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2281,46 +2405,52 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1089317700</v>
+        <v>1058107400</v>
       </c>
       <c r="E54" s="3">
-        <v>1131367700</v>
+        <v>1049812800</v>
       </c>
       <c r="F54" s="3">
-        <v>1120145900</v>
+        <v>1090337800</v>
       </c>
       <c r="G54" s="3">
-        <v>1141833900</v>
+        <v>1079523000</v>
       </c>
       <c r="H54" s="3">
-        <v>1157056200</v>
+        <v>1100424400</v>
       </c>
       <c r="I54" s="3">
-        <v>1023179700</v>
+        <v>1115094700</v>
       </c>
       <c r="J54" s="3">
+        <v>986073400</v>
+      </c>
+      <c r="K54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>957457700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>916938600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2335,8 +2465,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2351,8 +2482,9 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2389,8 +2521,11 @@
       <c r="N57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2427,8 +2562,11 @@
       <c r="N58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2456,17 +2594,20 @@
       <c r="K59" s="3">
         <v>0</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M59" s="3">
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N59" s="3">
         <v>7039800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2503,46 +2644,52 @@
       <c r="N60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73332400</v>
+        <v>77007800</v>
       </c>
       <c r="E61" s="3">
-        <v>78924900</v>
+        <v>70673000</v>
       </c>
       <c r="F61" s="3">
-        <v>83937200</v>
+        <v>76062700</v>
       </c>
       <c r="G61" s="3">
-        <v>92010500</v>
+        <v>80893200</v>
       </c>
       <c r="H61" s="3">
-        <v>83163200</v>
+        <v>88673600</v>
       </c>
       <c r="I61" s="3">
-        <v>78112700</v>
+        <v>80147200</v>
       </c>
       <c r="J61" s="3">
+        <v>75279800</v>
+      </c>
+      <c r="K61" s="3">
         <v>81663200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>79910000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>69306000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>66392200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2570,17 +2717,20 @@
       <c r="K62" s="3">
         <v>0</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M62" s="3">
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N62" s="3">
         <v>4786500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2617,8 +2767,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2655,8 +2808,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2693,46 +2849,52 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1028915200</v>
+        <v>998271100</v>
       </c>
       <c r="E66" s="3">
-        <v>1069301000</v>
+        <v>991600800</v>
       </c>
       <c r="F66" s="3">
-        <v>1059030100</v>
+        <v>1030522000</v>
       </c>
       <c r="G66" s="3">
-        <v>1080838400</v>
+        <v>1020623600</v>
       </c>
       <c r="H66" s="3">
-        <v>1094560700</v>
+        <v>1041641000</v>
       </c>
       <c r="I66" s="3">
-        <v>961555900</v>
+        <v>1054865700</v>
       </c>
       <c r="J66" s="3">
+        <v>926684400</v>
+      </c>
+      <c r="K66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>938778600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>896037500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>856531000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2747,8 +2909,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2785,8 +2948,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2823,8 +2989,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2861,8 +3030,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2899,46 +3071,52 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32369200</v>
+        <v>32631400</v>
       </c>
       <c r="E72" s="3">
-        <v>33181500</v>
+        <v>31195300</v>
       </c>
       <c r="F72" s="3">
-        <v>33894700</v>
+        <v>31978100</v>
       </c>
       <c r="G72" s="3">
-        <v>33709300</v>
+        <v>32665500</v>
       </c>
       <c r="H72" s="3">
-        <v>38128700</v>
+        <v>32486800</v>
       </c>
       <c r="I72" s="3">
-        <v>35132900</v>
+        <v>36746000</v>
       </c>
       <c r="J72" s="3">
+        <v>33858800</v>
+      </c>
+      <c r="K72" s="3">
         <v>33317300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35242900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>34094500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33274700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2975,8 +3153,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3013,8 +3194,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3051,46 +3235,52 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>60402600</v>
+        <v>59836300</v>
       </c>
       <c r="E76" s="3">
-        <v>62066700</v>
+        <v>58212000</v>
       </c>
       <c r="F76" s="3">
-        <v>61115800</v>
+        <v>59815800</v>
       </c>
       <c r="G76" s="3">
-        <v>60995500</v>
+        <v>58899400</v>
       </c>
       <c r="H76" s="3">
-        <v>62495500</v>
+        <v>58783400</v>
       </c>
       <c r="I76" s="3">
-        <v>61623800</v>
+        <v>60229100</v>
       </c>
       <c r="J76" s="3">
+        <v>59389000</v>
+      </c>
+      <c r="K76" s="3">
         <v>62448800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>63470200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>61420100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>60407700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3127,89 +3317,98 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>877400</v>
+        <v>1666600</v>
       </c>
       <c r="E81" s="3">
-        <v>-154200</v>
+        <v>845500</v>
       </c>
       <c r="F81" s="3">
-        <v>86300</v>
+        <v>-148700</v>
       </c>
       <c r="G81" s="3">
-        <v>-1405200</v>
+        <v>83200</v>
       </c>
       <c r="H81" s="3">
-        <v>407600</v>
+        <v>-1354200</v>
       </c>
       <c r="I81" s="3">
-        <v>1995300</v>
+        <v>392800</v>
       </c>
       <c r="J81" s="3">
+        <v>1922900</v>
+      </c>
+      <c r="K81" s="3">
         <v>-445800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1827700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>941300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>541500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3224,8 +3423,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3262,8 +3462,11 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3300,8 +3503,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3338,8 +3544,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3376,8 +3585,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3414,8 +3626,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3452,8 +3667,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3490,8 +3708,11 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3506,8 +3727,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3544,8 +3766,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3582,8 +3807,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3620,8 +3848,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3658,8 +3889,11 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3674,8 +3908,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3712,8 +3947,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3750,8 +3988,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3788,8 +4029,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3826,8 +4070,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3864,8 +4111,11 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3902,8 +4152,11 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3938,6 +4191,9 @@
         <v>0</v>
       </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,106 +665,112 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3318100</v>
+        <v>3173300</v>
       </c>
       <c r="E8" s="3">
-        <v>3203500</v>
+        <v>3238600</v>
       </c>
       <c r="F8" s="3">
-        <v>3230800</v>
+        <v>3126800</v>
       </c>
       <c r="G8" s="3">
-        <v>3425800</v>
+        <v>3153400</v>
       </c>
       <c r="H8" s="3">
-        <v>3419000</v>
+        <v>3343700</v>
       </c>
       <c r="I8" s="3">
-        <v>3659000</v>
+        <v>3337100</v>
       </c>
       <c r="J8" s="3">
+        <v>3571300</v>
+      </c>
+      <c r="K8" s="3">
         <v>3956400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>4133500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3853200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3657400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3731200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -804,8 +810,11 @@
       <c r="O9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -845,8 +854,11 @@
       <c r="O10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,8 +874,9 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,8 +916,11 @@
       <c r="O12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -944,8 +960,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -985,49 +1004,55 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-285000</v>
+        <v>-264900</v>
       </c>
       <c r="E15" s="3">
-        <v>-279600</v>
+        <v>-278200</v>
       </c>
       <c r="F15" s="3">
-        <v>-368200</v>
+        <v>-272900</v>
       </c>
       <c r="G15" s="3">
-        <v>-264600</v>
+        <v>-359400</v>
       </c>
       <c r="H15" s="3">
-        <v>-338200</v>
+        <v>-258200</v>
       </c>
       <c r="I15" s="3">
-        <v>-263200</v>
+        <v>-330100</v>
       </c>
       <c r="J15" s="3">
+        <v>-256900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-440500</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-328300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-517700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-324900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-247000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1040,90 +1065,97 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>-214100</v>
+        <v>250200</v>
       </c>
       <c r="E17" s="3">
-        <v>431000</v>
+        <v>-209000</v>
       </c>
       <c r="F17" s="3">
-        <v>720100</v>
+        <v>420600</v>
       </c>
       <c r="G17" s="3">
-        <v>1145600</v>
+        <v>702800</v>
       </c>
       <c r="H17" s="3">
-        <v>3618100</v>
+        <v>1118100</v>
       </c>
       <c r="I17" s="3">
-        <v>2104300</v>
+        <v>3531400</v>
       </c>
       <c r="J17" s="3">
+        <v>2053900</v>
+      </c>
+      <c r="K17" s="3">
         <v>1396500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1596200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1472100</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1065100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>879600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3532200</v>
+        <v>2923100</v>
       </c>
       <c r="E18" s="3">
-        <v>2772600</v>
+        <v>3447500</v>
       </c>
       <c r="F18" s="3">
-        <v>2510700</v>
+        <v>2706100</v>
       </c>
       <c r="G18" s="3">
-        <v>2280300</v>
+        <v>2450600</v>
       </c>
       <c r="H18" s="3">
-        <v>-199100</v>
+        <v>2225600</v>
       </c>
       <c r="I18" s="3">
-        <v>1554700</v>
+        <v>-194300</v>
       </c>
       <c r="J18" s="3">
+        <v>1517500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2559800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2537300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2381100</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2592200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2851600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1139,49 +1171,53 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1406100</v>
+        <v>-1493500</v>
       </c>
       <c r="E20" s="3">
-        <v>-1482400</v>
+        <v>-1372400</v>
       </c>
       <c r="F20" s="3">
-        <v>-2423500</v>
+        <v>-1446900</v>
       </c>
       <c r="G20" s="3">
-        <v>-1796100</v>
+        <v>-2365400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1558800</v>
+        <v>-1753100</v>
       </c>
       <c r="I20" s="3">
-        <v>-846900</v>
+        <v>-1521400</v>
       </c>
       <c r="J20" s="3">
+        <v>-826600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-451400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-72800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1221,8 +1257,11 @@
       <c r="O21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1262,90 +1301,99 @@
       <c r="O22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2126100</v>
+        <v>1429600</v>
       </c>
       <c r="E23" s="3">
-        <v>1290100</v>
+        <v>2075200</v>
       </c>
       <c r="F23" s="3">
-        <v>87300</v>
+        <v>1259200</v>
       </c>
       <c r="G23" s="3">
-        <v>484100</v>
+        <v>85200</v>
       </c>
       <c r="H23" s="3">
-        <v>-1757900</v>
+        <v>472500</v>
       </c>
       <c r="I23" s="3">
-        <v>707800</v>
+        <v>-1715800</v>
       </c>
       <c r="J23" s="3">
+        <v>690800</v>
+      </c>
+      <c r="K23" s="3">
         <v>2108400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-11300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2308300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1348700</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>755500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>439300</v>
+      </c>
+      <c r="E24" s="3">
+        <v>268900</v>
+      </c>
+      <c r="F24" s="3">
+        <v>310100</v>
+      </c>
+      <c r="G24" s="3">
+        <v>111800</v>
+      </c>
+      <c r="H24" s="3">
         <v>275500</v>
       </c>
-      <c r="E24" s="3">
-        <v>317800</v>
-      </c>
-      <c r="F24" s="3">
-        <v>114600</v>
-      </c>
-      <c r="G24" s="3">
-        <v>282300</v>
-      </c>
-      <c r="H24" s="3">
-        <v>-540100</v>
-      </c>
       <c r="I24" s="3">
-        <v>256400</v>
+        <v>-527100</v>
       </c>
       <c r="J24" s="3">
+        <v>250200</v>
+      </c>
+      <c r="K24" s="3">
         <v>50500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>284400</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-30200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>287600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>155900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1385,90 +1433,99 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1850700</v>
+        <v>990300</v>
       </c>
       <c r="E26" s="3">
-        <v>972400</v>
+        <v>1806300</v>
       </c>
       <c r="F26" s="3">
-        <v>-27300</v>
+        <v>949100</v>
       </c>
       <c r="G26" s="3">
-        <v>201800</v>
+        <v>-26600</v>
       </c>
       <c r="H26" s="3">
-        <v>-1217900</v>
+        <v>197000</v>
       </c>
       <c r="I26" s="3">
-        <v>451400</v>
+        <v>-1188700</v>
       </c>
       <c r="J26" s="3">
+        <v>440600</v>
+      </c>
+      <c r="K26" s="3">
         <v>2058000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-295800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2338500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1061100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>599600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1666600</v>
+        <v>897200</v>
       </c>
       <c r="E27" s="3">
-        <v>845500</v>
+        <v>1626600</v>
       </c>
       <c r="F27" s="3">
-        <v>-148700</v>
+        <v>825300</v>
       </c>
       <c r="G27" s="3">
-        <v>83200</v>
+        <v>-145100</v>
       </c>
       <c r="H27" s="3">
-        <v>-1354200</v>
+        <v>81200</v>
       </c>
       <c r="I27" s="3">
-        <v>392800</v>
+        <v>-1321800</v>
       </c>
       <c r="J27" s="3">
+        <v>383400</v>
+      </c>
+      <c r="K27" s="3">
         <v>1922900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-445800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1827700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>941300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>541500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1508,8 +1565,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1549,8 +1609,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1590,8 +1653,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1631,90 +1697,99 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1406100</v>
+        <v>1493500</v>
       </c>
       <c r="E32" s="3">
-        <v>1482400</v>
+        <v>1372400</v>
       </c>
       <c r="F32" s="3">
-        <v>2423500</v>
+        <v>1446900</v>
       </c>
       <c r="G32" s="3">
-        <v>1796100</v>
+        <v>2365400</v>
       </c>
       <c r="H32" s="3">
-        <v>1558800</v>
+        <v>1753100</v>
       </c>
       <c r="I32" s="3">
-        <v>846900</v>
+        <v>1521400</v>
       </c>
       <c r="J32" s="3">
+        <v>826600</v>
+      </c>
+      <c r="K32" s="3">
         <v>451400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2548600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>72800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1243500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2096100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1666600</v>
+        <v>897200</v>
       </c>
       <c r="E33" s="3">
-        <v>845500</v>
+        <v>1626600</v>
       </c>
       <c r="F33" s="3">
-        <v>-148700</v>
+        <v>825300</v>
       </c>
       <c r="G33" s="3">
-        <v>83200</v>
+        <v>-145100</v>
       </c>
       <c r="H33" s="3">
-        <v>-1354200</v>
+        <v>81200</v>
       </c>
       <c r="I33" s="3">
-        <v>392800</v>
+        <v>-1321800</v>
       </c>
       <c r="J33" s="3">
+        <v>383400</v>
+      </c>
+      <c r="K33" s="3">
         <v>1922900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-445800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1827700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>941300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>541500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1754,95 +1829,104 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1666600</v>
+        <v>897200</v>
       </c>
       <c r="E35" s="3">
-        <v>845500</v>
+        <v>1626600</v>
       </c>
       <c r="F35" s="3">
-        <v>-148700</v>
+        <v>825300</v>
       </c>
       <c r="G35" s="3">
-        <v>83200</v>
+        <v>-145100</v>
       </c>
       <c r="H35" s="3">
-        <v>-1354200</v>
+        <v>81200</v>
       </c>
       <c r="I35" s="3">
-        <v>392800</v>
+        <v>-1321800</v>
       </c>
       <c r="J35" s="3">
+        <v>383400</v>
+      </c>
+      <c r="K35" s="3">
         <v>1922900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-445800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1827700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>941300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>541500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1858,8 +1942,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1875,90 +1960,97 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>217779500</v>
+        <v>231747200</v>
       </c>
       <c r="E41" s="3">
-        <v>201276300</v>
+        <v>212559400</v>
       </c>
       <c r="F41" s="3">
-        <v>179262000</v>
+        <v>196451700</v>
       </c>
       <c r="G41" s="3">
-        <v>161270900</v>
+        <v>174965100</v>
       </c>
       <c r="H41" s="3">
-        <v>154453300</v>
+        <v>157405200</v>
       </c>
       <c r="I41" s="3">
-        <v>123274300</v>
+        <v>150751100</v>
       </c>
       <c r="J41" s="3">
+        <v>120319500</v>
+      </c>
+      <c r="K41" s="3">
         <v>120759500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>136829800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>135005200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>128935400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>134514500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>245142600</v>
+        <v>226456000</v>
       </c>
       <c r="E42" s="3">
-        <v>257092100</v>
+        <v>239266600</v>
       </c>
       <c r="F42" s="3">
-        <v>321190300</v>
+        <v>250929700</v>
       </c>
       <c r="G42" s="3">
-        <v>320669300</v>
+        <v>313491400</v>
       </c>
       <c r="H42" s="3">
-        <v>348886100</v>
+        <v>312982900</v>
       </c>
       <c r="I42" s="3">
-        <v>396286000</v>
+        <v>340523300</v>
       </c>
       <c r="J42" s="3">
+        <v>386787000</v>
+      </c>
+      <c r="K42" s="3">
         <v>309272100</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>378350900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>317149200</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>297141900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>275342400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1998,8 +2090,11 @@
       <c r="O43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2039,8 +2134,11 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2080,8 +2178,11 @@
       <c r="O45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2121,8 +2222,11 @@
       <c r="O46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2162,8 +2266,11 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2185,67 +2292,73 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>6720800</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>1785100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>5746800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9129200</v>
+        <v>8949000</v>
       </c>
       <c r="E49" s="3">
-        <v>9091000</v>
+        <v>8910400</v>
       </c>
       <c r="F49" s="3">
-        <v>9076000</v>
+        <v>8873100</v>
       </c>
       <c r="G49" s="3">
-        <v>9001000</v>
+        <v>8858500</v>
       </c>
       <c r="H49" s="3">
-        <v>9003700</v>
+        <v>8785300</v>
       </c>
       <c r="I49" s="3">
-        <v>9026900</v>
+        <v>8787900</v>
       </c>
       <c r="J49" s="3">
+        <v>8810600</v>
+      </c>
+      <c r="K49" s="3">
         <v>9031000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9404800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9105600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8808500</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8738300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2285,8 +2398,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2326,8 +2442,11 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2358,17 +2477,20 @@
       <c r="L52" s="3">
         <v>0</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N52" s="3">
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O52" s="3">
         <v>3719300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2408,49 +2530,55 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1058107400</v>
+        <v>1035965800</v>
       </c>
       <c r="E54" s="3">
-        <v>1049812800</v>
+        <v>1032744600</v>
       </c>
       <c r="F54" s="3">
-        <v>1090337800</v>
+        <v>1024648800</v>
       </c>
       <c r="G54" s="3">
-        <v>1079523000</v>
+        <v>1064202500</v>
       </c>
       <c r="H54" s="3">
-        <v>1100424400</v>
+        <v>1053646800</v>
       </c>
       <c r="I54" s="3">
-        <v>1115094700</v>
+        <v>1074047300</v>
       </c>
       <c r="J54" s="3">
+        <v>1088365900</v>
+      </c>
+      <c r="K54" s="3">
         <v>986073400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>957457700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>916938600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2466,8 +2594,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2483,8 +2612,9 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2524,8 +2654,11 @@
       <c r="O57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2565,8 +2698,11 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2597,17 +2733,20 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N59" s="3">
+      <c r="M59" s="3">
+        <v>0</v>
+      </c>
+      <c r="N59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O59" s="3">
         <v>7039800</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2647,49 +2786,55 @@
       <c r="O60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>77007800</v>
+        <v>75249700</v>
       </c>
       <c r="E61" s="3">
-        <v>70673000</v>
+        <v>75161900</v>
       </c>
       <c r="F61" s="3">
-        <v>76062700</v>
+        <v>68978900</v>
       </c>
       <c r="G61" s="3">
-        <v>80893200</v>
+        <v>74239400</v>
       </c>
       <c r="H61" s="3">
-        <v>88673600</v>
+        <v>78954200</v>
       </c>
       <c r="I61" s="3">
-        <v>80147200</v>
+        <v>86548100</v>
       </c>
       <c r="J61" s="3">
+        <v>78226100</v>
+      </c>
+      <c r="K61" s="3">
         <v>75279800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>81663200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>79910000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>69306000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>66392200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2720,17 +2865,20 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N62" s="3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O62" s="3">
         <v>4786500</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2770,8 +2918,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2811,8 +2962,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2852,49 +3006,55 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>998271100</v>
+        <v>980224700</v>
       </c>
       <c r="E66" s="3">
-        <v>991600800</v>
+        <v>974342600</v>
       </c>
       <c r="F66" s="3">
-        <v>1030522000</v>
+        <v>967832200</v>
       </c>
       <c r="G66" s="3">
-        <v>1020623600</v>
+        <v>1005820400</v>
       </c>
       <c r="H66" s="3">
-        <v>1041641000</v>
+        <v>996159300</v>
       </c>
       <c r="I66" s="3">
-        <v>1054865700</v>
+        <v>1016672900</v>
       </c>
       <c r="J66" s="3">
+        <v>1029580600</v>
+      </c>
+      <c r="K66" s="3">
         <v>926684400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>938778600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>896037500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>856531000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2910,8 +3070,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2951,8 +3112,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2992,8 +3156,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3033,8 +3200,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3074,49 +3244,55 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32631400</v>
+        <v>31568400</v>
       </c>
       <c r="E72" s="3">
-        <v>31195300</v>
+        <v>31849200</v>
       </c>
       <c r="F72" s="3">
-        <v>31978100</v>
+        <v>30447600</v>
       </c>
       <c r="G72" s="3">
-        <v>32665500</v>
+        <v>31211600</v>
       </c>
       <c r="H72" s="3">
-        <v>32486800</v>
+        <v>31882500</v>
       </c>
       <c r="I72" s="3">
-        <v>36746000</v>
+        <v>31708100</v>
       </c>
       <c r="J72" s="3">
+        <v>35865200</v>
+      </c>
+      <c r="K72" s="3">
         <v>33858800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33317300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35242900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>34094500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33274700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3156,8 +3332,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3197,8 +3376,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3238,49 +3420,55 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>59836300</v>
+        <v>55741100</v>
       </c>
       <c r="E76" s="3">
-        <v>58212000</v>
+        <v>58402000</v>
       </c>
       <c r="F76" s="3">
-        <v>59815800</v>
+        <v>56816700</v>
       </c>
       <c r="G76" s="3">
-        <v>58899400</v>
+        <v>58382000</v>
       </c>
       <c r="H76" s="3">
-        <v>58783400</v>
+        <v>57487500</v>
       </c>
       <c r="I76" s="3">
-        <v>60229100</v>
+        <v>57374400</v>
       </c>
       <c r="J76" s="3">
+        <v>58785400</v>
+      </c>
+      <c r="K76" s="3">
         <v>59389000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>62448800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>63470200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>61420100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>60407700</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3320,95 +3508,104 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1666600</v>
+        <v>897200</v>
       </c>
       <c r="E81" s="3">
-        <v>845500</v>
+        <v>1626600</v>
       </c>
       <c r="F81" s="3">
-        <v>-148700</v>
+        <v>825300</v>
       </c>
       <c r="G81" s="3">
-        <v>83200</v>
+        <v>-145100</v>
       </c>
       <c r="H81" s="3">
-        <v>-1354200</v>
+        <v>81200</v>
       </c>
       <c r="I81" s="3">
-        <v>392800</v>
+        <v>-1321800</v>
       </c>
       <c r="J81" s="3">
+        <v>383400</v>
+      </c>
+      <c r="K81" s="3">
         <v>1922900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-445800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1827700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>941300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>541500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3424,8 +3621,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3465,8 +3663,11 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3506,8 +3707,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3547,8 +3751,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3588,8 +3795,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3629,8 +3839,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3670,31 +3883,34 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3711,8 +3927,11 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3728,8 +3947,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3769,8 +3989,11 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3810,8 +4033,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3851,31 +4077,34 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -3892,8 +4121,11 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3909,8 +4141,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3950,8 +4183,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3991,8 +4227,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4032,8 +4271,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4073,31 +4315,34 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4114,31 +4359,34 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4155,31 +4403,34 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4194,6 +4445,9 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,112 +665,118 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3173300</v>
+        <v>12140300</v>
       </c>
       <c r="E8" s="3">
-        <v>3238600</v>
+        <v>3107800</v>
       </c>
       <c r="F8" s="3">
-        <v>3126800</v>
+        <v>3171600</v>
       </c>
       <c r="G8" s="3">
-        <v>3153400</v>
+        <v>3062100</v>
       </c>
       <c r="H8" s="3">
-        <v>3343700</v>
+        <v>12772600</v>
       </c>
       <c r="I8" s="3">
-        <v>3337100</v>
+        <v>3274600</v>
       </c>
       <c r="J8" s="3">
+        <v>3268100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3571300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3956400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>4133500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3853200</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3657400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3731200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -813,8 +819,11 @@
       <c r="P9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -857,8 +866,11 @@
       <c r="P10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -875,8 +887,9 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -919,8 +932,11 @@
       <c r="P12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -963,8 +979,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1007,52 +1026,58 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-264900</v>
+        <v>-1203200</v>
       </c>
       <c r="E15" s="3">
-        <v>-278200</v>
+        <v>-259400</v>
       </c>
       <c r="F15" s="3">
-        <v>-272900</v>
+        <v>-272500</v>
       </c>
       <c r="G15" s="3">
-        <v>-359400</v>
+        <v>-267200</v>
       </c>
       <c r="H15" s="3">
-        <v>-258200</v>
+        <v>-1190200</v>
       </c>
       <c r="I15" s="3">
-        <v>-330100</v>
+        <v>-252900</v>
       </c>
       <c r="J15" s="3">
+        <v>-323300</v>
+      </c>
+      <c r="K15" s="3">
         <v>-256900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-440500</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-328300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-517700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-324900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-247000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1066,96 +1091,103 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>250200</v>
+        <v>548800</v>
       </c>
       <c r="E17" s="3">
-        <v>-209000</v>
+        <v>245100</v>
       </c>
       <c r="F17" s="3">
-        <v>420600</v>
+        <v>-204700</v>
       </c>
       <c r="G17" s="3">
-        <v>702800</v>
+        <v>411900</v>
       </c>
       <c r="H17" s="3">
-        <v>1118100</v>
+        <v>7108500</v>
       </c>
       <c r="I17" s="3">
-        <v>3531400</v>
+        <v>1095000</v>
       </c>
       <c r="J17" s="3">
+        <v>3458400</v>
+      </c>
+      <c r="K17" s="3">
         <v>2053900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1396500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1596200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1472100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1065100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>879600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2923100</v>
+        <v>11591500</v>
       </c>
       <c r="E18" s="3">
-        <v>3447500</v>
+        <v>2862700</v>
       </c>
       <c r="F18" s="3">
-        <v>2706100</v>
+        <v>3376300</v>
       </c>
       <c r="G18" s="3">
-        <v>2450600</v>
+        <v>2650200</v>
       </c>
       <c r="H18" s="3">
-        <v>2225600</v>
+        <v>5664100</v>
       </c>
       <c r="I18" s="3">
-        <v>-194300</v>
+        <v>2179600</v>
       </c>
       <c r="J18" s="3">
+        <v>-190300</v>
+      </c>
+      <c r="K18" s="3">
         <v>1517500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2559800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2537300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2381100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2592200</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2851600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1172,57 +1204,61 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1493500</v>
+        <v>-6335400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1372400</v>
+        <v>-1462600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1446900</v>
+        <v>-1344000</v>
       </c>
       <c r="G20" s="3">
-        <v>-2365400</v>
+        <v>-1417000</v>
       </c>
       <c r="H20" s="3">
-        <v>-1753100</v>
+        <v>-6291100</v>
       </c>
       <c r="I20" s="3">
-        <v>-1521400</v>
+        <v>-1716800</v>
       </c>
       <c r="J20" s="3">
+        <v>-1490000</v>
+      </c>
+      <c r="K20" s="3">
         <v>-826600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-451400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-72800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>5</v>
+      <c r="D21" s="3">
+        <v>6459300</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1233,8 +1269,8 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>5</v>
+      <c r="H21" s="3">
+        <v>-275100</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1260,8 +1296,11 @@
       <c r="P21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1304,96 +1343,105 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1429600</v>
+        <v>5256100</v>
       </c>
       <c r="E23" s="3">
-        <v>2075200</v>
+        <v>1400100</v>
       </c>
       <c r="F23" s="3">
-        <v>1259200</v>
+        <v>2032300</v>
       </c>
       <c r="G23" s="3">
-        <v>85200</v>
+        <v>1233200</v>
       </c>
       <c r="H23" s="3">
-        <v>472500</v>
+        <v>-627000</v>
       </c>
       <c r="I23" s="3">
-        <v>-1715800</v>
+        <v>462800</v>
       </c>
       <c r="J23" s="3">
+        <v>-1680300</v>
+      </c>
+      <c r="K23" s="3">
         <v>690800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>2108400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-11300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2308300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>1348700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>755500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>439300</v>
+        <v>1298400</v>
       </c>
       <c r="E24" s="3">
-        <v>268900</v>
+        <v>430200</v>
       </c>
       <c r="F24" s="3">
-        <v>310100</v>
+        <v>263300</v>
       </c>
       <c r="G24" s="3">
-        <v>111800</v>
+        <v>303700</v>
       </c>
       <c r="H24" s="3">
-        <v>275500</v>
+        <v>96500</v>
       </c>
       <c r="I24" s="3">
-        <v>-527100</v>
+        <v>269800</v>
       </c>
       <c r="J24" s="3">
+        <v>-516200</v>
+      </c>
+      <c r="K24" s="3">
         <v>250200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>50500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>284400</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-30200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>287600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>155900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1436,96 +1484,105 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>990300</v>
+        <v>3957700</v>
       </c>
       <c r="E26" s="3">
-        <v>1806300</v>
+        <v>969900</v>
       </c>
       <c r="F26" s="3">
-        <v>949100</v>
+        <v>1769000</v>
       </c>
       <c r="G26" s="3">
-        <v>-26600</v>
+        <v>929500</v>
       </c>
       <c r="H26" s="3">
-        <v>197000</v>
+        <v>-723500</v>
       </c>
       <c r="I26" s="3">
-        <v>-1188700</v>
+        <v>192900</v>
       </c>
       <c r="J26" s="3">
+        <v>-1164100</v>
+      </c>
+      <c r="K26" s="3">
         <v>440600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2058000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-295800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2338500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>1061100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>599600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>897200</v>
+        <v>3485800</v>
       </c>
       <c r="E27" s="3">
-        <v>1626600</v>
+        <v>878600</v>
       </c>
       <c r="F27" s="3">
-        <v>825300</v>
+        <v>1593000</v>
       </c>
       <c r="G27" s="3">
-        <v>-145100</v>
+        <v>808200</v>
       </c>
       <c r="H27" s="3">
-        <v>81200</v>
+        <v>-1139300</v>
       </c>
       <c r="I27" s="3">
-        <v>-1321800</v>
+        <v>79500</v>
       </c>
       <c r="J27" s="3">
+        <v>-1294500</v>
+      </c>
+      <c r="K27" s="3">
         <v>383400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1922900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-445800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1827700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>941300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>541500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1568,31 +1625,34 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
-      <c r="G29" s="3">
-        <v>0</v>
+        <v>359800</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
-      </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3">
-        <v>0</v>
+        <v>157700</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K29" s="3">
         <v>0</v>
@@ -1612,8 +1672,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1656,8 +1719,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1700,96 +1766,105 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1493500</v>
+        <v>6335400</v>
       </c>
       <c r="E32" s="3">
-        <v>1372400</v>
+        <v>1462600</v>
       </c>
       <c r="F32" s="3">
-        <v>1446900</v>
+        <v>1344000</v>
       </c>
       <c r="G32" s="3">
-        <v>2365400</v>
+        <v>1417000</v>
       </c>
       <c r="H32" s="3">
-        <v>1753100</v>
+        <v>6291100</v>
       </c>
       <c r="I32" s="3">
-        <v>1521400</v>
+        <v>1716800</v>
       </c>
       <c r="J32" s="3">
+        <v>1490000</v>
+      </c>
+      <c r="K32" s="3">
         <v>826600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>451400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2548600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>72800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1243500</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2096100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>897200</v>
+        <v>3845600</v>
       </c>
       <c r="E33" s="3">
-        <v>1626600</v>
+        <v>878600</v>
       </c>
       <c r="F33" s="3">
-        <v>825300</v>
+        <v>1593000</v>
       </c>
       <c r="G33" s="3">
-        <v>-145100</v>
+        <v>808200</v>
       </c>
       <c r="H33" s="3">
-        <v>81200</v>
+        <v>-981600</v>
       </c>
       <c r="I33" s="3">
-        <v>-1321800</v>
+        <v>79500</v>
       </c>
       <c r="J33" s="3">
+        <v>-1294500</v>
+      </c>
+      <c r="K33" s="3">
         <v>383400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1922900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-445800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1827700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>941300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>541500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1832,101 +1907,110 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>897200</v>
+        <v>3845600</v>
       </c>
       <c r="E35" s="3">
-        <v>1626600</v>
+        <v>878600</v>
       </c>
       <c r="F35" s="3">
-        <v>825300</v>
+        <v>1593000</v>
       </c>
       <c r="G35" s="3">
-        <v>-145100</v>
+        <v>808200</v>
       </c>
       <c r="H35" s="3">
-        <v>81200</v>
+        <v>-981600</v>
       </c>
       <c r="I35" s="3">
-        <v>-1321800</v>
+        <v>79500</v>
       </c>
       <c r="J35" s="3">
+        <v>-1294500</v>
+      </c>
+      <c r="K35" s="3">
         <v>383400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1922900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-445800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1827700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>941300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>541500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1943,8 +2027,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1961,96 +2046,103 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>231747200</v>
+        <v>241736400</v>
       </c>
       <c r="E41" s="3">
-        <v>212559400</v>
+        <v>226957600</v>
       </c>
       <c r="F41" s="3">
-        <v>196451700</v>
+        <v>208166400</v>
       </c>
       <c r="G41" s="3">
-        <v>174965100</v>
+        <v>192391600</v>
       </c>
       <c r="H41" s="3">
-        <v>157405200</v>
+        <v>171349100</v>
       </c>
       <c r="I41" s="3">
-        <v>150751100</v>
+        <v>154152100</v>
       </c>
       <c r="J41" s="3">
+        <v>147635500</v>
+      </c>
+      <c r="K41" s="3">
         <v>120319500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>120759500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>136829800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>135005200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>128935400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>134514500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>226456000</v>
+        <v>215479500</v>
       </c>
       <c r="E42" s="3">
-        <v>239266600</v>
+        <v>221775900</v>
       </c>
       <c r="F42" s="3">
-        <v>250929700</v>
+        <v>234321600</v>
       </c>
       <c r="G42" s="3">
-        <v>313491400</v>
+        <v>245743700</v>
       </c>
       <c r="H42" s="3">
-        <v>312982900</v>
+        <v>307012400</v>
       </c>
       <c r="I42" s="3">
-        <v>340523300</v>
+        <v>306514400</v>
       </c>
       <c r="J42" s="3">
+        <v>333485700</v>
+      </c>
+      <c r="K42" s="3">
         <v>386787000</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>309272100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>378350900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>317149200</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>297141900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>275342400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2093,8 +2185,11 @@
       <c r="P43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2137,8 +2232,11 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2181,8 +2279,11 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2225,8 +2326,11 @@
       <c r="P46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2269,13 +2373,16 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>5514200</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -2295,70 +2402,76 @@
       <c r="J48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L48" s="3">
         <v>6720800</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>1785100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>5746800</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8949000</v>
+        <v>8764000</v>
       </c>
       <c r="E49" s="3">
-        <v>8910400</v>
+        <v>8764000</v>
       </c>
       <c r="F49" s="3">
-        <v>8873100</v>
+        <v>8726200</v>
       </c>
       <c r="G49" s="3">
-        <v>8858500</v>
+        <v>8689700</v>
       </c>
       <c r="H49" s="3">
-        <v>8785300</v>
+        <v>8675400</v>
       </c>
       <c r="I49" s="3">
-        <v>8787900</v>
+        <v>8603700</v>
       </c>
       <c r="J49" s="3">
+        <v>8606300</v>
+      </c>
+      <c r="K49" s="3">
         <v>8810600</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>9031000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9404800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9105600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8808500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8738300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2401,8 +2514,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2445,31 +2561,34 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3">
-        <v>0</v>
+        <v>11751900</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -2480,17 +2599,20 @@
       <c r="M52" s="3">
         <v>0</v>
       </c>
-      <c r="N52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O52" s="3">
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P52" s="3">
         <v>3719300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2533,52 +2655,58 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1035965800</v>
+        <v>1019397000</v>
       </c>
       <c r="E54" s="3">
-        <v>1032744600</v>
+        <v>1014555400</v>
       </c>
       <c r="F54" s="3">
-        <v>1024648800</v>
+        <v>1011400700</v>
       </c>
       <c r="G54" s="3">
-        <v>1064202500</v>
+        <v>1003472300</v>
       </c>
       <c r="H54" s="3">
-        <v>1053646800</v>
+        <v>1042208500</v>
       </c>
       <c r="I54" s="3">
-        <v>1074047300</v>
+        <v>1031871000</v>
       </c>
       <c r="J54" s="3">
+        <v>1051849800</v>
+      </c>
+      <c r="K54" s="3">
         <v>1088365900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>986073400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>957457700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>916938600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2595,8 +2723,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2613,8 +2742,9 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2657,8 +2787,11 @@
       <c r="P57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2701,8 +2834,11 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2736,17 +2872,20 @@
       <c r="M59" s="3">
         <v>0</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O59" s="3">
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P59" s="3">
         <v>7039800</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2789,52 +2928,58 @@
       <c r="P60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75249700</v>
+        <v>75288800</v>
       </c>
       <c r="E61" s="3">
-        <v>75161900</v>
+        <v>73694500</v>
       </c>
       <c r="F61" s="3">
-        <v>68978900</v>
+        <v>73608500</v>
       </c>
       <c r="G61" s="3">
-        <v>74239400</v>
+        <v>67553300</v>
       </c>
       <c r="H61" s="3">
-        <v>78954200</v>
+        <v>72705100</v>
       </c>
       <c r="I61" s="3">
-        <v>86548100</v>
+        <v>77322400</v>
       </c>
       <c r="J61" s="3">
+        <v>84759400</v>
+      </c>
+      <c r="K61" s="3">
         <v>78226100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>75279800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>81663200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>79910000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>69306000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>66392200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2868,17 +3013,20 @@
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O62" s="3">
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P62" s="3">
         <v>4786500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2921,8 +3069,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2965,8 +3116,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3009,52 +3163,58 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>980224700</v>
+        <v>964912100</v>
       </c>
       <c r="E66" s="3">
-        <v>974342600</v>
+        <v>959966300</v>
       </c>
       <c r="F66" s="3">
-        <v>967832200</v>
+        <v>954205700</v>
       </c>
       <c r="G66" s="3">
-        <v>1005820400</v>
+        <v>947829900</v>
       </c>
       <c r="H66" s="3">
-        <v>996159300</v>
+        <v>985033000</v>
       </c>
       <c r="I66" s="3">
-        <v>1016672900</v>
+        <v>975571600</v>
       </c>
       <c r="J66" s="3">
+        <v>995661200</v>
+      </c>
+      <c r="K66" s="3">
         <v>1029580600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>926684400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>938778600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>896037500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>856531000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3071,8 +3231,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3115,8 +3276,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3159,8 +3323,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3203,8 +3370,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3247,52 +3417,58 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>31568400</v>
+        <v>32027900</v>
       </c>
       <c r="E72" s="3">
-        <v>31849200</v>
+        <v>30915900</v>
       </c>
       <c r="F72" s="3">
-        <v>30447600</v>
+        <v>31191000</v>
       </c>
       <c r="G72" s="3">
-        <v>31211600</v>
+        <v>29818300</v>
       </c>
       <c r="H72" s="3">
-        <v>31882500</v>
+        <v>30566600</v>
       </c>
       <c r="I72" s="3">
-        <v>31708100</v>
+        <v>31223600</v>
       </c>
       <c r="J72" s="3">
+        <v>31052800</v>
+      </c>
+      <c r="K72" s="3">
         <v>35865200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>33858800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33317300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35242900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>34094500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33274700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3335,8 +3511,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3379,8 +3558,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3423,52 +3605,58 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>55741100</v>
+        <v>54484800</v>
       </c>
       <c r="E76" s="3">
-        <v>58402000</v>
+        <v>54589100</v>
       </c>
       <c r="F76" s="3">
-        <v>56816700</v>
+        <v>57195000</v>
       </c>
       <c r="G76" s="3">
-        <v>58382000</v>
+        <v>55642400</v>
       </c>
       <c r="H76" s="3">
-        <v>57487500</v>
+        <v>57175500</v>
       </c>
       <c r="I76" s="3">
-        <v>57374400</v>
+        <v>56299400</v>
       </c>
       <c r="J76" s="3">
+        <v>56188600</v>
+      </c>
+      <c r="K76" s="3">
         <v>58785400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>59389000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>62448800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>63470200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>61420100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>60407700</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3511,101 +3699,110 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>897200</v>
+        <v>3845600</v>
       </c>
       <c r="E81" s="3">
-        <v>1626600</v>
+        <v>878600</v>
       </c>
       <c r="F81" s="3">
-        <v>825300</v>
+        <v>1593000</v>
       </c>
       <c r="G81" s="3">
-        <v>-145100</v>
+        <v>808200</v>
       </c>
       <c r="H81" s="3">
-        <v>81200</v>
+        <v>-981600</v>
       </c>
       <c r="I81" s="3">
-        <v>-1321800</v>
+        <v>79500</v>
       </c>
       <c r="J81" s="3">
+        <v>-1294500</v>
+      </c>
+      <c r="K81" s="3">
         <v>383400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1922900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-445800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1827700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>941300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>541500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3622,8 +3819,9 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3666,8 +3864,11 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3710,8 +3911,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3754,8 +3958,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3798,8 +4005,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3842,8 +4052,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3886,13 +4099,16 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>69981900</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
@@ -3903,8 +4119,8 @@
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
+      <c r="H89" s="3">
+        <v>37928000</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
@@ -3912,8 +4128,8 @@
       <c r="J89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -3930,8 +4146,11 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3948,8 +4167,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3992,8 +4212,11 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4036,8 +4259,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4080,13 +4306,16 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>3995500</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
@@ -4097,8 +4326,8 @@
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
+      <c r="H94" s="3">
+        <v>9838200</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
@@ -4106,8 +4335,8 @@
       <c r="J94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4124,8 +4353,11 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4142,8 +4374,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4186,8 +4419,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4230,8 +4466,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4274,8 +4513,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4318,13 +4560,16 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>-3390600</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
@@ -4335,8 +4580,8 @@
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
+      <c r="H100" s="3">
+        <v>117300</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
@@ -4344,8 +4589,8 @@
       <c r="J100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4362,13 +4607,16 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>-3442800</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
@@ -4379,8 +4627,8 @@
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
+      <c r="H101" s="3">
+        <v>2449400</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
@@ -4388,8 +4636,8 @@
       <c r="J101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4406,13 +4654,16 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>67144000</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
@@ -4423,8 +4674,8 @@
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
+      <c r="H102" s="3">
+        <v>50332900</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
@@ -4432,8 +4683,8 @@
       <c r="J102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4448,6 +4699,9 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,118 +665,125 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>12140300</v>
+        <v>2986300</v>
       </c>
       <c r="E8" s="3">
-        <v>3107800</v>
+        <v>2860700</v>
       </c>
       <c r="F8" s="3">
-        <v>3171600</v>
+        <v>8500300</v>
       </c>
       <c r="G8" s="3">
-        <v>3062100</v>
+        <v>2968000</v>
       </c>
       <c r="H8" s="3">
-        <v>12772600</v>
+        <v>2783800</v>
       </c>
       <c r="I8" s="3">
-        <v>3274600</v>
+        <v>11952600</v>
       </c>
       <c r="J8" s="3">
+        <v>3064400</v>
+      </c>
+      <c r="K8" s="3">
         <v>3268100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3571300</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3956400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>4133500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3853200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3657400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3731200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -822,8 +829,11 @@
       <c r="Q9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -869,8 +879,11 @@
       <c r="Q10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -888,8 +901,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -935,8 +949,11 @@
       <c r="Q12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -982,8 +999,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1029,55 +1049,61 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-1203200</v>
+        <v>-240300</v>
       </c>
       <c r="E15" s="3">
-        <v>-259400</v>
+        <v>-378200</v>
       </c>
       <c r="F15" s="3">
-        <v>-272500</v>
+        <v>-747800</v>
       </c>
       <c r="G15" s="3">
-        <v>-267200</v>
+        <v>-255000</v>
       </c>
       <c r="H15" s="3">
-        <v>-1190200</v>
+        <v>-250100</v>
       </c>
       <c r="I15" s="3">
-        <v>-252900</v>
+        <v>-1113800</v>
       </c>
       <c r="J15" s="3">
+        <v>-236700</v>
+      </c>
+      <c r="K15" s="3">
         <v>-323300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-256900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-440500</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-328300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-517700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-324900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-247000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1092,102 +1118,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>548800</v>
+        <v>445300</v>
       </c>
       <c r="E17" s="3">
-        <v>245100</v>
+        <v>75600</v>
       </c>
       <c r="F17" s="3">
-        <v>-204700</v>
+        <v>437900</v>
       </c>
       <c r="G17" s="3">
-        <v>411900</v>
+        <v>-191500</v>
       </c>
       <c r="H17" s="3">
-        <v>7108500</v>
+        <v>390400</v>
       </c>
       <c r="I17" s="3">
-        <v>1095000</v>
+        <v>6652100</v>
       </c>
       <c r="J17" s="3">
+        <v>1024700</v>
+      </c>
+      <c r="K17" s="3">
         <v>3458400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>2053900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1396500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1596200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1472100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1065100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>879600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>11591500</v>
+        <v>2541100</v>
       </c>
       <c r="E18" s="3">
-        <v>2862700</v>
+        <v>2785000</v>
       </c>
       <c r="F18" s="3">
-        <v>3376300</v>
+        <v>8062300</v>
       </c>
       <c r="G18" s="3">
-        <v>2650200</v>
+        <v>3159500</v>
       </c>
       <c r="H18" s="3">
-        <v>5664100</v>
+        <v>2393400</v>
       </c>
       <c r="I18" s="3">
-        <v>2179600</v>
+        <v>5300500</v>
       </c>
       <c r="J18" s="3">
+        <v>2039700</v>
+      </c>
+      <c r="K18" s="3">
         <v>-190300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>1517500</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2559800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2537300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2381100</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2592200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2851600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1205,60 +1238,64 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-6335400</v>
+        <v>-1022300</v>
       </c>
       <c r="E20" s="3">
-        <v>-1462600</v>
+        <v>-2010400</v>
       </c>
       <c r="F20" s="3">
-        <v>-1344000</v>
+        <v>-3918300</v>
       </c>
       <c r="G20" s="3">
-        <v>-1417000</v>
+        <v>-1257700</v>
       </c>
       <c r="H20" s="3">
-        <v>-6291100</v>
+        <v>-1313800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1716800</v>
+        <v>-5887200</v>
       </c>
       <c r="J20" s="3">
+        <v>-1606600</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1490000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-826600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-451400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-72800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>6459300</v>
+      <c r="D21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>5</v>
@@ -1269,8 +1306,8 @@
       <c r="G21" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H21" s="3">
-        <v>-275100</v>
+      <c r="H21" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>5</v>
@@ -1299,8 +1336,11 @@
       <c r="Q21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1346,102 +1386,111 @@
       <c r="Q22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>5256100</v>
+        <v>1518800</v>
       </c>
       <c r="E23" s="3">
-        <v>1400100</v>
+        <v>774600</v>
       </c>
       <c r="F23" s="3">
-        <v>2032300</v>
+        <v>4144000</v>
       </c>
       <c r="G23" s="3">
-        <v>1233200</v>
+        <v>1901800</v>
       </c>
       <c r="H23" s="3">
-        <v>-627000</v>
+        <v>1079600</v>
       </c>
       <c r="I23" s="3">
-        <v>462800</v>
+        <v>-586800</v>
       </c>
       <c r="J23" s="3">
+        <v>433100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-1680300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>690800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>2108400</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2308300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>1348700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>755500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>1298400</v>
+        <v>470900</v>
       </c>
       <c r="E24" s="3">
-        <v>430200</v>
+        <v>285500</v>
       </c>
       <c r="F24" s="3">
-        <v>263300</v>
+        <v>929600</v>
       </c>
       <c r="G24" s="3">
-        <v>303700</v>
+        <v>246400</v>
       </c>
       <c r="H24" s="3">
-        <v>96500</v>
+        <v>284200</v>
       </c>
       <c r="I24" s="3">
-        <v>269800</v>
+        <v>90300</v>
       </c>
       <c r="J24" s="3">
+        <v>252500</v>
+      </c>
+      <c r="K24" s="3">
         <v>-516200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>250200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>50500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>284400</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-30200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>287600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>155900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1487,102 +1536,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>3957700</v>
+        <v>1047900</v>
       </c>
       <c r="E26" s="3">
-        <v>969900</v>
+        <v>489200</v>
       </c>
       <c r="F26" s="3">
-        <v>1769000</v>
+        <v>3214400</v>
       </c>
       <c r="G26" s="3">
-        <v>929500</v>
+        <v>1655400</v>
       </c>
       <c r="H26" s="3">
-        <v>-723500</v>
+        <v>795400</v>
       </c>
       <c r="I26" s="3">
-        <v>192900</v>
+        <v>-677000</v>
       </c>
       <c r="J26" s="3">
+        <v>180500</v>
+      </c>
+      <c r="K26" s="3">
         <v>-1164100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>440600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2058000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-295800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2338500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>1061100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>599600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>3485800</v>
+        <v>974700</v>
       </c>
       <c r="E27" s="3">
-        <v>878600</v>
+        <v>411100</v>
       </c>
       <c r="F27" s="3">
-        <v>1593000</v>
+        <v>2850900</v>
       </c>
       <c r="G27" s="3">
-        <v>808200</v>
+        <v>1490700</v>
       </c>
       <c r="H27" s="3">
-        <v>-1139300</v>
+        <v>681900</v>
       </c>
       <c r="I27" s="3">
-        <v>79500</v>
+        <v>-1066200</v>
       </c>
       <c r="J27" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1294500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>383400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1922900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-445800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1827700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>941300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>541500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1628,34 +1686,37 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>359800</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>5</v>
+        <v>51200</v>
+      </c>
+      <c r="E29" s="3">
+        <v>118300</v>
+      </c>
+      <c r="F29" s="3">
+        <v>218400</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="3">
-        <v>157700</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>5</v>
+        <v>74400</v>
+      </c>
+      <c r="I29" s="3">
+        <v>147600</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
+      <c r="K29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -1675,8 +1736,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1722,8 +1786,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1769,102 +1836,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>6335400</v>
+        <v>1022300</v>
       </c>
       <c r="E32" s="3">
-        <v>1462600</v>
+        <v>2010400</v>
       </c>
       <c r="F32" s="3">
-        <v>1344000</v>
+        <v>3918300</v>
       </c>
       <c r="G32" s="3">
-        <v>1417000</v>
+        <v>1257700</v>
       </c>
       <c r="H32" s="3">
-        <v>6291100</v>
+        <v>1313800</v>
       </c>
       <c r="I32" s="3">
-        <v>1716800</v>
+        <v>5887200</v>
       </c>
       <c r="J32" s="3">
+        <v>1606600</v>
+      </c>
+      <c r="K32" s="3">
         <v>1490000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>826600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>451400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>2548600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>72800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1243500</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2096100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>3845600</v>
+        <v>1025900</v>
       </c>
       <c r="E33" s="3">
-        <v>878600</v>
+        <v>529400</v>
       </c>
       <c r="F33" s="3">
-        <v>1593000</v>
+        <v>3069300</v>
       </c>
       <c r="G33" s="3">
-        <v>808200</v>
+        <v>1490700</v>
       </c>
       <c r="H33" s="3">
-        <v>-981600</v>
+        <v>756300</v>
       </c>
       <c r="I33" s="3">
-        <v>79500</v>
+        <v>-918600</v>
       </c>
       <c r="J33" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K33" s="3">
         <v>-1294500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>383400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1922900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-445800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1827700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>941300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>541500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1910,107 +1986,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>3845600</v>
+        <v>1025900</v>
       </c>
       <c r="E35" s="3">
-        <v>878600</v>
+        <v>529400</v>
       </c>
       <c r="F35" s="3">
-        <v>1593000</v>
+        <v>3069300</v>
       </c>
       <c r="G35" s="3">
-        <v>808200</v>
+        <v>1490700</v>
       </c>
       <c r="H35" s="3">
-        <v>-981600</v>
+        <v>756300</v>
       </c>
       <c r="I35" s="3">
-        <v>79500</v>
+        <v>-918600</v>
       </c>
       <c r="J35" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K35" s="3">
         <v>-1294500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>383400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1922900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-445800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1827700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>941300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>541500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2028,8 +2113,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2047,102 +2133,109 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>241736400</v>
+        <v>214514500</v>
       </c>
       <c r="E41" s="3">
-        <v>226957600</v>
+        <v>226217000</v>
       </c>
       <c r="F41" s="3">
-        <v>208166400</v>
+        <v>212387000</v>
       </c>
       <c r="G41" s="3">
-        <v>192391600</v>
+        <v>194802200</v>
       </c>
       <c r="H41" s="3">
-        <v>171349100</v>
+        <v>180040200</v>
       </c>
       <c r="I41" s="3">
-        <v>154152100</v>
+        <v>160348500</v>
       </c>
       <c r="J41" s="3">
+        <v>144255600</v>
+      </c>
+      <c r="K41" s="3">
         <v>147635500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>120319500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120759500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>136829800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>135005200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>128935400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>134514500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>215479500</v>
+        <v>201238400</v>
       </c>
       <c r="E42" s="3">
-        <v>221775900</v>
+        <v>201645800</v>
       </c>
       <c r="F42" s="3">
-        <v>234321600</v>
+        <v>207537900</v>
       </c>
       <c r="G42" s="3">
-        <v>245743700</v>
+        <v>219278200</v>
       </c>
       <c r="H42" s="3">
-        <v>307012400</v>
+        <v>229967000</v>
       </c>
       <c r="I42" s="3">
-        <v>306514400</v>
+        <v>287302300</v>
       </c>
       <c r="J42" s="3">
+        <v>286836300</v>
+      </c>
+      <c r="K42" s="3">
         <v>333485700</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>386787000</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>309272100</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>378350900</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>317149200</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>297141900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>275342400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2188,8 +2281,11 @@
       <c r="Q43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2235,8 +2331,11 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2282,8 +2381,11 @@
       <c r="Q45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2329,8 +2431,11 @@
       <c r="Q46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2376,16 +2481,19 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>5514200</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5160200</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
@@ -2405,73 +2513,79 @@
       <c r="K48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M48" s="3">
         <v>6720800</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>1785100</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>5746800</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8764000</v>
+        <v>8263600</v>
       </c>
       <c r="E49" s="3">
-        <v>8764000</v>
+        <v>8201400</v>
       </c>
       <c r="F49" s="3">
-        <v>8726200</v>
+        <v>8201400</v>
       </c>
       <c r="G49" s="3">
-        <v>8689700</v>
+        <v>8166000</v>
       </c>
       <c r="H49" s="3">
-        <v>8675400</v>
+        <v>8131900</v>
       </c>
       <c r="I49" s="3">
-        <v>8603700</v>
+        <v>8118400</v>
       </c>
       <c r="J49" s="3">
+        <v>8051300</v>
+      </c>
+      <c r="K49" s="3">
         <v>8606300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8810600</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>9031000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9404800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9105600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8808500</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8738300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2517,8 +2631,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2564,16 +2681,19 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11751900</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>5</v>
+        <v>11253600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>10997400</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>5</v>
@@ -2590,8 +2710,8 @@
       <c r="J52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
+      <c r="K52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -2602,17 +2722,20 @@
       <c r="N52" s="3">
         <v>0</v>
       </c>
-      <c r="O52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P52" s="3">
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q52" s="3">
         <v>3719300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2658,55 +2781,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>1019397000</v>
+        <v>958107000</v>
       </c>
       <c r="E54" s="3">
-        <v>1014555400</v>
+        <v>953952000</v>
       </c>
       <c r="F54" s="3">
-        <v>1011400700</v>
+        <v>949421300</v>
       </c>
       <c r="G54" s="3">
-        <v>1003472300</v>
+        <v>946469200</v>
       </c>
       <c r="H54" s="3">
-        <v>1042208500</v>
+        <v>939049700</v>
       </c>
       <c r="I54" s="3">
-        <v>1031871000</v>
+        <v>975299100</v>
       </c>
       <c r="J54" s="3">
+        <v>965625300</v>
+      </c>
+      <c r="K54" s="3">
         <v>1051849800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1088365900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>986073400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>957457700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>916938600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2724,8 +2853,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2743,8 +2873,9 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2790,8 +2921,11 @@
       <c r="Q57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2837,8 +2971,11 @@
       <c r="Q58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2875,17 +3012,20 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q59" s="3">
         <v>7039800</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2931,55 +3071,61 @@
       <c r="Q60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75288800</v>
+        <v>68344900</v>
       </c>
       <c r="E61" s="3">
-        <v>73694500</v>
+        <v>70455300</v>
       </c>
       <c r="F61" s="3">
-        <v>73608500</v>
+        <v>68963400</v>
       </c>
       <c r="G61" s="3">
-        <v>67553300</v>
+        <v>68882900</v>
       </c>
       <c r="H61" s="3">
-        <v>72705100</v>
+        <v>63216400</v>
       </c>
       <c r="I61" s="3">
-        <v>77322400</v>
+        <v>68037500</v>
       </c>
       <c r="J61" s="3">
+        <v>72358400</v>
+      </c>
+      <c r="K61" s="3">
         <v>84759400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>78226100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>75279800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>81663200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>79910000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>69306000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>66392200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3016,17 +3162,20 @@
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P62" s="3">
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q62" s="3">
         <v>4786500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3072,8 +3221,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3119,8 +3271,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3166,55 +3321,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>964912100</v>
+        <v>910244200</v>
       </c>
       <c r="E66" s="3">
-        <v>959966300</v>
+        <v>902965100</v>
       </c>
       <c r="F66" s="3">
-        <v>954205700</v>
+        <v>898336800</v>
       </c>
       <c r="G66" s="3">
-        <v>947829900</v>
+        <v>892946100</v>
       </c>
       <c r="H66" s="3">
-        <v>985033000</v>
+        <v>886979500</v>
       </c>
       <c r="I66" s="3">
-        <v>975571600</v>
+        <v>921794300</v>
       </c>
       <c r="J66" s="3">
+        <v>912940200</v>
+      </c>
+      <c r="K66" s="3">
         <v>995661200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>1029580600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>926684400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>938778600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>896037500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>856531000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3232,8 +3393,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3279,8 +3441,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3326,8 +3491,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3373,8 +3541,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3420,55 +3591,61 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>32027900</v>
+        <v>26913400</v>
       </c>
       <c r="E72" s="3">
-        <v>30915900</v>
+        <v>29971700</v>
       </c>
       <c r="F72" s="3">
-        <v>31191000</v>
+        <v>28931100</v>
       </c>
       <c r="G72" s="3">
-        <v>29818300</v>
+        <v>29188500</v>
       </c>
       <c r="H72" s="3">
-        <v>30566600</v>
+        <v>27904000</v>
       </c>
       <c r="I72" s="3">
-        <v>31223600</v>
+        <v>28604200</v>
       </c>
       <c r="J72" s="3">
+        <v>29219000</v>
+      </c>
+      <c r="K72" s="3">
         <v>31052800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>35865200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>33858800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33317300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>35242900</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>34094500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33274700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3514,8 +3691,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3561,8 +3741,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3608,55 +3791,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>54484800</v>
+        <v>47862800</v>
       </c>
       <c r="E76" s="3">
-        <v>54589100</v>
+        <v>50986900</v>
       </c>
       <c r="F76" s="3">
-        <v>57195000</v>
+        <v>51084500</v>
       </c>
       <c r="G76" s="3">
-        <v>55642400</v>
+        <v>53523100</v>
       </c>
       <c r="H76" s="3">
-        <v>57175500</v>
+        <v>52070200</v>
       </c>
       <c r="I76" s="3">
-        <v>56299400</v>
+        <v>53504800</v>
       </c>
       <c r="J76" s="3">
+        <v>52685000</v>
+      </c>
+      <c r="K76" s="3">
         <v>56188600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>58785400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>59389000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>62448800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63470200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>61420100</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>60407700</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3702,107 +3891,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>3845600</v>
+        <v>1025900</v>
       </c>
       <c r="E81" s="3">
-        <v>878600</v>
+        <v>529400</v>
       </c>
       <c r="F81" s="3">
-        <v>1593000</v>
+        <v>3069300</v>
       </c>
       <c r="G81" s="3">
-        <v>808200</v>
+        <v>1490700</v>
       </c>
       <c r="H81" s="3">
-        <v>-981600</v>
+        <v>756300</v>
       </c>
       <c r="I81" s="3">
-        <v>79500</v>
+        <v>-918600</v>
       </c>
       <c r="J81" s="3">
+        <v>74400</v>
+      </c>
+      <c r="K81" s="3">
         <v>-1294500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>383400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1922900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-445800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1827700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>941300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>541500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3820,8 +4018,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3867,8 +4066,11 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3914,8 +4116,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3961,8 +4166,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4008,8 +4216,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4055,8 +4266,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4102,13 +4316,16 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>69981900</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>5</v>
@@ -4119,8 +4336,8 @@
       <c r="G89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H89" s="3">
-        <v>37928000</v>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>5</v>
@@ -4131,8 +4348,8 @@
       <c r="K89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4149,8 +4366,11 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4168,8 +4388,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4215,8 +4436,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4262,8 +4486,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4309,13 +4536,16 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>3995500</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E94" s="3" t="s">
         <v>5</v>
@@ -4326,8 +4556,8 @@
       <c r="G94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H94" s="3">
-        <v>9838200</v>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>5</v>
@@ -4338,8 +4568,8 @@
       <c r="K94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4356,8 +4586,11 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4375,8 +4608,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4422,8 +4656,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4469,8 +4706,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4516,8 +4756,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4563,13 +4806,16 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-3390600</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>5</v>
@@ -4580,8 +4826,8 @@
       <c r="G100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H100" s="3">
-        <v>117300</v>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>5</v>
@@ -4592,8 +4838,8 @@
       <c r="K100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4610,13 +4856,16 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>-3442800</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E101" s="3" t="s">
         <v>5</v>
@@ -4627,8 +4876,8 @@
       <c r="G101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H101" s="3">
-        <v>2449400</v>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>5</v>
@@ -4639,8 +4888,8 @@
       <c r="K101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4657,13 +4906,16 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>67144000</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="E102" s="3" t="s">
         <v>5</v>
@@ -4674,8 +4926,8 @@
       <c r="G102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H102" s="3">
-        <v>50332900</v>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>5</v>
@@ -4686,8 +4938,8 @@
       <c r="K102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4702,6 +4954,9 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,125 +665,131 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>2986300</v>
+        <v>3314500</v>
       </c>
       <c r="E8" s="3">
-        <v>2860700</v>
+        <v>2895700</v>
       </c>
       <c r="F8" s="3">
-        <v>8500300</v>
+        <v>2773900</v>
       </c>
       <c r="G8" s="3">
-        <v>2968000</v>
+        <v>8242400</v>
       </c>
       <c r="H8" s="3">
-        <v>2783800</v>
+        <v>2753800</v>
       </c>
       <c r="I8" s="3">
-        <v>11952600</v>
+        <v>2699400</v>
       </c>
       <c r="J8" s="3">
+        <v>11590100</v>
+      </c>
+      <c r="K8" s="3">
         <v>3064400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3268100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3571300</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3956400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>4133500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3853200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3657400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3731200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,8 +838,11 @@
       <c r="R9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -882,8 +891,11 @@
       <c r="R10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -902,8 +914,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,8 +965,11 @@
       <c r="R12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1002,8 +1018,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1052,58 +1071,64 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-240300</v>
+        <v>-255500</v>
       </c>
       <c r="E15" s="3">
-        <v>-378200</v>
+        <v>-233000</v>
       </c>
       <c r="F15" s="3">
-        <v>-747800</v>
+        <v>-366700</v>
       </c>
       <c r="G15" s="3">
-        <v>-255000</v>
+        <v>-725100</v>
       </c>
       <c r="H15" s="3">
-        <v>-250100</v>
+        <v>-247200</v>
       </c>
       <c r="I15" s="3">
-        <v>-1113800</v>
+        <v>-242500</v>
       </c>
       <c r="J15" s="3">
+        <v>-1080000</v>
+      </c>
+      <c r="K15" s="3">
         <v>-236700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-323300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-256900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-440500</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-328300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-517700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-324900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-247000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1119,108 +1144,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>445300</v>
+        <v>587900</v>
       </c>
       <c r="E17" s="3">
-        <v>75600</v>
+        <v>431800</v>
       </c>
       <c r="F17" s="3">
-        <v>437900</v>
+        <v>73300</v>
       </c>
       <c r="G17" s="3">
-        <v>-191500</v>
+        <v>424700</v>
       </c>
       <c r="H17" s="3">
-        <v>390400</v>
+        <v>-162100</v>
       </c>
       <c r="I17" s="3">
-        <v>6652100</v>
+        <v>378500</v>
       </c>
       <c r="J17" s="3">
+        <v>6450400</v>
+      </c>
+      <c r="K17" s="3">
         <v>1024700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>3458400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>2053900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1396500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1596200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1472100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1065100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>879600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2541100</v>
+        <v>2726600</v>
       </c>
       <c r="E18" s="3">
-        <v>2785000</v>
+        <v>2464000</v>
       </c>
       <c r="F18" s="3">
-        <v>8062300</v>
+        <v>2700600</v>
       </c>
       <c r="G18" s="3">
-        <v>3159500</v>
+        <v>7817800</v>
       </c>
       <c r="H18" s="3">
-        <v>2393400</v>
+        <v>2915800</v>
       </c>
       <c r="I18" s="3">
-        <v>5300500</v>
+        <v>2320800</v>
       </c>
       <c r="J18" s="3">
+        <v>5139700</v>
+      </c>
+      <c r="K18" s="3">
         <v>2039700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-190300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>1517500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2559800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2537300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2381100</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2592200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2851600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1239,58 +1271,62 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1022300</v>
+        <v>-1100100</v>
       </c>
       <c r="E20" s="3">
-        <v>-2010400</v>
+        <v>-991300</v>
       </c>
       <c r="F20" s="3">
-        <v>-3918300</v>
+        <v>-1949400</v>
       </c>
       <c r="G20" s="3">
-        <v>-1257700</v>
+        <v>-3799500</v>
       </c>
       <c r="H20" s="3">
-        <v>-1313800</v>
+        <v>-1212500</v>
       </c>
       <c r="I20" s="3">
-        <v>-5887200</v>
+        <v>-1274000</v>
       </c>
       <c r="J20" s="3">
+        <v>-5708700</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1606600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1490000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-826600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-451400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-72800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1339,8 +1375,11 @@
       <c r="R21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1389,108 +1428,117 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1518800</v>
+        <v>1626500</v>
       </c>
       <c r="E23" s="3">
-        <v>774600</v>
+        <v>1472700</v>
       </c>
       <c r="F23" s="3">
-        <v>4144000</v>
+        <v>751100</v>
       </c>
       <c r="G23" s="3">
-        <v>1901800</v>
+        <v>4018300</v>
       </c>
       <c r="H23" s="3">
-        <v>1079600</v>
+        <v>1703400</v>
       </c>
       <c r="I23" s="3">
-        <v>-586800</v>
+        <v>1046900</v>
       </c>
       <c r="J23" s="3">
+        <v>-569000</v>
+      </c>
+      <c r="K23" s="3">
         <v>433100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-1680300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>690800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>2108400</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2308300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1348700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>755500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>470900</v>
+        <v>483800</v>
       </c>
       <c r="E24" s="3">
-        <v>285500</v>
+        <v>456600</v>
       </c>
       <c r="F24" s="3">
-        <v>929600</v>
+        <v>276800</v>
       </c>
       <c r="G24" s="3">
-        <v>246400</v>
+        <v>901400</v>
       </c>
       <c r="H24" s="3">
-        <v>284200</v>
+        <v>235400</v>
       </c>
       <c r="I24" s="3">
-        <v>90300</v>
+        <v>275600</v>
       </c>
       <c r="J24" s="3">
+        <v>87500</v>
+      </c>
+      <c r="K24" s="3">
         <v>252500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-516200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>250200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>50500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>284400</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-30200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>287600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>155900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1539,108 +1587,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1047900</v>
+        <v>1142700</v>
       </c>
       <c r="E26" s="3">
-        <v>489200</v>
+        <v>1016100</v>
       </c>
       <c r="F26" s="3">
-        <v>3214400</v>
+        <v>474300</v>
       </c>
       <c r="G26" s="3">
-        <v>1655400</v>
+        <v>3116900</v>
       </c>
       <c r="H26" s="3">
-        <v>795400</v>
+        <v>1468000</v>
       </c>
       <c r="I26" s="3">
-        <v>-677000</v>
+        <v>771300</v>
       </c>
       <c r="J26" s="3">
+        <v>-656500</v>
+      </c>
+      <c r="K26" s="3">
         <v>180500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-1164100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>440600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>2058000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-295800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2338500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1061100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>599600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>974700</v>
+        <v>1067000</v>
       </c>
       <c r="E27" s="3">
-        <v>411100</v>
+        <v>945100</v>
       </c>
       <c r="F27" s="3">
-        <v>2850900</v>
+        <v>398600</v>
       </c>
       <c r="G27" s="3">
-        <v>1490700</v>
+        <v>2764400</v>
       </c>
       <c r="H27" s="3">
-        <v>681900</v>
+        <v>1308300</v>
       </c>
       <c r="I27" s="3">
-        <v>-1066200</v>
+        <v>661200</v>
       </c>
       <c r="J27" s="3">
+        <v>-1033900</v>
+      </c>
+      <c r="K27" s="3">
         <v>74400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1294500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>383400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1922900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-445800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1827700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>941300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>541500</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1689,37 +1746,40 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>51200</v>
+        <v>175100</v>
       </c>
       <c r="E29" s="3">
-        <v>118300</v>
+        <v>49700</v>
       </c>
       <c r="F29" s="3">
-        <v>218400</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>5</v>
+        <v>114700</v>
+      </c>
+      <c r="G29" s="3">
+        <v>211700</v>
       </c>
       <c r="H29" s="3">
-        <v>74400</v>
+        <v>137200</v>
       </c>
       <c r="I29" s="3">
-        <v>147600</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>5</v>
+        <v>72200</v>
+      </c>
+      <c r="J29" s="3">
+        <v>143100</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
+      <c r="L29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M29" s="3">
         <v>0</v>
@@ -1739,8 +1799,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1789,8 +1852,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1839,108 +1905,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1022300</v>
+        <v>1100100</v>
       </c>
       <c r="E32" s="3">
-        <v>2010400</v>
+        <v>991300</v>
       </c>
       <c r="F32" s="3">
-        <v>3918300</v>
+        <v>1949400</v>
       </c>
       <c r="G32" s="3">
-        <v>1257700</v>
+        <v>3799500</v>
       </c>
       <c r="H32" s="3">
-        <v>1313800</v>
+        <v>1212500</v>
       </c>
       <c r="I32" s="3">
-        <v>5887200</v>
+        <v>1274000</v>
       </c>
       <c r="J32" s="3">
+        <v>5708700</v>
+      </c>
+      <c r="K32" s="3">
         <v>1606600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1490000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>826600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>451400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>2548600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>72800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1243500</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2096100</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1025900</v>
+        <v>1242000</v>
       </c>
       <c r="E33" s="3">
-        <v>529400</v>
+        <v>994800</v>
       </c>
       <c r="F33" s="3">
-        <v>3069300</v>
+        <v>513400</v>
       </c>
       <c r="G33" s="3">
-        <v>1490700</v>
+        <v>2976200</v>
       </c>
       <c r="H33" s="3">
-        <v>756300</v>
+        <v>1445500</v>
       </c>
       <c r="I33" s="3">
-        <v>-918600</v>
+        <v>733400</v>
       </c>
       <c r="J33" s="3">
+        <v>-890700</v>
+      </c>
+      <c r="K33" s="3">
         <v>74400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1294500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>383400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1922900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-445800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1827700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>941300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>541500</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1989,113 +2064,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1025900</v>
+        <v>1242000</v>
       </c>
       <c r="E35" s="3">
-        <v>529400</v>
+        <v>994800</v>
       </c>
       <c r="F35" s="3">
-        <v>3069300</v>
+        <v>513400</v>
       </c>
       <c r="G35" s="3">
-        <v>1490700</v>
+        <v>2976200</v>
       </c>
       <c r="H35" s="3">
-        <v>756300</v>
+        <v>1445500</v>
       </c>
       <c r="I35" s="3">
-        <v>-918600</v>
+        <v>733400</v>
       </c>
       <c r="J35" s="3">
+        <v>-890700</v>
+      </c>
+      <c r="K35" s="3">
         <v>74400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1294500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>383400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1922900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-445800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1827700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>941300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>541500</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2114,8 +2198,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2134,108 +2219,115 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>214514500</v>
+        <v>224979300</v>
       </c>
       <c r="E41" s="3">
-        <v>226217000</v>
+        <v>208008200</v>
       </c>
       <c r="F41" s="3">
-        <v>212387000</v>
+        <v>219355800</v>
       </c>
       <c r="G41" s="3">
-        <v>194802200</v>
+        <v>205945300</v>
       </c>
       <c r="H41" s="3">
-        <v>180040200</v>
+        <v>188893800</v>
       </c>
       <c r="I41" s="3">
-        <v>160348500</v>
+        <v>174579500</v>
       </c>
       <c r="J41" s="3">
+        <v>155485100</v>
+      </c>
+      <c r="K41" s="3">
         <v>144255600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>147635500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>120319500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120759500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>136829800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>135005200</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>128935400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>134514500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>201238400</v>
+        <v>206943600</v>
       </c>
       <c r="E42" s="3">
-        <v>201645800</v>
+        <v>195134700</v>
       </c>
       <c r="F42" s="3">
-        <v>207537900</v>
+        <v>195529800</v>
       </c>
       <c r="G42" s="3">
-        <v>219278200</v>
+        <v>201243200</v>
       </c>
       <c r="H42" s="3">
-        <v>229967000</v>
+        <v>212627500</v>
       </c>
       <c r="I42" s="3">
-        <v>287302300</v>
+        <v>222992000</v>
       </c>
       <c r="J42" s="3">
+        <v>278588300</v>
+      </c>
+      <c r="K42" s="3">
         <v>286836300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>333485700</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>386787000</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>309272100</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>378350900</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>317149200</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>297141900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>275342400</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2284,8 +2376,11 @@
       <c r="R43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2334,8 +2429,11 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2384,8 +2482,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2434,8 +2535,11 @@
       <c r="R46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2484,19 +2588,22 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
-        <v>5160200</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5003700</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
@@ -2516,76 +2623,82 @@
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M48" s="3">
+      <c r="M48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="3">
         <v>6720800</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>1785100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>5746800</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8263600</v>
+        <v>8125300</v>
       </c>
       <c r="E49" s="3">
-        <v>8201400</v>
+        <v>8013000</v>
       </c>
       <c r="F49" s="3">
-        <v>8201400</v>
+        <v>7952600</v>
       </c>
       <c r="G49" s="3">
-        <v>8166000</v>
+        <v>7952600</v>
       </c>
       <c r="H49" s="3">
-        <v>8131900</v>
+        <v>7918300</v>
       </c>
       <c r="I49" s="3">
-        <v>8118400</v>
+        <v>7885200</v>
       </c>
       <c r="J49" s="3">
+        <v>7872200</v>
+      </c>
+      <c r="K49" s="3">
         <v>8051300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8606300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8810600</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>9031000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9404800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9105600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8808500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8738300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2634,8 +2747,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2684,19 +2800,22 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>11253600</v>
+        <v>16781800</v>
       </c>
       <c r="E52" s="3">
-        <v>10997400</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>5</v>
+        <v>10912300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>10663800</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>5</v>
@@ -2713,8 +2832,8 @@
       <c r="K52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
+      <c r="L52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -2725,17 +2844,20 @@
       <c r="O52" s="3">
         <v>0</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q52" s="3">
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R52" s="3">
         <v>3719300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2784,58 +2906,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>958107000</v>
+        <v>953982800</v>
       </c>
       <c r="E54" s="3">
-        <v>953952000</v>
+        <v>929047300</v>
       </c>
       <c r="F54" s="3">
-        <v>949421300</v>
+        <v>925018300</v>
       </c>
       <c r="G54" s="3">
-        <v>946469200</v>
+        <v>920625000</v>
       </c>
       <c r="H54" s="3">
-        <v>939049700</v>
+        <v>917762400</v>
       </c>
       <c r="I54" s="3">
-        <v>975299100</v>
+        <v>910568000</v>
       </c>
       <c r="J54" s="3">
+        <v>945717900</v>
+      </c>
+      <c r="K54" s="3">
         <v>965625300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1051849800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1088365900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>986073400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>957457700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>916938600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2854,8 +2982,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2874,8 +3003,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2924,8 +3054,11 @@
       <c r="R57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2974,8 +3107,11 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3015,17 +3151,20 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R59" s="3">
         <v>7039800</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3074,58 +3213,64 @@
       <c r="R60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>68344900</v>
+        <v>68426000</v>
       </c>
       <c r="E61" s="3">
-        <v>70455300</v>
+        <v>66272000</v>
       </c>
       <c r="F61" s="3">
-        <v>68963400</v>
+        <v>68318400</v>
       </c>
       <c r="G61" s="3">
-        <v>68882900</v>
+        <v>66871700</v>
       </c>
       <c r="H61" s="3">
-        <v>63216400</v>
+        <v>66793600</v>
       </c>
       <c r="I61" s="3">
-        <v>68037500</v>
+        <v>61299100</v>
       </c>
       <c r="J61" s="3">
+        <v>65973900</v>
+      </c>
+      <c r="K61" s="3">
         <v>72358400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>84759400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>78226100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>75279800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>81663200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>79910000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>69306000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>66392200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3165,17 +3310,20 @@
       <c r="O62" s="3">
         <v>0</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q62" s="3">
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R62" s="3">
         <v>4786500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3224,8 +3372,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3274,8 +3425,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3324,58 +3478,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>910244200</v>
+        <v>908302800</v>
       </c>
       <c r="E66" s="3">
-        <v>902965100</v>
+        <v>882636200</v>
       </c>
       <c r="F66" s="3">
-        <v>898336800</v>
+        <v>875577800</v>
       </c>
       <c r="G66" s="3">
-        <v>892946100</v>
+        <v>871089900</v>
       </c>
       <c r="H66" s="3">
-        <v>886979500</v>
+        <v>865862700</v>
       </c>
       <c r="I66" s="3">
-        <v>921794300</v>
+        <v>860077100</v>
       </c>
       <c r="J66" s="3">
+        <v>893835900</v>
+      </c>
+      <c r="K66" s="3">
         <v>912940200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>995661200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>1029580600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>926684400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>938778600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>896037500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>856531000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3394,8 +3554,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3444,8 +3605,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3494,8 +3658,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3544,8 +3711,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3594,58 +3764,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26913400</v>
+        <v>27740200</v>
       </c>
       <c r="E72" s="3">
-        <v>29971700</v>
+        <v>26097100</v>
       </c>
       <c r="F72" s="3">
-        <v>28931100</v>
+        <v>29062700</v>
       </c>
       <c r="G72" s="3">
-        <v>29188500</v>
+        <v>28053700</v>
       </c>
       <c r="H72" s="3">
-        <v>27904000</v>
+        <v>28303200</v>
       </c>
       <c r="I72" s="3">
-        <v>28604200</v>
+        <v>27057700</v>
       </c>
       <c r="J72" s="3">
+        <v>27736600</v>
+      </c>
+      <c r="K72" s="3">
         <v>29219000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>31052800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>35865200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>33858800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33317300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>35242900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>34094500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33274700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3694,8 +3870,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3744,8 +3923,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3794,58 +3976,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>47862800</v>
+        <v>45680000</v>
       </c>
       <c r="E76" s="3">
-        <v>50986900</v>
+        <v>46411100</v>
       </c>
       <c r="F76" s="3">
-        <v>51084500</v>
+        <v>49440500</v>
       </c>
       <c r="G76" s="3">
-        <v>53523100</v>
+        <v>49535100</v>
       </c>
       <c r="H76" s="3">
-        <v>52070200</v>
+        <v>51899700</v>
       </c>
       <c r="I76" s="3">
-        <v>53504800</v>
+        <v>50490900</v>
       </c>
       <c r="J76" s="3">
+        <v>51882000</v>
+      </c>
+      <c r="K76" s="3">
         <v>52685000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>56188600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>58785400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>59389000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>62448800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63470200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>61420100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>60407700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3894,113 +4082,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1025900</v>
+        <v>1242000</v>
       </c>
       <c r="E81" s="3">
-        <v>529400</v>
+        <v>994800</v>
       </c>
       <c r="F81" s="3">
-        <v>3069300</v>
+        <v>513400</v>
       </c>
       <c r="G81" s="3">
-        <v>1490700</v>
+        <v>2976200</v>
       </c>
       <c r="H81" s="3">
-        <v>756300</v>
+        <v>1445500</v>
       </c>
       <c r="I81" s="3">
-        <v>-918600</v>
+        <v>733400</v>
       </c>
       <c r="J81" s="3">
+        <v>-890700</v>
+      </c>
+      <c r="K81" s="3">
         <v>74400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1294500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>383400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1922900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-445800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1827700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>941300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>541500</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4019,8 +4216,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4069,8 +4267,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4119,8 +4320,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4169,8 +4373,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4219,8 +4426,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4269,8 +4479,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4319,31 +4532,34 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>5</v>
@@ -4351,8 +4567,8 @@
       <c r="L89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N89" s="3">
         <v>0</v>
@@ -4369,8 +4585,11 @@
       <c r="R89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4389,8 +4608,9 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4439,8 +4659,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4489,8 +4712,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4539,31 +4765,34 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>5</v>
@@ -4571,8 +4800,8 @@
       <c r="L94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N94" s="3">
         <v>0</v>
@@ -4589,8 +4818,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4609,8 +4841,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4659,8 +4892,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4709,8 +4945,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4759,8 +4998,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4809,31 +5051,34 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>5</v>
@@ -4841,8 +5086,8 @@
       <c r="L100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -4859,31 +5104,34 @@
       <c r="R100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>5</v>
@@ -4891,8 +5139,8 @@
       <c r="L101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N101" s="3">
         <v>0</v>
@@ -4909,31 +5157,34 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
         <v>5</v>
@@ -4941,8 +5192,8 @@
       <c r="L102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N102" s="3">
         <v>0</v>
@@ -4957,6 +5208,9 @@
         <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,131 +665,137 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3314500</v>
+        <v>3913300</v>
       </c>
       <c r="E8" s="3">
-        <v>2895700</v>
+        <v>3282000</v>
       </c>
       <c r="F8" s="3">
-        <v>2773900</v>
+        <v>2867300</v>
       </c>
       <c r="G8" s="3">
-        <v>8242400</v>
+        <v>2746700</v>
       </c>
       <c r="H8" s="3">
-        <v>2753800</v>
+        <v>2692800</v>
       </c>
       <c r="I8" s="3">
-        <v>2699400</v>
+        <v>2726800</v>
       </c>
       <c r="J8" s="3">
+        <v>2672900</v>
+      </c>
+      <c r="K8" s="3">
         <v>11590100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>3064400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3268100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3571300</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3956400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>4133500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3853200</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3657400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3731200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,8 +847,11 @@
       <c r="S9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +903,11 @@
       <c r="S10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -915,8 +927,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -968,8 +981,11 @@
       <c r="S12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1021,8 +1037,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1074,61 +1093,67 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-255500</v>
+        <v>-234300</v>
       </c>
       <c r="E15" s="3">
-        <v>-233000</v>
+        <v>-253000</v>
       </c>
       <c r="F15" s="3">
-        <v>-366700</v>
+        <v>-230700</v>
       </c>
       <c r="G15" s="3">
-        <v>-725100</v>
+        <v>-363100</v>
       </c>
       <c r="H15" s="3">
-        <v>-247200</v>
+        <v>-233100</v>
       </c>
       <c r="I15" s="3">
-        <v>-242500</v>
+        <v>-244800</v>
       </c>
       <c r="J15" s="3">
+        <v>-240100</v>
+      </c>
+      <c r="K15" s="3">
         <v>-1080000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-236700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-323300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-256900</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-440500</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-328300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-517700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-324900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-247000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1145,114 +1170,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>587900</v>
+        <v>1110400</v>
       </c>
       <c r="E17" s="3">
-        <v>431800</v>
+        <v>582100</v>
       </c>
       <c r="F17" s="3">
-        <v>73300</v>
+        <v>427500</v>
       </c>
       <c r="G17" s="3">
-        <v>424700</v>
+        <v>72600</v>
       </c>
       <c r="H17" s="3">
-        <v>-162100</v>
+        <v>244800</v>
       </c>
       <c r="I17" s="3">
-        <v>378500</v>
+        <v>-160500</v>
       </c>
       <c r="J17" s="3">
+        <v>374800</v>
+      </c>
+      <c r="K17" s="3">
         <v>6450400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1024700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>3458400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>2053900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1396500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1596200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1472100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1065100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>879600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2726600</v>
+        <v>2802900</v>
       </c>
       <c r="E18" s="3">
-        <v>2464000</v>
+        <v>2699800</v>
       </c>
       <c r="F18" s="3">
-        <v>2700600</v>
+        <v>2439800</v>
       </c>
       <c r="G18" s="3">
-        <v>7817800</v>
+        <v>2674100</v>
       </c>
       <c r="H18" s="3">
-        <v>2915800</v>
+        <v>2448000</v>
       </c>
       <c r="I18" s="3">
-        <v>2320800</v>
+        <v>2887300</v>
       </c>
       <c r="J18" s="3">
+        <v>2298100</v>
+      </c>
+      <c r="K18" s="3">
         <v>5139700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2039700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-190300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>1517500</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>2559800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2537300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2381100</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2592200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2851600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1272,61 +1304,65 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1100100</v>
+        <v>-1530900</v>
       </c>
       <c r="E20" s="3">
-        <v>-991300</v>
+        <v>-1089300</v>
       </c>
       <c r="F20" s="3">
-        <v>-1949400</v>
+        <v>-981500</v>
       </c>
       <c r="G20" s="3">
-        <v>-3799500</v>
+        <v>-1930300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1212500</v>
+        <v>-1304800</v>
       </c>
       <c r="I20" s="3">
-        <v>-1274000</v>
+        <v>-1200600</v>
       </c>
       <c r="J20" s="3">
+        <v>-1261500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-5708700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1606600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1490000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-826600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-451400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-72800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1378,8 +1414,11 @@
       <c r="S21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,114 +1470,123 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1626500</v>
+        <v>1272000</v>
       </c>
       <c r="E23" s="3">
-        <v>1472700</v>
+        <v>1610500</v>
       </c>
       <c r="F23" s="3">
-        <v>751100</v>
+        <v>1458300</v>
       </c>
       <c r="G23" s="3">
-        <v>4018300</v>
+        <v>743800</v>
       </c>
       <c r="H23" s="3">
-        <v>1703400</v>
+        <v>1143200</v>
       </c>
       <c r="I23" s="3">
-        <v>1046900</v>
+        <v>1686700</v>
       </c>
       <c r="J23" s="3">
+        <v>1036600</v>
+      </c>
+      <c r="K23" s="3">
         <v>-569000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>433100</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-1680300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>690800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>2108400</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2308300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1348700</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>755500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>483800</v>
+        <v>508300</v>
       </c>
       <c r="E24" s="3">
-        <v>456600</v>
+        <v>479100</v>
       </c>
       <c r="F24" s="3">
-        <v>276800</v>
+        <v>452100</v>
       </c>
       <c r="G24" s="3">
-        <v>901400</v>
+        <v>274100</v>
       </c>
       <c r="H24" s="3">
-        <v>235400</v>
+        <v>386500</v>
       </c>
       <c r="I24" s="3">
-        <v>275600</v>
+        <v>233100</v>
       </c>
       <c r="J24" s="3">
+        <v>272900</v>
+      </c>
+      <c r="K24" s="3">
         <v>87500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>252500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-516200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>250200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>50500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>284400</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-30200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>287600</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>155900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1590,114 +1638,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1142700</v>
+        <v>763700</v>
       </c>
       <c r="E26" s="3">
-        <v>1016100</v>
+        <v>1131500</v>
       </c>
       <c r="F26" s="3">
-        <v>474300</v>
+        <v>1006100</v>
       </c>
       <c r="G26" s="3">
-        <v>3116900</v>
+        <v>469700</v>
       </c>
       <c r="H26" s="3">
-        <v>1468000</v>
+        <v>756700</v>
       </c>
       <c r="I26" s="3">
-        <v>771300</v>
+        <v>1453600</v>
       </c>
       <c r="J26" s="3">
+        <v>763700</v>
+      </c>
+      <c r="K26" s="3">
         <v>-656500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>180500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-1164100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>440600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>2058000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-295800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2338500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1061100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>599600</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1067000</v>
+        <v>682900</v>
       </c>
       <c r="E27" s="3">
-        <v>945100</v>
+        <v>1056500</v>
       </c>
       <c r="F27" s="3">
-        <v>398600</v>
+        <v>935900</v>
       </c>
       <c r="G27" s="3">
-        <v>2764400</v>
+        <v>394700</v>
       </c>
       <c r="H27" s="3">
-        <v>1308300</v>
+        <v>674700</v>
       </c>
       <c r="I27" s="3">
-        <v>661200</v>
+        <v>1295500</v>
       </c>
       <c r="J27" s="3">
+        <v>654800</v>
+      </c>
+      <c r="K27" s="3">
         <v>-1033900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>74400</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1294500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>383400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>1922900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-445800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1827700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>941300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>541500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1749,40 +1806,43 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>175100</v>
+        <v>-463800</v>
       </c>
       <c r="E29" s="3">
-        <v>49700</v>
+        <v>173400</v>
       </c>
       <c r="F29" s="3">
-        <v>114700</v>
+        <v>49200</v>
       </c>
       <c r="G29" s="3">
-        <v>211700</v>
+        <v>113600</v>
       </c>
       <c r="H29" s="3">
-        <v>137200</v>
+        <v>114800</v>
       </c>
       <c r="I29" s="3">
-        <v>72200</v>
+        <v>135900</v>
       </c>
       <c r="J29" s="3">
+        <v>71400</v>
+      </c>
+      <c r="K29" s="3">
         <v>143100</v>
       </c>
-      <c r="K29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
+      <c r="M29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N29" s="3">
         <v>0</v>
@@ -1802,8 +1862,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1855,8 +1918,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1908,114 +1974,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1100100</v>
+        <v>1530900</v>
       </c>
       <c r="E32" s="3">
-        <v>991300</v>
+        <v>1089300</v>
       </c>
       <c r="F32" s="3">
-        <v>1949400</v>
+        <v>981500</v>
       </c>
       <c r="G32" s="3">
-        <v>3799500</v>
+        <v>1930300</v>
       </c>
       <c r="H32" s="3">
-        <v>1212500</v>
+        <v>1304800</v>
       </c>
       <c r="I32" s="3">
-        <v>1274000</v>
+        <v>1200600</v>
       </c>
       <c r="J32" s="3">
+        <v>1261500</v>
+      </c>
+      <c r="K32" s="3">
         <v>5708700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1606600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1490000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>826600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>451400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>2548600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>72800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>1243500</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2096100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1242000</v>
+        <v>219000</v>
       </c>
       <c r="E33" s="3">
-        <v>994800</v>
+        <v>1229900</v>
       </c>
       <c r="F33" s="3">
-        <v>513400</v>
+        <v>985100</v>
       </c>
       <c r="G33" s="3">
-        <v>2976200</v>
+        <v>508300</v>
       </c>
       <c r="H33" s="3">
-        <v>1445500</v>
+        <v>789500</v>
       </c>
       <c r="I33" s="3">
-        <v>733400</v>
+        <v>1431300</v>
       </c>
       <c r="J33" s="3">
+        <v>726200</v>
+      </c>
+      <c r="K33" s="3">
         <v>-890700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>74400</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1294500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>383400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>1922900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-445800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1827700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>941300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>541500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2067,119 +2142,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1242000</v>
+        <v>219000</v>
       </c>
       <c r="E35" s="3">
-        <v>994800</v>
+        <v>1229900</v>
       </c>
       <c r="F35" s="3">
-        <v>513400</v>
+        <v>985100</v>
       </c>
       <c r="G35" s="3">
-        <v>2976200</v>
+        <v>508300</v>
       </c>
       <c r="H35" s="3">
-        <v>1445500</v>
+        <v>789500</v>
       </c>
       <c r="I35" s="3">
-        <v>733400</v>
+        <v>1431300</v>
       </c>
       <c r="J35" s="3">
+        <v>726200</v>
+      </c>
+      <c r="K35" s="3">
         <v>-890700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>74400</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1294500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>383400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>1922900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-445800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1827700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>941300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>541500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2199,8 +2283,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2220,114 +2305,121 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>224979300</v>
+        <v>193053700</v>
       </c>
       <c r="E41" s="3">
-        <v>208008200</v>
+        <v>222773100</v>
       </c>
       <c r="F41" s="3">
-        <v>219355800</v>
+        <v>205968400</v>
       </c>
       <c r="G41" s="3">
-        <v>205945300</v>
+        <v>217204700</v>
       </c>
       <c r="H41" s="3">
-        <v>188893800</v>
+        <v>203925700</v>
       </c>
       <c r="I41" s="3">
-        <v>174579500</v>
+        <v>187041400</v>
       </c>
       <c r="J41" s="3">
+        <v>172867500</v>
+      </c>
+      <c r="K41" s="3">
         <v>155485100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>144255600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>147635500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>120319500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>120759500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>136829800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>135005200</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>128935400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>134514500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>206943600</v>
+        <v>232895400</v>
       </c>
       <c r="E42" s="3">
-        <v>195134700</v>
+        <v>204914200</v>
       </c>
       <c r="F42" s="3">
-        <v>195529800</v>
+        <v>193221200</v>
       </c>
       <c r="G42" s="3">
-        <v>201243200</v>
+        <v>193612400</v>
       </c>
       <c r="H42" s="3">
-        <v>212627500</v>
+        <v>199269800</v>
       </c>
       <c r="I42" s="3">
-        <v>222992000</v>
+        <v>210542300</v>
       </c>
       <c r="J42" s="3">
+        <v>220805300</v>
+      </c>
+      <c r="K42" s="3">
         <v>278588300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>286836300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>333485700</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>386787000</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>309272100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>378350900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>317149200</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>297141900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>275342400</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2379,8 +2471,11 @@
       <c r="S43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2432,8 +2527,11 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2485,8 +2583,11 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2538,8 +2639,11 @@
       <c r="S46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2591,8 +2695,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2602,11 +2709,11 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>5003700</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>4954600</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
@@ -2626,79 +2733,85 @@
       <c r="M48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O48" s="3">
         <v>6720800</v>
       </c>
-      <c r="O48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>1785100</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>5746800</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8125300</v>
+        <v>8153400</v>
       </c>
       <c r="E49" s="3">
-        <v>8013000</v>
+        <v>8045700</v>
       </c>
       <c r="F49" s="3">
-        <v>7952600</v>
+        <v>7934400</v>
       </c>
       <c r="G49" s="3">
-        <v>7952600</v>
+        <v>7874600</v>
       </c>
       <c r="H49" s="3">
-        <v>7918300</v>
+        <v>7874600</v>
       </c>
       <c r="I49" s="3">
-        <v>7885200</v>
+        <v>7840700</v>
       </c>
       <c r="J49" s="3">
+        <v>7807900</v>
+      </c>
+      <c r="K49" s="3">
         <v>7872200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8051300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8606300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8810600</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>9031000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9404800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9105600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8808500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8738300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2750,8 +2863,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2803,22 +2919,25 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>16781800</v>
+        <v>14300400</v>
       </c>
       <c r="E52" s="3">
-        <v>10912300</v>
+        <v>16617200</v>
       </c>
       <c r="F52" s="3">
-        <v>10663800</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>5</v>
+        <v>10805200</v>
+      </c>
+      <c r="G52" s="3">
+        <v>10559300</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>5</v>
@@ -2835,8 +2954,8 @@
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
+      <c r="M52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -2847,17 +2966,20 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-      <c r="Q52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R52" s="3">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S52" s="3">
         <v>3719300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2909,61 +3031,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>953982800</v>
+        <v>938788800</v>
       </c>
       <c r="E54" s="3">
-        <v>929047300</v>
+        <v>944627700</v>
       </c>
       <c r="F54" s="3">
-        <v>925018300</v>
+        <v>919936700</v>
       </c>
       <c r="G54" s="3">
-        <v>920625000</v>
+        <v>915947200</v>
       </c>
       <c r="H54" s="3">
-        <v>917762400</v>
+        <v>911597000</v>
       </c>
       <c r="I54" s="3">
-        <v>910568000</v>
+        <v>908762500</v>
       </c>
       <c r="J54" s="3">
+        <v>901638600</v>
+      </c>
+      <c r="K54" s="3">
         <v>945717900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>965625300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1051849800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1088365900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>986073400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>957457700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>916938600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2983,8 +3111,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3004,8 +3133,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3057,8 +3187,11 @@
       <c r="S57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3110,8 +3243,11 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3154,17 +3290,20 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R59" s="3">
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S59" s="3">
         <v>7039800</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3216,61 +3355,67 @@
       <c r="S60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>68426000</v>
+        <v>62649300</v>
       </c>
       <c r="E61" s="3">
-        <v>66272000</v>
+        <v>67755000</v>
       </c>
       <c r="F61" s="3">
-        <v>68318400</v>
+        <v>65622100</v>
       </c>
       <c r="G61" s="3">
-        <v>66871700</v>
+        <v>67648400</v>
       </c>
       <c r="H61" s="3">
-        <v>66793600</v>
+        <v>66215900</v>
       </c>
       <c r="I61" s="3">
-        <v>61299100</v>
+        <v>66138600</v>
       </c>
       <c r="J61" s="3">
+        <v>60697900</v>
+      </c>
+      <c r="K61" s="3">
         <v>65973900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>72358400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>84759400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>78226100</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>75279800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>81663200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>79910000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>69306000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>66392200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3313,17 +3458,20 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-      <c r="Q62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R62" s="3">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S62" s="3">
         <v>4786500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3375,8 +3523,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3428,8 +3579,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3481,61 +3635,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>908302800</v>
+        <v>897858800</v>
       </c>
       <c r="E66" s="3">
-        <v>882636200</v>
+        <v>899395600</v>
       </c>
       <c r="F66" s="3">
-        <v>875577800</v>
+        <v>873980700</v>
       </c>
       <c r="G66" s="3">
-        <v>871089900</v>
+        <v>866991600</v>
       </c>
       <c r="H66" s="3">
-        <v>865862700</v>
+        <v>862547700</v>
       </c>
       <c r="I66" s="3">
-        <v>860077100</v>
+        <v>857371700</v>
       </c>
       <c r="J66" s="3">
+        <v>851642900</v>
+      </c>
+      <c r="K66" s="3">
         <v>893835900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>912940200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>995661200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1029580600</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>926684400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>938778600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>896037500</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>856531000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3555,8 +3715,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3608,8 +3769,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3661,8 +3825,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3714,8 +3881,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3767,61 +3937,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27740200</v>
+        <v>23153100</v>
       </c>
       <c r="E72" s="3">
-        <v>26097100</v>
+        <v>27468200</v>
       </c>
       <c r="F72" s="3">
-        <v>29062700</v>
+        <v>25841200</v>
       </c>
       <c r="G72" s="3">
-        <v>28053700</v>
+        <v>28777700</v>
       </c>
       <c r="H72" s="3">
-        <v>28303200</v>
+        <v>27778600</v>
       </c>
       <c r="I72" s="3">
-        <v>27057700</v>
+        <v>28025700</v>
       </c>
       <c r="J72" s="3">
+        <v>26792300</v>
+      </c>
+      <c r="K72" s="3">
         <v>27736600</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29219000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>31052800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>35865200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>33858800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33317300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35242900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>34094500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33274700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3873,8 +4049,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3926,8 +4105,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3979,61 +4161,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>45680000</v>
+        <v>40929900</v>
       </c>
       <c r="E76" s="3">
-        <v>46411100</v>
+        <v>45232100</v>
       </c>
       <c r="F76" s="3">
-        <v>49440500</v>
+        <v>45956000</v>
       </c>
       <c r="G76" s="3">
-        <v>49535100</v>
+        <v>48955700</v>
       </c>
       <c r="H76" s="3">
-        <v>51899700</v>
+        <v>49049400</v>
       </c>
       <c r="I76" s="3">
-        <v>50490900</v>
+        <v>51390800</v>
       </c>
       <c r="J76" s="3">
+        <v>49995800</v>
+      </c>
+      <c r="K76" s="3">
         <v>51882000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52685000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>56188600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>58785400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>59389000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>62448800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>63470200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>61420100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>60407700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4085,119 +4273,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1242000</v>
+        <v>219000</v>
       </c>
       <c r="E81" s="3">
-        <v>994800</v>
+        <v>1229900</v>
       </c>
       <c r="F81" s="3">
-        <v>513400</v>
+        <v>985100</v>
       </c>
       <c r="G81" s="3">
-        <v>2976200</v>
+        <v>508300</v>
       </c>
       <c r="H81" s="3">
-        <v>1445500</v>
+        <v>789500</v>
       </c>
       <c r="I81" s="3">
-        <v>733400</v>
+        <v>1431300</v>
       </c>
       <c r="J81" s="3">
+        <v>726200</v>
+      </c>
+      <c r="K81" s="3">
         <v>-890700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>74400</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1294500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>383400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>1922900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-445800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1827700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>941300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>541500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4217,8 +4414,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4270,8 +4468,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4323,8 +4524,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4376,8 +4580,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4429,8 +4636,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4482,8 +4692,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4535,34 +4748,37 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>5</v>
@@ -4570,8 +4786,8 @@
       <c r="M89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4588,8 +4804,11 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4609,8 +4828,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4662,8 +4882,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4715,8 +4938,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4768,34 +4994,37 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>5</v>
@@ -4803,8 +5032,8 @@
       <c r="M94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4821,8 +5050,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4842,8 +5074,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4895,8 +5128,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4948,8 +5184,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5001,8 +5240,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5054,34 +5296,37 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>5</v>
@@ -5089,8 +5334,8 @@
       <c r="M100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5107,34 +5352,37 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>5</v>
@@ -5142,8 +5390,8 @@
       <c r="M101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5160,34 +5408,37 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
         <v>5</v>
@@ -5195,8 +5446,8 @@
       <c r="M102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5211,6 +5462,9 @@
         <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,137 +665,143 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3913300</v>
+        <v>4824900</v>
       </c>
       <c r="E8" s="3">
-        <v>3282000</v>
+        <v>3984200</v>
       </c>
       <c r="F8" s="3">
-        <v>2867300</v>
+        <v>3341400</v>
       </c>
       <c r="G8" s="3">
-        <v>2746700</v>
+        <v>2919300</v>
       </c>
       <c r="H8" s="3">
-        <v>2692800</v>
+        <v>2796400</v>
       </c>
       <c r="I8" s="3">
-        <v>2726800</v>
+        <v>2741600</v>
       </c>
       <c r="J8" s="3">
+        <v>2776200</v>
+      </c>
+      <c r="K8" s="3">
         <v>2672900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>11590100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>3064400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3268100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3571300</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3956400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>4133500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3853200</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3657400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3731200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -850,8 +856,11 @@
       <c r="T9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -906,8 +915,11 @@
       <c r="T10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -928,8 +940,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -984,8 +997,11 @@
       <c r="T12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1040,8 +1056,11 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1096,64 +1115,70 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-234300</v>
+        <v>-262400</v>
       </c>
       <c r="E15" s="3">
-        <v>-253000</v>
+        <v>-238500</v>
       </c>
       <c r="F15" s="3">
-        <v>-230700</v>
+        <v>-257600</v>
       </c>
       <c r="G15" s="3">
-        <v>-363100</v>
+        <v>-234900</v>
       </c>
       <c r="H15" s="3">
-        <v>-233100</v>
+        <v>-369700</v>
       </c>
       <c r="I15" s="3">
-        <v>-244800</v>
+        <v>-237300</v>
       </c>
       <c r="J15" s="3">
+        <v>-249200</v>
+      </c>
+      <c r="K15" s="3">
         <v>-240100</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-1080000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-236700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-323300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-256900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-440500</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-328300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-517700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-324900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-247000</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1171,120 +1196,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1110400</v>
+        <v>1576500</v>
       </c>
       <c r="E17" s="3">
-        <v>582100</v>
+        <v>1130500</v>
       </c>
       <c r="F17" s="3">
-        <v>427500</v>
+        <v>592700</v>
       </c>
       <c r="G17" s="3">
-        <v>72600</v>
+        <v>435300</v>
       </c>
       <c r="H17" s="3">
-        <v>244800</v>
+        <v>73900</v>
       </c>
       <c r="I17" s="3">
-        <v>-160500</v>
+        <v>249200</v>
       </c>
       <c r="J17" s="3">
+        <v>-163400</v>
+      </c>
+      <c r="K17" s="3">
         <v>374800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>6450400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1024700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3458400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2053900</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1396500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1596200</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1472100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1065100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>879600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>2802900</v>
+        <v>3248400</v>
       </c>
       <c r="E18" s="3">
-        <v>2699800</v>
+        <v>2853700</v>
       </c>
       <c r="F18" s="3">
-        <v>2439800</v>
+        <v>2748700</v>
       </c>
       <c r="G18" s="3">
-        <v>2674100</v>
+        <v>2484000</v>
       </c>
       <c r="H18" s="3">
-        <v>2448000</v>
+        <v>2722500</v>
       </c>
       <c r="I18" s="3">
-        <v>2887300</v>
+        <v>2492300</v>
       </c>
       <c r="J18" s="3">
+        <v>2939500</v>
+      </c>
+      <c r="K18" s="3">
         <v>2298100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>5139700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2039700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-190300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>1517500</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2559800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2537300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2381100</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2592200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2851600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1305,64 +1337,68 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1530900</v>
+        <v>-1547900</v>
       </c>
       <c r="E20" s="3">
-        <v>-1089300</v>
+        <v>-1558600</v>
       </c>
       <c r="F20" s="3">
-        <v>-981500</v>
+        <v>-1109000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1930300</v>
+        <v>-999300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1304800</v>
+        <v>-1965300</v>
       </c>
       <c r="I20" s="3">
-        <v>-1200600</v>
+        <v>-1328500</v>
       </c>
       <c r="J20" s="3">
+        <v>-1222300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1261500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-5708700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1606600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1490000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-826600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-451400</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-72800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,8 +1453,11 @@
       <c r="T21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1473,120 +1512,129 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1272000</v>
+        <v>1700500</v>
       </c>
       <c r="E23" s="3">
-        <v>1610500</v>
+        <v>1295100</v>
       </c>
       <c r="F23" s="3">
-        <v>1458300</v>
+        <v>1639700</v>
       </c>
       <c r="G23" s="3">
-        <v>743800</v>
+        <v>1484700</v>
       </c>
       <c r="H23" s="3">
-        <v>1143200</v>
+        <v>757200</v>
       </c>
       <c r="I23" s="3">
-        <v>1686700</v>
+        <v>1163900</v>
       </c>
       <c r="J23" s="3">
+        <v>1717200</v>
+      </c>
+      <c r="K23" s="3">
         <v>1036600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-569000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>433100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-1680300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>690800</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>2108400</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2308300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>1348700</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>755500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>508300</v>
+        <v>54900</v>
       </c>
       <c r="E24" s="3">
-        <v>479100</v>
+        <v>517500</v>
       </c>
       <c r="F24" s="3">
-        <v>452100</v>
+        <v>487700</v>
       </c>
       <c r="G24" s="3">
-        <v>274100</v>
+        <v>460300</v>
       </c>
       <c r="H24" s="3">
-        <v>386500</v>
+        <v>279000</v>
       </c>
       <c r="I24" s="3">
-        <v>233100</v>
+        <v>393500</v>
       </c>
       <c r="J24" s="3">
+        <v>237300</v>
+      </c>
+      <c r="K24" s="3">
         <v>272900</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>87500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>252500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-516200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>250200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>50500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>284400</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-30200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>287600</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>155900</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1641,120 +1689,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1645700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>777500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>1152000</v>
+      </c>
+      <c r="G26" s="3">
+        <v>1024400</v>
+      </c>
+      <c r="H26" s="3">
+        <v>478200</v>
+      </c>
+      <c r="I26" s="3">
+        <v>770400</v>
+      </c>
+      <c r="J26" s="3">
+        <v>1479900</v>
+      </c>
+      <c r="K26" s="3">
         <v>763700</v>
       </c>
-      <c r="E26" s="3">
-        <v>1131500</v>
-      </c>
-      <c r="F26" s="3">
-        <v>1006100</v>
-      </c>
-      <c r="G26" s="3">
-        <v>469700</v>
-      </c>
-      <c r="H26" s="3">
-        <v>756700</v>
-      </c>
-      <c r="I26" s="3">
-        <v>1453600</v>
-      </c>
-      <c r="J26" s="3">
-        <v>763700</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-656500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>180500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-1164100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>440600</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2058000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-295800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2338500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>1061100</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>599600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>682900</v>
+        <v>1571700</v>
       </c>
       <c r="E27" s="3">
-        <v>1056500</v>
+        <v>695200</v>
       </c>
       <c r="F27" s="3">
-        <v>935900</v>
+        <v>1075600</v>
       </c>
       <c r="G27" s="3">
-        <v>394700</v>
+        <v>952800</v>
       </c>
       <c r="H27" s="3">
-        <v>674700</v>
+        <v>401900</v>
       </c>
       <c r="I27" s="3">
-        <v>1295500</v>
+        <v>686900</v>
       </c>
       <c r="J27" s="3">
+        <v>1318900</v>
+      </c>
+      <c r="K27" s="3">
         <v>654800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-1033900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>74400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1294500</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>383400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>1922900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-445800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1827700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>941300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>541500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1809,43 +1866,46 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-463800</v>
+        <v>-66800</v>
       </c>
       <c r="E29" s="3">
-        <v>173400</v>
+        <v>-472200</v>
       </c>
       <c r="F29" s="3">
-        <v>49200</v>
+        <v>176500</v>
       </c>
       <c r="G29" s="3">
-        <v>113600</v>
+        <v>50100</v>
       </c>
       <c r="H29" s="3">
-        <v>114800</v>
+        <v>115700</v>
       </c>
       <c r="I29" s="3">
-        <v>135900</v>
+        <v>116900</v>
       </c>
       <c r="J29" s="3">
+        <v>138300</v>
+      </c>
+      <c r="K29" s="3">
         <v>71400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>143100</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="M29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N29" s="3">
-        <v>0</v>
+      <c r="N29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O29" s="3">
         <v>0</v>
@@ -1865,8 +1925,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1921,8 +1984,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1977,120 +2043,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1530900</v>
+        <v>1547900</v>
       </c>
       <c r="E32" s="3">
-        <v>1089300</v>
+        <v>1558600</v>
       </c>
       <c r="F32" s="3">
-        <v>981500</v>
+        <v>1109000</v>
       </c>
       <c r="G32" s="3">
-        <v>1930300</v>
+        <v>999300</v>
       </c>
       <c r="H32" s="3">
-        <v>1304800</v>
+        <v>1965300</v>
       </c>
       <c r="I32" s="3">
-        <v>1200600</v>
+        <v>1328500</v>
       </c>
       <c r="J32" s="3">
+        <v>1222300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1261500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>5708700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1606600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1490000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>826600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>451400</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>2548600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>72800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>1243500</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2096100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>219000</v>
+        <v>1504900</v>
       </c>
       <c r="E33" s="3">
-        <v>1229900</v>
+        <v>223000</v>
       </c>
       <c r="F33" s="3">
-        <v>985100</v>
+        <v>1252100</v>
       </c>
       <c r="G33" s="3">
-        <v>508300</v>
+        <v>1002900</v>
       </c>
       <c r="H33" s="3">
-        <v>789500</v>
+        <v>517500</v>
       </c>
       <c r="I33" s="3">
-        <v>1431300</v>
+        <v>803800</v>
       </c>
       <c r="J33" s="3">
+        <v>1457200</v>
+      </c>
+      <c r="K33" s="3">
         <v>726200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-890700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>74400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-1294500</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>383400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>1922900</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-445800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1827700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>941300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>541500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2145,125 +2220,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>219000</v>
+        <v>1504900</v>
       </c>
       <c r="E35" s="3">
-        <v>1229900</v>
+        <v>223000</v>
       </c>
       <c r="F35" s="3">
-        <v>985100</v>
+        <v>1252100</v>
       </c>
       <c r="G35" s="3">
-        <v>508300</v>
+        <v>1002900</v>
       </c>
       <c r="H35" s="3">
-        <v>789500</v>
+        <v>517500</v>
       </c>
       <c r="I35" s="3">
-        <v>1431300</v>
+        <v>803800</v>
       </c>
       <c r="J35" s="3">
+        <v>1457200</v>
+      </c>
+      <c r="K35" s="3">
         <v>726200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-890700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>74400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-1294500</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>383400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>1922900</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-445800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1827700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>941300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>541500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2284,8 +2368,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2306,120 +2391,127 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>193053700</v>
+        <v>181226900</v>
       </c>
       <c r="E41" s="3">
-        <v>222773100</v>
+        <v>196549500</v>
       </c>
       <c r="F41" s="3">
-        <v>205968400</v>
+        <v>226807100</v>
       </c>
       <c r="G41" s="3">
-        <v>217204700</v>
+        <v>209698100</v>
       </c>
       <c r="H41" s="3">
-        <v>203925700</v>
+        <v>221137900</v>
       </c>
       <c r="I41" s="3">
-        <v>187041400</v>
+        <v>207618400</v>
       </c>
       <c r="J41" s="3">
+        <v>190428300</v>
+      </c>
+      <c r="K41" s="3">
         <v>172867500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>155485100</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>144255600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>147635500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>120319500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>120759500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>136829800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>135005200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>128935400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>134514500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>232895400</v>
+        <v>173059400</v>
       </c>
       <c r="E42" s="3">
-        <v>204914200</v>
+        <v>237112700</v>
       </c>
       <c r="F42" s="3">
-        <v>193221200</v>
+        <v>208624900</v>
       </c>
       <c r="G42" s="3">
-        <v>193612400</v>
+        <v>196720000</v>
       </c>
       <c r="H42" s="3">
-        <v>199269800</v>
+        <v>197118300</v>
       </c>
       <c r="I42" s="3">
-        <v>210542300</v>
+        <v>202878100</v>
       </c>
       <c r="J42" s="3">
+        <v>214354900</v>
+      </c>
+      <c r="K42" s="3">
         <v>220805300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>278588300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>286836300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>333485700</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>386787000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>309272100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>378350900</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>317149200</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>297141900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>275342400</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2474,8 +2566,11 @@
       <c r="T43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2530,8 +2625,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2586,8 +2684,11 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2642,8 +2743,11 @@
       <c r="T46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2698,13 +2802,16 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3">
+        <v>5056200</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>5</v>
@@ -2712,11 +2819,11 @@
       <c r="F48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G48" s="3">
-        <v>4954600</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>5</v>
+      <c r="G48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H48" s="3">
+        <v>5044300</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>5</v>
@@ -2736,82 +2843,88 @@
       <c r="N48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O48" s="3">
+      <c r="O48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P48" s="3">
         <v>6720800</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>1785100</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>5746800</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8153400</v>
+        <v>8485900</v>
       </c>
       <c r="E49" s="3">
-        <v>8045700</v>
+        <v>8301100</v>
       </c>
       <c r="F49" s="3">
-        <v>7934400</v>
+        <v>8191400</v>
       </c>
       <c r="G49" s="3">
-        <v>7874600</v>
+        <v>8078100</v>
       </c>
       <c r="H49" s="3">
-        <v>7874600</v>
+        <v>8017200</v>
       </c>
       <c r="I49" s="3">
-        <v>7840700</v>
+        <v>8017200</v>
       </c>
       <c r="J49" s="3">
+        <v>7982700</v>
+      </c>
+      <c r="K49" s="3">
         <v>7807900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7872200</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>8051300</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8606300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8810600</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>9031000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9404800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9105600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>8808500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8738300</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2866,8 +2979,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2922,25 +3038,28 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>14300400</v>
+        <v>8181800</v>
       </c>
       <c r="E52" s="3">
-        <v>16617200</v>
+        <v>14559400</v>
       </c>
       <c r="F52" s="3">
-        <v>10805200</v>
+        <v>16918100</v>
       </c>
       <c r="G52" s="3">
-        <v>10559300</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>5</v>
+        <v>11000900</v>
+      </c>
+      <c r="H52" s="3">
+        <v>10750500</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>5</v>
@@ -2957,8 +3076,8 @@
       <c r="M52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="N52" s="3">
-        <v>0</v>
+      <c r="N52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="O52" s="3">
         <v>0</v>
@@ -2969,17 +3088,20 @@
       <c r="Q52" s="3">
         <v>0</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S52" s="3">
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T52" s="3">
         <v>3719300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3034,64 +3156,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>938788800</v>
+        <v>858670400</v>
       </c>
       <c r="E54" s="3">
-        <v>944627700</v>
+        <v>955788400</v>
       </c>
       <c r="F54" s="3">
-        <v>919936700</v>
+        <v>961733100</v>
       </c>
       <c r="G54" s="3">
-        <v>915947200</v>
+        <v>936595000</v>
       </c>
       <c r="H54" s="3">
-        <v>911597000</v>
+        <v>932533300</v>
       </c>
       <c r="I54" s="3">
-        <v>908762500</v>
+        <v>928104300</v>
       </c>
       <c r="J54" s="3">
+        <v>925218400</v>
+      </c>
+      <c r="K54" s="3">
         <v>901638600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>945717900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>965625300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1051849800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1088365900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>986073400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>957457700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>916938600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3112,8 +3240,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3134,8 +3263,9 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3190,8 +3320,11 @@
       <c r="T57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3246,8 +3379,11 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3293,17 +3429,20 @@
       <c r="Q59" s="3">
         <v>0</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S59" s="3">
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T59" s="3">
         <v>7039800</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3358,64 +3497,70 @@
       <c r="T60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>62649300</v>
+        <v>68309400</v>
       </c>
       <c r="E61" s="3">
-        <v>67755000</v>
+        <v>63783800</v>
       </c>
       <c r="F61" s="3">
-        <v>65622100</v>
+        <v>68981900</v>
       </c>
       <c r="G61" s="3">
-        <v>67648400</v>
+        <v>66810400</v>
       </c>
       <c r="H61" s="3">
-        <v>66215900</v>
+        <v>68873400</v>
       </c>
       <c r="I61" s="3">
-        <v>66138600</v>
+        <v>67415000</v>
       </c>
       <c r="J61" s="3">
+        <v>67336300</v>
+      </c>
+      <c r="K61" s="3">
         <v>60697900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>65973900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>72358400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>84759400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>78226100</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>75279800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>81663200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>79910000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>69306000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>66392200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3461,17 +3606,20 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S62" s="3">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T62" s="3">
         <v>4786500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3526,8 +3674,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3582,8 +3733,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3638,64 +3792,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>897858800</v>
+        <v>815158100</v>
       </c>
       <c r="E66" s="3">
-        <v>899395600</v>
+        <v>914117300</v>
       </c>
       <c r="F66" s="3">
-        <v>873980700</v>
+        <v>915681900</v>
       </c>
       <c r="G66" s="3">
-        <v>866991600</v>
+        <v>889806800</v>
       </c>
       <c r="H66" s="3">
-        <v>862547700</v>
+        <v>882691100</v>
       </c>
       <c r="I66" s="3">
-        <v>857371700</v>
+        <v>878166700</v>
       </c>
       <c r="J66" s="3">
+        <v>872897000</v>
+      </c>
+      <c r="K66" s="3">
         <v>851642900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>893835900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>912940200</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>995661200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>1029580600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>926684400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>938778600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>896037500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>856531000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3716,8 +3876,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3772,8 +3933,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3828,8 +3992,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3884,8 +4051,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3940,64 +4110,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>23153100</v>
+        <v>26892300</v>
       </c>
       <c r="E72" s="3">
-        <v>27468200</v>
+        <v>23572300</v>
       </c>
       <c r="F72" s="3">
-        <v>25841200</v>
+        <v>27965600</v>
       </c>
       <c r="G72" s="3">
-        <v>28777700</v>
+        <v>26309200</v>
       </c>
       <c r="H72" s="3">
-        <v>27778600</v>
+        <v>29298800</v>
       </c>
       <c r="I72" s="3">
-        <v>28025700</v>
+        <v>28281600</v>
       </c>
       <c r="J72" s="3">
+        <v>28533200</v>
+      </c>
+      <c r="K72" s="3">
         <v>26792300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>27736600</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>29219000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>31052800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>35865200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>33858800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33317300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35242900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>34094500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>33274700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4052,8 +4228,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4108,8 +4287,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4164,64 +4346,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>40929900</v>
+        <v>43512300</v>
       </c>
       <c r="E76" s="3">
-        <v>45232100</v>
+        <v>41671100</v>
       </c>
       <c r="F76" s="3">
-        <v>45956000</v>
+        <v>46051200</v>
       </c>
       <c r="G76" s="3">
-        <v>48955700</v>
+        <v>46788100</v>
       </c>
       <c r="H76" s="3">
-        <v>49049400</v>
+        <v>49842100</v>
       </c>
       <c r="I76" s="3">
-        <v>51390800</v>
+        <v>49937500</v>
       </c>
       <c r="J76" s="3">
+        <v>52321400</v>
+      </c>
+      <c r="K76" s="3">
         <v>49995800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51882000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52685000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>56188600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>58785400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>59389000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>62448800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>63470200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>61420100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>60407700</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4276,125 +4464,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>219000</v>
+        <v>1504900</v>
       </c>
       <c r="E81" s="3">
-        <v>1229900</v>
+        <v>223000</v>
       </c>
       <c r="F81" s="3">
-        <v>985100</v>
+        <v>1252100</v>
       </c>
       <c r="G81" s="3">
-        <v>508300</v>
+        <v>1002900</v>
       </c>
       <c r="H81" s="3">
-        <v>789500</v>
+        <v>517500</v>
       </c>
       <c r="I81" s="3">
-        <v>1431300</v>
+        <v>803800</v>
       </c>
       <c r="J81" s="3">
+        <v>1457200</v>
+      </c>
+      <c r="K81" s="3">
         <v>726200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-890700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>74400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-1294500</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>383400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>1922900</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-445800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1827700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>941300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>541500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4415,8 +4612,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4471,8 +4669,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4527,8 +4728,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4583,8 +4787,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4639,8 +4846,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4695,8 +4905,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4751,37 +4964,40 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>5</v>
@@ -4789,8 +5005,8 @@
       <c r="N89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -4807,8 +5023,11 @@
       <c r="T89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4829,8 +5048,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4885,8 +5105,11 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4941,8 +5164,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4997,37 +5223,40 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>5</v>
@@ -5035,8 +5264,8 @@
       <c r="N94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5053,8 +5282,11 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5075,8 +5307,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5131,8 +5364,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5187,8 +5423,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5243,8 +5482,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5299,37 +5541,40 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>5</v>
@@ -5337,8 +5582,8 @@
       <c r="N100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5355,37 +5600,40 @@
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>5</v>
@@ -5393,8 +5641,8 @@
       <c r="N101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5411,37 +5659,40 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
         <v>5</v>
@@ -5449,8 +5700,8 @@
       <c r="N102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5465,6 +5716,9 @@
         <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,143 +665,151 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4824900</v>
+        <v>5584800</v>
       </c>
       <c r="E8" s="3">
-        <v>3984200</v>
+        <v>5020300</v>
       </c>
       <c r="F8" s="3">
-        <v>3341400</v>
+        <v>4145500</v>
       </c>
       <c r="G8" s="3">
-        <v>2919300</v>
+        <v>3476700</v>
       </c>
       <c r="H8" s="3">
-        <v>2796400</v>
+        <v>3015100</v>
       </c>
       <c r="I8" s="3">
-        <v>2741600</v>
+        <v>2909700</v>
       </c>
       <c r="J8" s="3">
+        <v>2852600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2776200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2672900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>11590100</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>3064400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3268100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3571300</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3956400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>4133500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3853200</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3657400</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3731200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -859,8 +867,11 @@
       <c r="U9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -918,8 +929,11 @@
       <c r="U10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,8 +1015,11 @@
       <c r="U12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1059,8 +1077,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1118,67 +1139,73 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-262400</v>
+        <v>-263000</v>
       </c>
       <c r="E15" s="3">
-        <v>-238500</v>
+        <v>-273000</v>
       </c>
       <c r="F15" s="3">
-        <v>-257600</v>
+        <v>-248200</v>
       </c>
       <c r="G15" s="3">
-        <v>-234900</v>
+        <v>-268000</v>
       </c>
       <c r="H15" s="3">
-        <v>-369700</v>
+        <v>-244400</v>
       </c>
       <c r="I15" s="3">
-        <v>-237300</v>
+        <v>-384600</v>
       </c>
       <c r="J15" s="3">
+        <v>-246900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-249200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-240100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-1080000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-236700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-323300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-256900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-440500</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-328300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-517700</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-324900</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-247000</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1197,126 +1224,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1576500</v>
+        <v>2070900</v>
       </c>
       <c r="E17" s="3">
-        <v>1130500</v>
+        <v>1640300</v>
       </c>
       <c r="F17" s="3">
-        <v>592700</v>
+        <v>1176300</v>
       </c>
       <c r="G17" s="3">
-        <v>435300</v>
+        <v>616700</v>
       </c>
       <c r="H17" s="3">
-        <v>73900</v>
+        <v>455400</v>
       </c>
       <c r="I17" s="3">
-        <v>249200</v>
+        <v>76900</v>
       </c>
       <c r="J17" s="3">
+        <v>259300</v>
+      </c>
+      <c r="K17" s="3">
         <v>-163400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>374800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6450400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1024700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>3458400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>2053900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1396500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1596200</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1472100</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1065100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>879600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3248400</v>
+        <v>3513900</v>
       </c>
       <c r="E18" s="3">
-        <v>2853700</v>
+        <v>3379900</v>
       </c>
       <c r="F18" s="3">
-        <v>2748700</v>
+        <v>2969200</v>
       </c>
       <c r="G18" s="3">
-        <v>2484000</v>
+        <v>2860000</v>
       </c>
       <c r="H18" s="3">
-        <v>2722500</v>
+        <v>2559800</v>
       </c>
       <c r="I18" s="3">
-        <v>2492300</v>
+        <v>2832700</v>
       </c>
       <c r="J18" s="3">
+        <v>2593300</v>
+      </c>
+      <c r="K18" s="3">
         <v>2939500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2298100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>5139700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2039700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-190300</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>1517500</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>2559800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>2537300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2381100</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2592200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2851600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1338,67 +1372,71 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1547900</v>
+        <v>-1258200</v>
       </c>
       <c r="E20" s="3">
-        <v>-1558600</v>
+        <v>-1610600</v>
       </c>
       <c r="F20" s="3">
-        <v>-1109000</v>
+        <v>-1621700</v>
       </c>
       <c r="G20" s="3">
-        <v>-999300</v>
+        <v>-1153900</v>
       </c>
       <c r="H20" s="3">
-        <v>-1965300</v>
+        <v>-1041000</v>
       </c>
       <c r="I20" s="3">
-        <v>-1328500</v>
+        <v>-2044800</v>
       </c>
       <c r="J20" s="3">
+        <v>-1382300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1222300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1261500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-5708700</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1606600</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1490000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-826600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-451400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-72800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1456,8 +1494,11 @@
       <c r="U21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1515,126 +1556,135 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1700500</v>
+        <v>2255800</v>
       </c>
       <c r="E23" s="3">
-        <v>1295100</v>
+        <v>1769400</v>
       </c>
       <c r="F23" s="3">
-        <v>1639700</v>
+        <v>1347500</v>
       </c>
       <c r="G23" s="3">
-        <v>1484700</v>
+        <v>1706100</v>
       </c>
       <c r="H23" s="3">
-        <v>757200</v>
+        <v>1518700</v>
       </c>
       <c r="I23" s="3">
-        <v>1163900</v>
+        <v>787900</v>
       </c>
       <c r="J23" s="3">
+        <v>1211000</v>
+      </c>
+      <c r="K23" s="3">
         <v>1717200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1036600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-569000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>433100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1680300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>690800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>2108400</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11300</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2308300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>1348700</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>755500</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>54900</v>
+        <v>635300</v>
       </c>
       <c r="E24" s="3">
-        <v>517500</v>
+        <v>57100</v>
       </c>
       <c r="F24" s="3">
-        <v>487700</v>
+        <v>538500</v>
       </c>
       <c r="G24" s="3">
-        <v>460300</v>
+        <v>507500</v>
       </c>
       <c r="H24" s="3">
-        <v>279000</v>
+        <v>478900</v>
       </c>
       <c r="I24" s="3">
-        <v>393500</v>
+        <v>290300</v>
       </c>
       <c r="J24" s="3">
+        <v>409500</v>
+      </c>
+      <c r="K24" s="3">
         <v>237300</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>272900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>87500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>252500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-516200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>250200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>50500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>284400</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-30200</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>287600</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>155900</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1692,126 +1742,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1645700</v>
+        <v>1620500</v>
       </c>
       <c r="E26" s="3">
-        <v>777500</v>
+        <v>1712300</v>
       </c>
       <c r="F26" s="3">
-        <v>1152000</v>
+        <v>809000</v>
       </c>
       <c r="G26" s="3">
-        <v>1024400</v>
+        <v>1198600</v>
       </c>
       <c r="H26" s="3">
-        <v>478200</v>
+        <v>1039800</v>
       </c>
       <c r="I26" s="3">
-        <v>770400</v>
+        <v>497600</v>
       </c>
       <c r="J26" s="3">
+        <v>801600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1479900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>763700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-656500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>180500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1164100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>440600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2058000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-295800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2338500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>1061100</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>599600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1571700</v>
+        <v>1543600</v>
       </c>
       <c r="E27" s="3">
-        <v>695200</v>
+        <v>1635400</v>
       </c>
       <c r="F27" s="3">
-        <v>1075600</v>
+        <v>723400</v>
       </c>
       <c r="G27" s="3">
-        <v>952800</v>
+        <v>1119200</v>
       </c>
       <c r="H27" s="3">
-        <v>401900</v>
+        <v>965300</v>
       </c>
       <c r="I27" s="3">
-        <v>686900</v>
+        <v>418100</v>
       </c>
       <c r="J27" s="3">
+        <v>714700</v>
+      </c>
+      <c r="K27" s="3">
         <v>1318900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>654800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-1033900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>74400</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1294500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>383400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1922900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-445800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1827700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>941300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>541500</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1869,46 +1928,49 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-66800</v>
+        <v>43400</v>
       </c>
       <c r="E29" s="3">
-        <v>-472200</v>
+        <v>-69500</v>
       </c>
       <c r="F29" s="3">
-        <v>176500</v>
+        <v>-491400</v>
       </c>
       <c r="G29" s="3">
-        <v>50100</v>
+        <v>183600</v>
       </c>
       <c r="H29" s="3">
-        <v>115700</v>
+        <v>78200</v>
       </c>
       <c r="I29" s="3">
-        <v>116900</v>
+        <v>120400</v>
       </c>
       <c r="J29" s="3">
+        <v>121600</v>
+      </c>
+      <c r="K29" s="3">
         <v>138300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>71400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>143100</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="N29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
+      <c r="O29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P29" s="3">
         <v>0</v>
@@ -1928,8 +1990,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1987,8 +2052,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2046,126 +2114,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1547900</v>
+        <v>1258200</v>
       </c>
       <c r="E32" s="3">
-        <v>1558600</v>
+        <v>1610600</v>
       </c>
       <c r="F32" s="3">
-        <v>1109000</v>
+        <v>1621700</v>
       </c>
       <c r="G32" s="3">
-        <v>999300</v>
+        <v>1153900</v>
       </c>
       <c r="H32" s="3">
-        <v>1965300</v>
+        <v>1041000</v>
       </c>
       <c r="I32" s="3">
-        <v>1328500</v>
+        <v>2044800</v>
       </c>
       <c r="J32" s="3">
+        <v>1382300</v>
+      </c>
+      <c r="K32" s="3">
         <v>1222300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1261500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>5708700</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1606600</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1490000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>826600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>451400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>2548600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>72800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>1243500</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2096100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1504900</v>
+        <v>1587000</v>
       </c>
       <c r="E33" s="3">
-        <v>223000</v>
+        <v>1565900</v>
       </c>
       <c r="F33" s="3">
-        <v>1252100</v>
+        <v>232000</v>
       </c>
       <c r="G33" s="3">
-        <v>1002900</v>
+        <v>1302800</v>
       </c>
       <c r="H33" s="3">
-        <v>517500</v>
+        <v>1043500</v>
       </c>
       <c r="I33" s="3">
-        <v>803800</v>
+        <v>538500</v>
       </c>
       <c r="J33" s="3">
+        <v>836300</v>
+      </c>
+      <c r="K33" s="3">
         <v>1457200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>726200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-890700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>74400</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1294500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>383400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1922900</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-445800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1827700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>941300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>541500</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2223,131 +2300,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1504900</v>
+        <v>1587000</v>
       </c>
       <c r="E35" s="3">
-        <v>223000</v>
+        <v>1565900</v>
       </c>
       <c r="F35" s="3">
-        <v>1252100</v>
+        <v>232000</v>
       </c>
       <c r="G35" s="3">
-        <v>1002900</v>
+        <v>1302800</v>
       </c>
       <c r="H35" s="3">
-        <v>517500</v>
+        <v>1043500</v>
       </c>
       <c r="I35" s="3">
-        <v>803800</v>
+        <v>538500</v>
       </c>
       <c r="J35" s="3">
+        <v>836300</v>
+      </c>
+      <c r="K35" s="3">
         <v>1457200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>726200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-890700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>74400</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1294500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>383400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1922900</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-445800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1827700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>941300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>541500</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2369,8 +2455,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2392,126 +2479,133 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>181226900</v>
+        <v>162907100</v>
       </c>
       <c r="E41" s="3">
-        <v>196549500</v>
+        <v>188565600</v>
       </c>
       <c r="F41" s="3">
-        <v>226807100</v>
+        <v>204508700</v>
       </c>
       <c r="G41" s="3">
-        <v>209698100</v>
+        <v>235991500</v>
       </c>
       <c r="H41" s="3">
-        <v>221137900</v>
+        <v>218189700</v>
       </c>
       <c r="I41" s="3">
-        <v>207618400</v>
+        <v>230092700</v>
       </c>
       <c r="J41" s="3">
+        <v>216025800</v>
+      </c>
+      <c r="K41" s="3">
         <v>190428300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>172867500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>155485100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>144255600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>147635500</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>120319500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>120759500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>136829800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>135005200</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>128935400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>134514500</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>173059400</v>
+        <v>161151400</v>
       </c>
       <c r="E42" s="3">
-        <v>237112700</v>
+        <v>180067400</v>
       </c>
       <c r="F42" s="3">
-        <v>208624900</v>
+        <v>246714500</v>
       </c>
       <c r="G42" s="3">
-        <v>196720000</v>
+        <v>217073000</v>
       </c>
       <c r="H42" s="3">
-        <v>197118300</v>
+        <v>204686100</v>
       </c>
       <c r="I42" s="3">
-        <v>202878100</v>
+        <v>205100500</v>
       </c>
       <c r="J42" s="3">
+        <v>211093600</v>
+      </c>
+      <c r="K42" s="3">
         <v>214354900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>220805300</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>278588300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>286836300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>333485700</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>386787000</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>309272100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>378350900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>317149200</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>297141900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>275342400</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2569,8 +2663,11 @@
       <c r="U43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2628,8 +2725,11 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2687,8 +2787,11 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2746,8 +2849,11 @@
       <c r="U46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2805,16 +2911,19 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>5056200</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>5</v>
+      <c r="D48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="3">
+        <v>5261000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>5</v>
@@ -2822,11 +2931,11 @@
       <c r="G48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="H48" s="3">
-        <v>5044300</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>5</v>
+      <c r="H48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I48" s="3">
+        <v>5248600</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>5</v>
@@ -2846,85 +2955,91 @@
       <c r="O48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P48" s="3">
+      <c r="P48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q48" s="3">
         <v>6720800</v>
       </c>
-      <c r="Q48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>1785100</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>5746800</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8485900</v>
+        <v>8897800</v>
       </c>
       <c r="E49" s="3">
-        <v>8301100</v>
+        <v>8829500</v>
       </c>
       <c r="F49" s="3">
-        <v>8191400</v>
+        <v>8637200</v>
       </c>
       <c r="G49" s="3">
-        <v>8078100</v>
+        <v>8523100</v>
       </c>
       <c r="H49" s="3">
-        <v>8017200</v>
+        <v>8405200</v>
       </c>
       <c r="I49" s="3">
-        <v>8017200</v>
+        <v>8341900</v>
       </c>
       <c r="J49" s="3">
+        <v>8341900</v>
+      </c>
+      <c r="K49" s="3">
         <v>7982700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7807900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7872200</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>8051300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8606300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8810600</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>9031000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9404800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9105600</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>8808500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8738300</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2982,8 +3097,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3041,28 +3159,31 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8181800</v>
+        <v>7795900</v>
       </c>
       <c r="E52" s="3">
-        <v>14559400</v>
+        <v>8513100</v>
       </c>
       <c r="F52" s="3">
-        <v>16918100</v>
+        <v>15148900</v>
       </c>
       <c r="G52" s="3">
-        <v>11000900</v>
+        <v>17603200</v>
       </c>
       <c r="H52" s="3">
-        <v>10750500</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>5</v>
+        <v>11446400</v>
+      </c>
+      <c r="I52" s="3">
+        <v>11185800</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>5</v>
@@ -3079,8 +3200,8 @@
       <c r="N52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
+      <c r="O52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="P52" s="3">
         <v>0</v>
@@ -3091,17 +3212,20 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-      <c r="S52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T52" s="3">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U52" s="3">
         <v>3719300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3159,67 +3283,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>858670400</v>
+        <v>863130300</v>
       </c>
       <c r="E54" s="3">
-        <v>955788400</v>
+        <v>893441800</v>
       </c>
       <c r="F54" s="3">
-        <v>961733100</v>
+        <v>994492500</v>
       </c>
       <c r="G54" s="3">
-        <v>936595000</v>
+        <v>1000677900</v>
       </c>
       <c r="H54" s="3">
-        <v>932533300</v>
+        <v>974521800</v>
       </c>
       <c r="I54" s="3">
-        <v>928104300</v>
+        <v>970295700</v>
       </c>
       <c r="J54" s="3">
+        <v>965687300</v>
+      </c>
+      <c r="K54" s="3">
         <v>925218400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>901638600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>945717900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>965625300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1051849800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1088365900</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>986073400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>957457700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>916938600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3241,8 +3371,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3264,8 +3395,9 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3323,8 +3455,11 @@
       <c r="U57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3382,8 +3517,11 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3432,17 +3570,20 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U59" s="3">
         <v>7039800</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3500,67 +3641,73 @@
       <c r="U60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>68309400</v>
+        <v>74175000</v>
       </c>
       <c r="E61" s="3">
-        <v>63783800</v>
+        <v>71075500</v>
       </c>
       <c r="F61" s="3">
-        <v>68981900</v>
+        <v>66366700</v>
       </c>
       <c r="G61" s="3">
-        <v>66810400</v>
+        <v>71775300</v>
       </c>
       <c r="H61" s="3">
-        <v>68873400</v>
+        <v>69515800</v>
       </c>
       <c r="I61" s="3">
-        <v>67415000</v>
+        <v>71662400</v>
       </c>
       <c r="J61" s="3">
+        <v>70144900</v>
+      </c>
+      <c r="K61" s="3">
         <v>67336300</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>60697900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>65973900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>72358400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>84759400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>78226100</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>75279800</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>81663200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>79910000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>69306000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>66392200</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3609,17 +3756,20 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-      <c r="S62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T62" s="3">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U62" s="3">
         <v>4786500</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3677,8 +3827,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3736,8 +3889,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3795,67 +3951,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>815158100</v>
+        <v>816343400</v>
       </c>
       <c r="E66" s="3">
-        <v>914117300</v>
+        <v>848167500</v>
       </c>
       <c r="F66" s="3">
-        <v>915681900</v>
+        <v>951134000</v>
       </c>
       <c r="G66" s="3">
-        <v>889806800</v>
+        <v>952761900</v>
       </c>
       <c r="H66" s="3">
-        <v>882691100</v>
+        <v>925839100</v>
       </c>
       <c r="I66" s="3">
-        <v>878166700</v>
+        <v>918435200</v>
       </c>
       <c r="J66" s="3">
+        <v>913727600</v>
+      </c>
+      <c r="K66" s="3">
         <v>872897000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>851642900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>893835900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>912940200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>995661200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>1029580600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>926684400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>938778600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>896037500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>856531000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3877,8 +4039,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3936,8 +4099,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3995,8 +4161,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4054,8 +4223,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4113,67 +4285,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>26892300</v>
+        <v>27114000</v>
       </c>
       <c r="E72" s="3">
-        <v>23572300</v>
+        <v>27981300</v>
       </c>
       <c r="F72" s="3">
-        <v>27965600</v>
+        <v>24526900</v>
       </c>
       <c r="G72" s="3">
-        <v>26309200</v>
+        <v>29098000</v>
       </c>
       <c r="H72" s="3">
-        <v>29298800</v>
+        <v>27374500</v>
       </c>
       <c r="I72" s="3">
-        <v>28281600</v>
+        <v>30485200</v>
       </c>
       <c r="J72" s="3">
+        <v>29426800</v>
+      </c>
+      <c r="K72" s="3">
         <v>28533200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>26792300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>27736600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>29219000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>31052800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>35865200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>33858800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33317300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>35242900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>34094500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>33274700</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4231,8 +4409,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4290,8 +4471,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4349,67 +4533,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>43512300</v>
+        <v>46786800</v>
       </c>
       <c r="E76" s="3">
-        <v>41671100</v>
+        <v>45274300</v>
       </c>
       <c r="F76" s="3">
-        <v>46051200</v>
+        <v>43358500</v>
       </c>
       <c r="G76" s="3">
-        <v>46788100</v>
+        <v>47916000</v>
       </c>
       <c r="H76" s="3">
-        <v>49842100</v>
+        <v>48682800</v>
       </c>
       <c r="I76" s="3">
-        <v>49937500</v>
+        <v>51860500</v>
       </c>
       <c r="J76" s="3">
+        <v>51959700</v>
+      </c>
+      <c r="K76" s="3">
         <v>52321400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>49995800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51882000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>52685000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>56188600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>58785400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>59389000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>62448800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63470200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>61420100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>60407700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4467,131 +4657,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1504900</v>
+        <v>1587000</v>
       </c>
       <c r="E81" s="3">
-        <v>223000</v>
+        <v>1565900</v>
       </c>
       <c r="F81" s="3">
-        <v>1252100</v>
+        <v>232000</v>
       </c>
       <c r="G81" s="3">
-        <v>1002900</v>
+        <v>1302800</v>
       </c>
       <c r="H81" s="3">
-        <v>517500</v>
+        <v>1043500</v>
       </c>
       <c r="I81" s="3">
-        <v>803800</v>
+        <v>538500</v>
       </c>
       <c r="J81" s="3">
+        <v>836300</v>
+      </c>
+      <c r="K81" s="3">
         <v>1457200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>726200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-890700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>74400</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1294500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>383400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1922900</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-445800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1827700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>941300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>541500</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4613,8 +4812,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4672,8 +4872,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4731,8 +4934,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4790,8 +4996,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4849,8 +5058,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4908,8 +5120,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4967,40 +5182,43 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>5</v>
@@ -5008,8 +5226,8 @@
       <c r="O89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P89" s="3">
-        <v>0</v>
+      <c r="P89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q89" s="3">
         <v>0</v>
@@ -5026,8 +5244,11 @@
       <c r="U89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5049,8 +5270,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5108,8 +5330,11 @@
       <c r="U91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5167,8 +5392,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5226,40 +5454,43 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>5</v>
@@ -5267,8 +5498,8 @@
       <c r="O94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
+      <c r="P94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q94" s="3">
         <v>0</v>
@@ -5285,8 +5516,11 @@
       <c r="U94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5308,8 +5542,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5367,8 +5602,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5426,8 +5664,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5485,8 +5726,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5544,40 +5788,43 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>5</v>
@@ -5585,8 +5832,8 @@
       <c r="O100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
+      <c r="P100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q100" s="3">
         <v>0</v>
@@ -5603,40 +5850,43 @@
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>5</v>
@@ -5644,8 +5894,8 @@
       <c r="O101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P101" s="3">
-        <v>0</v>
+      <c r="P101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q101" s="3">
         <v>0</v>
@@ -5662,40 +5912,43 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
         <v>5</v>
@@ -5703,8 +5956,8 @@
       <c r="O102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P102" s="3">
-        <v>0</v>
+      <c r="P102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
@@ -5719,6 +5972,9 @@
         <v>0</v>
       </c>
       <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,150 +666,156 @@
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="14" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>5584800</v>
+        <v>6312400</v>
       </c>
       <c r="E8" s="3">
-        <v>5020300</v>
+        <v>5704100</v>
       </c>
       <c r="F8" s="3">
-        <v>4145500</v>
+        <v>5127500</v>
       </c>
       <c r="G8" s="3">
-        <v>3476700</v>
+        <v>4234000</v>
       </c>
       <c r="H8" s="3">
-        <v>3015100</v>
+        <v>3551000</v>
       </c>
       <c r="I8" s="3">
-        <v>2909700</v>
+        <v>3079500</v>
       </c>
       <c r="J8" s="3">
+        <v>2971800</v>
+      </c>
+      <c r="K8" s="3">
         <v>2852600</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2776200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2672900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>11590100</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>3064400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3268100</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3571300</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3956400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>4133500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>3853200</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3657400</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3731200</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -870,8 +876,11 @@
       <c r="V9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -932,8 +941,11 @@
       <c r="V10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -956,8 +968,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1018,8 +1031,11 @@
       <c r="V12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1080,8 +1096,11 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1142,70 +1161,76 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-263000</v>
+        <v>-325700</v>
       </c>
       <c r="E15" s="3">
-        <v>-273000</v>
+        <v>-268700</v>
       </c>
       <c r="F15" s="3">
-        <v>-248200</v>
+        <v>-278800</v>
       </c>
       <c r="G15" s="3">
-        <v>-268000</v>
+        <v>-253500</v>
       </c>
       <c r="H15" s="3">
-        <v>-244400</v>
+        <v>-273700</v>
       </c>
       <c r="I15" s="3">
-        <v>-384600</v>
+        <v>-249700</v>
       </c>
       <c r="J15" s="3">
+        <v>-392900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-246900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-249200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-240100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-1080000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-236700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-323300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-256900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-440500</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-328300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-517700</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-324900</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-247000</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1225,132 +1250,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2070900</v>
+        <v>2927500</v>
       </c>
       <c r="E17" s="3">
-        <v>1640300</v>
+        <v>2115100</v>
       </c>
       <c r="F17" s="3">
-        <v>1176300</v>
+        <v>1675400</v>
       </c>
       <c r="G17" s="3">
-        <v>616700</v>
+        <v>1201400</v>
       </c>
       <c r="H17" s="3">
-        <v>455400</v>
+        <v>629800</v>
       </c>
       <c r="I17" s="3">
-        <v>76900</v>
+        <v>465100</v>
       </c>
       <c r="J17" s="3">
+        <v>78600</v>
+      </c>
+      <c r="K17" s="3">
         <v>259300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>-163400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>374800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>6450400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1024700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>3458400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>2053900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1396500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1596200</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1472100</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1065100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>879600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3513900</v>
+        <v>3385000</v>
       </c>
       <c r="E18" s="3">
-        <v>3379900</v>
+        <v>3589000</v>
       </c>
       <c r="F18" s="3">
-        <v>2969200</v>
+        <v>3452100</v>
       </c>
       <c r="G18" s="3">
-        <v>2860000</v>
+        <v>3032600</v>
       </c>
       <c r="H18" s="3">
+        <v>2921100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2614400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2893200</v>
+      </c>
+      <c r="K18" s="3">
+        <v>2593300</v>
+      </c>
+      <c r="L18" s="3">
+        <v>2939500</v>
+      </c>
+      <c r="M18" s="3">
+        <v>2298100</v>
+      </c>
+      <c r="N18" s="3">
+        <v>5139700</v>
+      </c>
+      <c r="O18" s="3">
+        <v>2039700</v>
+      </c>
+      <c r="P18" s="3">
+        <v>-190300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1517500</v>
+      </c>
+      <c r="R18" s="3">
         <v>2559800</v>
       </c>
-      <c r="I18" s="3">
-        <v>2832700</v>
-      </c>
-      <c r="J18" s="3">
-        <v>2593300</v>
-      </c>
-      <c r="K18" s="3">
-        <v>2939500</v>
-      </c>
-      <c r="L18" s="3">
-        <v>2298100</v>
-      </c>
-      <c r="M18" s="3">
-        <v>5139700</v>
-      </c>
-      <c r="N18" s="3">
-        <v>2039700</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-190300</v>
-      </c>
-      <c r="P18" s="3">
-        <v>1517500</v>
-      </c>
-      <c r="Q18" s="3">
-        <v>2559800</v>
-      </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2537300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2381100</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2592200</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2851600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1373,70 +1405,74 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1258200</v>
+        <v>-1140600</v>
       </c>
       <c r="E20" s="3">
-        <v>-1610600</v>
+        <v>-1285000</v>
       </c>
       <c r="F20" s="3">
-        <v>-1621700</v>
+        <v>-1645000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1153900</v>
+        <v>-1656400</v>
       </c>
       <c r="H20" s="3">
-        <v>-1041000</v>
+        <v>-1178600</v>
       </c>
       <c r="I20" s="3">
-        <v>-2044800</v>
+        <v>-1063300</v>
       </c>
       <c r="J20" s="3">
+        <v>-2088500</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1382300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1222300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1261500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-5708700</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-1606600</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1490000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-826600</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-451400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-72800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1497,8 +1533,11 @@
       <c r="V21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1559,132 +1598,141 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2255800</v>
+        <v>2244400</v>
       </c>
       <c r="E23" s="3">
-        <v>1769400</v>
+        <v>2304000</v>
       </c>
       <c r="F23" s="3">
-        <v>1347500</v>
+        <v>1807200</v>
       </c>
       <c r="G23" s="3">
-        <v>1706100</v>
+        <v>1376300</v>
       </c>
       <c r="H23" s="3">
-        <v>1518700</v>
+        <v>1742500</v>
       </c>
       <c r="I23" s="3">
-        <v>787900</v>
+        <v>1551200</v>
       </c>
       <c r="J23" s="3">
+        <v>804700</v>
+      </c>
+      <c r="K23" s="3">
         <v>1211000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1717200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1036600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-569000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>433100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1680300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>690800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>2108400</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-11300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>2308300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1348700</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>755500</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>635300</v>
+        <v>695700</v>
       </c>
       <c r="E24" s="3">
-        <v>57100</v>
+        <v>648900</v>
       </c>
       <c r="F24" s="3">
-        <v>538500</v>
+        <v>58300</v>
       </c>
       <c r="G24" s="3">
-        <v>507500</v>
+        <v>550000</v>
       </c>
       <c r="H24" s="3">
-        <v>478900</v>
+        <v>518300</v>
       </c>
       <c r="I24" s="3">
-        <v>290300</v>
+        <v>489200</v>
       </c>
       <c r="J24" s="3">
+        <v>296500</v>
+      </c>
+      <c r="K24" s="3">
         <v>409500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>237300</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>272900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>87500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>252500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-516200</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>250200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>50500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>284400</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-30200</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>287600</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>155900</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1745,132 +1793,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1620500</v>
+        <v>1548600</v>
       </c>
       <c r="E26" s="3">
-        <v>1712300</v>
+        <v>1655100</v>
       </c>
       <c r="F26" s="3">
-        <v>809000</v>
+        <v>1748900</v>
       </c>
       <c r="G26" s="3">
-        <v>1198600</v>
+        <v>826300</v>
       </c>
       <c r="H26" s="3">
-        <v>1039800</v>
+        <v>1224200</v>
       </c>
       <c r="I26" s="3">
-        <v>497600</v>
+        <v>1062000</v>
       </c>
       <c r="J26" s="3">
+        <v>508200</v>
+      </c>
+      <c r="K26" s="3">
         <v>801600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>1479900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>763700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-656500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>180500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1164100</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>440600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>2058000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-295800</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>2338500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1061100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>599600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1543600</v>
+        <v>1473900</v>
       </c>
       <c r="E27" s="3">
-        <v>1635400</v>
+        <v>1576500</v>
       </c>
       <c r="F27" s="3">
-        <v>723400</v>
+        <v>1670300</v>
       </c>
       <c r="G27" s="3">
-        <v>1119200</v>
+        <v>738800</v>
       </c>
       <c r="H27" s="3">
-        <v>965300</v>
+        <v>1143100</v>
       </c>
       <c r="I27" s="3">
-        <v>418100</v>
+        <v>986000</v>
       </c>
       <c r="J27" s="3">
+        <v>427100</v>
+      </c>
+      <c r="K27" s="3">
         <v>714700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>1318900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>654800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-1033900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>74400</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1294500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>383400</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1922900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-445800</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>1827700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>941300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>541500</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1931,49 +1988,52 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>43400</v>
+        <v>-181200</v>
       </c>
       <c r="E29" s="3">
-        <v>-69500</v>
+        <v>44400</v>
       </c>
       <c r="F29" s="3">
-        <v>-491400</v>
+        <v>-71000</v>
       </c>
       <c r="G29" s="3">
-        <v>183600</v>
+        <v>-501900</v>
       </c>
       <c r="H29" s="3">
-        <v>78200</v>
+        <v>187600</v>
       </c>
       <c r="I29" s="3">
-        <v>120400</v>
+        <v>79800</v>
       </c>
       <c r="J29" s="3">
+        <v>122900</v>
+      </c>
+      <c r="K29" s="3">
         <v>121600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>138300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>71400</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>143100</v>
       </c>
-      <c r="N29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="O29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P29" s="3">
-        <v>0</v>
+      <c r="P29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -1993,8 +2053,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2055,8 +2118,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2117,132 +2183,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1258200</v>
+        <v>1140600</v>
       </c>
       <c r="E32" s="3">
-        <v>1610600</v>
+        <v>1285000</v>
       </c>
       <c r="F32" s="3">
-        <v>1621700</v>
+        <v>1645000</v>
       </c>
       <c r="G32" s="3">
-        <v>1153900</v>
+        <v>1656400</v>
       </c>
       <c r="H32" s="3">
-        <v>1041000</v>
+        <v>1178600</v>
       </c>
       <c r="I32" s="3">
-        <v>2044800</v>
+        <v>1063300</v>
       </c>
       <c r="J32" s="3">
+        <v>2088500</v>
+      </c>
+      <c r="K32" s="3">
         <v>1382300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1222300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1261500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>5708700</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>1606600</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1490000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>826600</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>451400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2548600</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>72800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>1243500</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2096100</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1587000</v>
+        <v>1292600</v>
       </c>
       <c r="E33" s="3">
-        <v>1565900</v>
+        <v>1620900</v>
       </c>
       <c r="F33" s="3">
-        <v>232000</v>
+        <v>1599300</v>
       </c>
       <c r="G33" s="3">
-        <v>1302800</v>
+        <v>237000</v>
       </c>
       <c r="H33" s="3">
-        <v>1043500</v>
+        <v>1330700</v>
       </c>
       <c r="I33" s="3">
-        <v>538500</v>
+        <v>1065800</v>
       </c>
       <c r="J33" s="3">
+        <v>550000</v>
+      </c>
+      <c r="K33" s="3">
         <v>836300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>1457200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>726200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-890700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>74400</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1294500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>383400</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1922900</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-445800</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>1827700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>941300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>541500</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2303,137 +2378,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1587000</v>
+        <v>1292600</v>
       </c>
       <c r="E35" s="3">
-        <v>1565900</v>
+        <v>1620900</v>
       </c>
       <c r="F35" s="3">
-        <v>232000</v>
+        <v>1599300</v>
       </c>
       <c r="G35" s="3">
-        <v>1302800</v>
+        <v>237000</v>
       </c>
       <c r="H35" s="3">
-        <v>1043500</v>
+        <v>1330700</v>
       </c>
       <c r="I35" s="3">
-        <v>538500</v>
+        <v>1065800</v>
       </c>
       <c r="J35" s="3">
+        <v>550000</v>
+      </c>
+      <c r="K35" s="3">
         <v>836300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>1457200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>726200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-890700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>74400</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1294500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>383400</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1922900</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-445800</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>1827700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>941300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>541500</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2456,8 +2540,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2480,132 +2565,139 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>162907100</v>
+        <v>165205200</v>
       </c>
       <c r="E41" s="3">
-        <v>188565600</v>
+        <v>166386400</v>
       </c>
       <c r="F41" s="3">
-        <v>204508700</v>
+        <v>192592800</v>
       </c>
       <c r="G41" s="3">
-        <v>235991500</v>
+        <v>208876400</v>
       </c>
       <c r="H41" s="3">
-        <v>218189700</v>
+        <v>241031600</v>
       </c>
       <c r="I41" s="3">
-        <v>230092700</v>
+        <v>222849600</v>
       </c>
       <c r="J41" s="3">
+        <v>235006800</v>
+      </c>
+      <c r="K41" s="3">
         <v>216025800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>190428300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>172867500</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>155485100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>144255600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>147635500</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>120319500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>120759500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>136829800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>135005200</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>128935400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>134514500</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>161151400</v>
+        <v>165719800</v>
       </c>
       <c r="E42" s="3">
-        <v>180067400</v>
+        <v>164593100</v>
       </c>
       <c r="F42" s="3">
-        <v>246714500</v>
+        <v>183913100</v>
       </c>
       <c r="G42" s="3">
-        <v>217073000</v>
+        <v>251983600</v>
       </c>
       <c r="H42" s="3">
-        <v>204686100</v>
+        <v>221709100</v>
       </c>
       <c r="I42" s="3">
-        <v>205100500</v>
+        <v>209057600</v>
       </c>
       <c r="J42" s="3">
+        <v>209480900</v>
+      </c>
+      <c r="K42" s="3">
         <v>211093600</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>214354900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>220805300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>278588300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>286836300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>333485700</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>386787000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>309272100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>378350900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>317149200</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>297141900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>275342400</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2666,8 +2758,11 @@
       <c r="V43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2728,8 +2823,11 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2790,8 +2888,11 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2852,8 +2953,11 @@
       <c r="V46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2914,19 +3018,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="3">
-        <v>5261000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>5</v>
+      <c r="E48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>5373400</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>5</v>
@@ -2934,11 +3041,11 @@
       <c r="H48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I48" s="3">
-        <v>5248600</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>5</v>
+      <c r="I48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J48" s="3">
+        <v>5360700</v>
       </c>
       <c r="K48" s="3" t="s">
         <v>5</v>
@@ -2958,88 +3065,94 @@
       <c r="P48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="Q48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="R48" s="3">
         <v>6720800</v>
       </c>
-      <c r="R48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="S48" s="3">
+      <c r="S48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="T48" s="3">
         <v>1785100</v>
       </c>
-      <c r="T48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U48" s="3">
+      <c r="U48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V48" s="3">
         <v>5746800</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>8897800</v>
+        <v>9445200</v>
       </c>
       <c r="E49" s="3">
-        <v>8829500</v>
+        <v>9087800</v>
       </c>
       <c r="F49" s="3">
-        <v>8637200</v>
+        <v>9018100</v>
       </c>
       <c r="G49" s="3">
-        <v>8523100</v>
+        <v>8821700</v>
       </c>
       <c r="H49" s="3">
-        <v>8405200</v>
+        <v>8705100</v>
       </c>
       <c r="I49" s="3">
+        <v>8584700</v>
+      </c>
+      <c r="J49" s="3">
+        <v>8520100</v>
+      </c>
+      <c r="K49" s="3">
         <v>8341900</v>
       </c>
-      <c r="J49" s="3">
-        <v>8341900</v>
-      </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>7982700</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7807900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7872200</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>8051300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8606300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8810600</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>9031000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9404800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9105600</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>8808500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8738300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3100,8 +3213,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3162,31 +3278,34 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>7795900</v>
+        <v>5797900</v>
       </c>
       <c r="E52" s="3">
-        <v>8513100</v>
+        <v>7962400</v>
       </c>
       <c r="F52" s="3">
-        <v>15148900</v>
+        <v>8694900</v>
       </c>
       <c r="G52" s="3">
-        <v>17603200</v>
+        <v>15472500</v>
       </c>
       <c r="H52" s="3">
-        <v>11446400</v>
+        <v>17979200</v>
       </c>
       <c r="I52" s="3">
-        <v>11185800</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>5</v>
+        <v>11690800</v>
+      </c>
+      <c r="J52" s="3">
+        <v>11424700</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>5</v>
@@ -3203,8 +3322,8 @@
       <c r="O52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
+      <c r="P52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="Q52" s="3">
         <v>0</v>
@@ -3215,17 +3334,20 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U52" s="3">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V52" s="3">
         <v>3719300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3286,70 +3408,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>863130300</v>
+        <v>890406200</v>
       </c>
       <c r="E54" s="3">
-        <v>893441800</v>
+        <v>881564300</v>
       </c>
       <c r="F54" s="3">
-        <v>994492500</v>
+        <v>912523200</v>
       </c>
       <c r="G54" s="3">
-        <v>1000677900</v>
+        <v>1015732100</v>
       </c>
       <c r="H54" s="3">
-        <v>974521800</v>
+        <v>1022049600</v>
       </c>
       <c r="I54" s="3">
-        <v>970295700</v>
+        <v>995334900</v>
       </c>
       <c r="J54" s="3">
+        <v>991018500</v>
+      </c>
+      <c r="K54" s="3">
         <v>965687300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>925218400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>901638600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>945717900</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>965625300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1051849800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1088365900</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>986073400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>957457700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>916938600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3372,8 +3500,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3396,8 +3525,9 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3458,8 +3588,11 @@
       <c r="V57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3520,8 +3653,11 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3573,17 +3709,20 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U59" s="3">
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V59" s="3">
         <v>7039800</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3644,70 +3783,76 @@
       <c r="V60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>74175000</v>
+        <v>80384800</v>
       </c>
       <c r="E61" s="3">
-        <v>71075500</v>
+        <v>75759200</v>
       </c>
       <c r="F61" s="3">
-        <v>66366700</v>
+        <v>72593500</v>
       </c>
       <c r="G61" s="3">
-        <v>71775300</v>
+        <v>67784100</v>
       </c>
       <c r="H61" s="3">
-        <v>69515800</v>
+        <v>73308200</v>
       </c>
       <c r="I61" s="3">
-        <v>71662400</v>
+        <v>71000500</v>
       </c>
       <c r="J61" s="3">
+        <v>73192900</v>
+      </c>
+      <c r="K61" s="3">
         <v>70144900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>67336300</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>60697900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>65973900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>72358400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>84759400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>78226100</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>75279800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>81663200</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>79910000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>69306000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>66392200</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3759,17 +3904,20 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-      <c r="T62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="U62" s="3">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="V62" s="3">
         <v>4786500</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3830,8 +3978,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3892,8 +4043,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3954,70 +4108,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>816343400</v>
+        <v>846357400</v>
       </c>
       <c r="E66" s="3">
-        <v>848167500</v>
+        <v>833778200</v>
       </c>
       <c r="F66" s="3">
-        <v>951134000</v>
+        <v>866281900</v>
       </c>
       <c r="G66" s="3">
-        <v>952761900</v>
+        <v>971447500</v>
       </c>
       <c r="H66" s="3">
-        <v>925839100</v>
+        <v>973110200</v>
       </c>
       <c r="I66" s="3">
-        <v>918435200</v>
+        <v>945612400</v>
       </c>
       <c r="J66" s="3">
+        <v>938050400</v>
+      </c>
+      <c r="K66" s="3">
         <v>913727600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>872897000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>851642900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>893835900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>912940200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>995661200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>1029580600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>926684400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>938778600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>896037500</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>856531000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4040,8 +4200,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4102,8 +4263,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4164,8 +4328,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4226,8 +4393,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4288,70 +4458,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>27114000</v>
+        <v>28888100</v>
       </c>
       <c r="E72" s="3">
-        <v>27981300</v>
+        <v>27693000</v>
       </c>
       <c r="F72" s="3">
-        <v>24526900</v>
+        <v>28578900</v>
       </c>
       <c r="G72" s="3">
-        <v>29098000</v>
+        <v>25050700</v>
       </c>
       <c r="H72" s="3">
-        <v>27374500</v>
+        <v>29719500</v>
       </c>
       <c r="I72" s="3">
-        <v>30485200</v>
+        <v>27959200</v>
       </c>
       <c r="J72" s="3">
+        <v>31136300</v>
+      </c>
+      <c r="K72" s="3">
         <v>29426800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>28533200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>26792300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>27736600</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>29219000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>31052800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>35865200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>33858800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33317300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>35242900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>34094500</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>33274700</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4412,8 +4588,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4474,8 +4653,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4536,70 +4718,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>46786800</v>
+        <v>44048800</v>
       </c>
       <c r="E76" s="3">
-        <v>45274300</v>
+        <v>47786100</v>
       </c>
       <c r="F76" s="3">
-        <v>43358500</v>
+        <v>46241200</v>
       </c>
       <c r="G76" s="3">
-        <v>47916000</v>
+        <v>44284500</v>
       </c>
       <c r="H76" s="3">
-        <v>48682800</v>
+        <v>48939300</v>
       </c>
       <c r="I76" s="3">
-        <v>51860500</v>
+        <v>49722500</v>
       </c>
       <c r="J76" s="3">
+        <v>52968100</v>
+      </c>
+      <c r="K76" s="3">
         <v>51959700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>52321400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>49995800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51882000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>52685000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>56188600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>58785400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>59389000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>62448800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>63470200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>61420100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>60407700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4660,137 +4848,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1587000</v>
+        <v>1292600</v>
       </c>
       <c r="E81" s="3">
-        <v>1565900</v>
+        <v>1620900</v>
       </c>
       <c r="F81" s="3">
-        <v>232000</v>
+        <v>1599300</v>
       </c>
       <c r="G81" s="3">
-        <v>1302800</v>
+        <v>237000</v>
       </c>
       <c r="H81" s="3">
-        <v>1043500</v>
+        <v>1330700</v>
       </c>
       <c r="I81" s="3">
-        <v>538500</v>
+        <v>1065800</v>
       </c>
       <c r="J81" s="3">
+        <v>550000</v>
+      </c>
+      <c r="K81" s="3">
         <v>836300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>1457200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>726200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-890700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>74400</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1294500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>383400</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1922900</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-445800</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>1827700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>941300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>541500</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4813,8 +5010,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4875,8 +5073,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4937,8 +5138,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4999,8 +5203,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5061,8 +5268,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5123,8 +5333,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5185,43 +5398,46 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>5</v>
@@ -5229,8 +5445,8 @@
       <c r="P89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
+      <c r="Q89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R89" s="3">
         <v>0</v>
@@ -5247,8 +5463,11 @@
       <c r="V89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5271,8 +5490,9 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5333,8 +5553,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5395,8 +5618,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5457,43 +5683,46 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>5</v>
@@ -5501,8 +5730,8 @@
       <c r="P94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
+      <c r="Q94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R94" s="3">
         <v>0</v>
@@ -5519,8 +5748,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5543,8 +5775,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5605,8 +5838,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5667,8 +5903,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5729,8 +5968,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5791,43 +6033,46 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>5</v>
@@ -5835,8 +6080,8 @@
       <c r="P100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
+      <c r="Q100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -5853,43 +6098,46 @@
       <c r="V100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K101" s="3">
-        <v>0</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
+      </c>
+      <c r="K101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L101" s="3">
+        <v>0</v>
+      </c>
+      <c r="M101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>5</v>
@@ -5897,8 +6145,8 @@
       <c r="P101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q101" s="3">
-        <v>0</v>
+      <c r="Q101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R101" s="3">
         <v>0</v>
@@ -5915,43 +6163,46 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
         <v>5</v>
@@ -5959,8 +6210,8 @@
       <c r="P102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
+      <c r="Q102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R102" s="3">
         <v>0</v>
@@ -5975,6 +6226,9 @@
         <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>0</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/NWG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="92">
   <si>
     <t>NWG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,157 +665,163 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="15" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>6312400</v>
+        <v>6933700</v>
       </c>
       <c r="E8" s="3">
-        <v>5704100</v>
+        <v>6179400</v>
       </c>
       <c r="F8" s="3">
-        <v>5127500</v>
+        <v>5583900</v>
       </c>
       <c r="G8" s="3">
-        <v>4234000</v>
+        <v>5019500</v>
       </c>
       <c r="H8" s="3">
-        <v>3551000</v>
+        <v>4144800</v>
       </c>
       <c r="I8" s="3">
-        <v>3079500</v>
+        <v>3476200</v>
       </c>
       <c r="J8" s="3">
+        <v>3014700</v>
+      </c>
+      <c r="K8" s="3">
         <v>2971800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>2852600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>2776200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>2672900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>11590100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>3064400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>3268100</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>3571300</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>3956400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>4133500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>3853200</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>3657400</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>3731200</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>3671800</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -879,8 +885,11 @@
       <c r="W9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -944,8 +953,11 @@
       <c r="W10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -969,8 +981,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1034,8 +1047,11 @@
       <c r="W12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1099,8 +1115,11 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1164,73 +1183,79 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-325700</v>
+        <v>-265500</v>
       </c>
       <c r="E15" s="3">
-        <v>-268700</v>
+        <v>-318800</v>
       </c>
       <c r="F15" s="3">
-        <v>-278800</v>
+        <v>-263000</v>
       </c>
       <c r="G15" s="3">
-        <v>-253500</v>
+        <v>-272900</v>
       </c>
       <c r="H15" s="3">
-        <v>-273700</v>
+        <v>-248100</v>
       </c>
       <c r="I15" s="3">
-        <v>-249700</v>
+        <v>-268000</v>
       </c>
       <c r="J15" s="3">
+        <v>-244400</v>
+      </c>
+      <c r="K15" s="3">
         <v>-392900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>-246900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>-249200</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>-240100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>-1080000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>-236700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>-323300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>-256900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>-440500</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>-328300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>-517700</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>-324900</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>-247000</v>
       </c>
-      <c r="W15" s="3">
+      <c r="X15" s="3">
         <v>-272100</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1251,138 +1276,145 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>2927500</v>
+        <v>3886800</v>
       </c>
       <c r="E17" s="3">
-        <v>2115100</v>
+        <v>2865800</v>
       </c>
       <c r="F17" s="3">
-        <v>1675400</v>
+        <v>2070600</v>
       </c>
       <c r="G17" s="3">
-        <v>1201400</v>
+        <v>1640100</v>
       </c>
       <c r="H17" s="3">
-        <v>629800</v>
+        <v>1176100</v>
       </c>
       <c r="I17" s="3">
-        <v>465100</v>
+        <v>616600</v>
       </c>
       <c r="J17" s="3">
+        <v>455300</v>
+      </c>
+      <c r="K17" s="3">
         <v>78600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>259300</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>-163400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>374800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>6450400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1024700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>3458400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>2053900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1396500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1596200</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1472100</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1065100</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>879600</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1143800</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>3385000</v>
+        <v>3046900</v>
       </c>
       <c r="E18" s="3">
-        <v>3589000</v>
+        <v>3313600</v>
       </c>
       <c r="F18" s="3">
-        <v>3452100</v>
+        <v>3513400</v>
       </c>
       <c r="G18" s="3">
-        <v>3032600</v>
+        <v>3379400</v>
       </c>
       <c r="H18" s="3">
-        <v>2921100</v>
+        <v>2968800</v>
       </c>
       <c r="I18" s="3">
-        <v>2614400</v>
+        <v>2859600</v>
       </c>
       <c r="J18" s="3">
+        <v>2559400</v>
+      </c>
+      <c r="K18" s="3">
         <v>2893200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>2593300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>2939500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>2298100</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>5139700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>2039700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-190300</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>1517500</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>2559800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>2537300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>2381100</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>2592200</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>2851600</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>2528000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1406,73 +1438,77 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1140600</v>
+        <v>-1394400</v>
       </c>
       <c r="E20" s="3">
-        <v>-1285000</v>
+        <v>-1116500</v>
       </c>
       <c r="F20" s="3">
-        <v>-1645000</v>
+        <v>-1258000</v>
       </c>
       <c r="G20" s="3">
-        <v>-1656400</v>
+        <v>-1610300</v>
       </c>
       <c r="H20" s="3">
-        <v>-1178600</v>
+        <v>-1621500</v>
       </c>
       <c r="I20" s="3">
-        <v>-1063300</v>
+        <v>-1153800</v>
       </c>
       <c r="J20" s="3">
+        <v>-1040900</v>
+      </c>
+      <c r="K20" s="3">
         <v>-2088500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-1382300</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-1222300</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-1261500</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-5708700</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-1606600</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-1490000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-826600</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-451400</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2548600</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-72800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-1243500</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2096100</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-1258700</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1536,8 +1572,11 @@
       <c r="W21" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X21" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1601,138 +1640,147 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>2244400</v>
+        <v>1652500</v>
       </c>
       <c r="E23" s="3">
-        <v>2304000</v>
+        <v>2197100</v>
       </c>
       <c r="F23" s="3">
-        <v>1807200</v>
+        <v>2255400</v>
       </c>
       <c r="G23" s="3">
-        <v>1376300</v>
+        <v>1769100</v>
       </c>
       <c r="H23" s="3">
-        <v>1742500</v>
+        <v>1347300</v>
       </c>
       <c r="I23" s="3">
-        <v>1551200</v>
+        <v>1705800</v>
       </c>
       <c r="J23" s="3">
+        <v>1518500</v>
+      </c>
+      <c r="K23" s="3">
         <v>804700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>1211000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>1717200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1036600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-569000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>433100</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1680300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>690800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>2108400</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-11300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>2308300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>1348700</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>755500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1269300</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>695700</v>
+        <v>468900</v>
       </c>
       <c r="E24" s="3">
-        <v>648900</v>
+        <v>681100</v>
       </c>
       <c r="F24" s="3">
-        <v>58300</v>
+        <v>635200</v>
       </c>
       <c r="G24" s="3">
-        <v>550000</v>
+        <v>57100</v>
       </c>
       <c r="H24" s="3">
-        <v>518300</v>
+        <v>538400</v>
       </c>
       <c r="I24" s="3">
-        <v>489200</v>
+        <v>507400</v>
       </c>
       <c r="J24" s="3">
+        <v>478900</v>
+      </c>
+      <c r="K24" s="3">
         <v>296500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>409500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>237300</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>272900</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>87500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>252500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-516200</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>250200</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>50500</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>284400</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-30200</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>287600</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>155900</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>503200</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1796,138 +1844,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>1548600</v>
+        <v>1183500</v>
       </c>
       <c r="E26" s="3">
-        <v>1655100</v>
+        <v>1516000</v>
       </c>
       <c r="F26" s="3">
-        <v>1748900</v>
+        <v>1620200</v>
       </c>
       <c r="G26" s="3">
-        <v>826300</v>
+        <v>1712000</v>
       </c>
       <c r="H26" s="3">
-        <v>1224200</v>
+        <v>808900</v>
       </c>
       <c r="I26" s="3">
-        <v>1062000</v>
+        <v>1198400</v>
       </c>
       <c r="J26" s="3">
+        <v>1039600</v>
+      </c>
+      <c r="K26" s="3">
         <v>508200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>801600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>1479900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>763700</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-656500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>180500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1164100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>440600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>2058000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-295800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>2338500</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>1061100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>599600</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>766100</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>1473900</v>
+        <v>1111600</v>
       </c>
       <c r="E27" s="3">
-        <v>1576500</v>
+        <v>1442800</v>
       </c>
       <c r="F27" s="3">
-        <v>1670300</v>
+        <v>1543300</v>
       </c>
       <c r="G27" s="3">
-        <v>738800</v>
+        <v>1635100</v>
       </c>
       <c r="H27" s="3">
-        <v>1143100</v>
+        <v>723300</v>
       </c>
       <c r="I27" s="3">
-        <v>986000</v>
+        <v>1119000</v>
       </c>
       <c r="J27" s="3">
+        <v>965200</v>
+      </c>
+      <c r="K27" s="3">
         <v>427100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>714700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>1318900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>654800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1033900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>74400</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1294500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>383400</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>1922900</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-445800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1827700</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>941300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>541500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1991,52 +2048,55 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>-181200</v>
+        <v>-37200</v>
       </c>
       <c r="E29" s="3">
-        <v>44400</v>
+        <v>-177400</v>
       </c>
       <c r="F29" s="3">
-        <v>-71000</v>
+        <v>43400</v>
       </c>
       <c r="G29" s="3">
-        <v>-501900</v>
+        <v>-69500</v>
       </c>
       <c r="H29" s="3">
-        <v>187600</v>
+        <v>-491300</v>
       </c>
       <c r="I29" s="3">
-        <v>79800</v>
+        <v>183600</v>
       </c>
       <c r="J29" s="3">
+        <v>78200</v>
+      </c>
+      <c r="K29" s="3">
         <v>122900</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>121600</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>138300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>71400</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>143100</v>
       </c>
-      <c r="O29" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="P29" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
@@ -2056,8 +2116,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2121,8 +2184,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2186,138 +2252,147 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1140600</v>
+        <v>1394400</v>
       </c>
       <c r="E32" s="3">
-        <v>1285000</v>
+        <v>1116500</v>
       </c>
       <c r="F32" s="3">
-        <v>1645000</v>
+        <v>1258000</v>
       </c>
       <c r="G32" s="3">
-        <v>1656400</v>
+        <v>1610300</v>
       </c>
       <c r="H32" s="3">
-        <v>1178600</v>
+        <v>1621500</v>
       </c>
       <c r="I32" s="3">
-        <v>1063300</v>
+        <v>1153800</v>
       </c>
       <c r="J32" s="3">
+        <v>1040900</v>
+      </c>
+      <c r="K32" s="3">
         <v>2088500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>1382300</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>1222300</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>1261500</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>5708700</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>1606600</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>1490000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>826600</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>451400</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2548600</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>72800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>1243500</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2096100</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>1258700</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>1292600</v>
+        <v>1074400</v>
       </c>
       <c r="E33" s="3">
-        <v>1620900</v>
+        <v>1265400</v>
       </c>
       <c r="F33" s="3">
-        <v>1599300</v>
+        <v>1586700</v>
       </c>
       <c r="G33" s="3">
-        <v>237000</v>
+        <v>1565600</v>
       </c>
       <c r="H33" s="3">
-        <v>1330700</v>
+        <v>232000</v>
       </c>
       <c r="I33" s="3">
-        <v>1065800</v>
+        <v>1302600</v>
       </c>
       <c r="J33" s="3">
+        <v>1043300</v>
+      </c>
+      <c r="K33" s="3">
         <v>550000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>836300</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>1457200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>726200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-890700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>74400</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1294500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>383400</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>1922900</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-445800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1827700</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>941300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>541500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2381,143 +2456,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>1292600</v>
+        <v>1074400</v>
       </c>
       <c r="E35" s="3">
-        <v>1620900</v>
+        <v>1265400</v>
       </c>
       <c r="F35" s="3">
-        <v>1599300</v>
+        <v>1586700</v>
       </c>
       <c r="G35" s="3">
-        <v>237000</v>
+        <v>1565600</v>
       </c>
       <c r="H35" s="3">
-        <v>1330700</v>
+        <v>232000</v>
       </c>
       <c r="I35" s="3">
-        <v>1065800</v>
+        <v>1302600</v>
       </c>
       <c r="J35" s="3">
+        <v>1043300</v>
+      </c>
+      <c r="K35" s="3">
         <v>550000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>836300</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>1457200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>726200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-890700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>74400</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1294500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>383400</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>1922900</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-445800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1827700</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>941300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>541500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2541,8 +2625,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2566,138 +2651,145 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>165205200</v>
+        <v>158851400</v>
       </c>
       <c r="E41" s="3">
-        <v>166386400</v>
+        <v>161724600</v>
       </c>
       <c r="F41" s="3">
-        <v>192592800</v>
+        <v>162880900</v>
       </c>
       <c r="G41" s="3">
-        <v>208876400</v>
+        <v>188535200</v>
       </c>
       <c r="H41" s="3">
-        <v>241031600</v>
+        <v>204475700</v>
       </c>
       <c r="I41" s="3">
-        <v>222849600</v>
+        <v>235953400</v>
       </c>
       <c r="J41" s="3">
+        <v>218154500</v>
+      </c>
+      <c r="K41" s="3">
         <v>235006800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>216025800</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>190428300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>172867500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>155485100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>144255600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>147635500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>120319500</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>120759500</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>136829800</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>135005200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>128935400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>134514500</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>163947000</v>
       </c>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>165719800</v>
+        <v>170117300</v>
       </c>
       <c r="E42" s="3">
-        <v>164593100</v>
+        <v>162228300</v>
       </c>
       <c r="F42" s="3">
-        <v>183913100</v>
+        <v>161125400</v>
       </c>
       <c r="G42" s="3">
-        <v>251983600</v>
+        <v>180038400</v>
       </c>
       <c r="H42" s="3">
-        <v>221709100</v>
+        <v>246674700</v>
       </c>
       <c r="I42" s="3">
-        <v>209057600</v>
+        <v>217038000</v>
       </c>
       <c r="J42" s="3">
+        <v>204653100</v>
+      </c>
+      <c r="K42" s="3">
         <v>209480900</v>
       </c>
-      <c r="K42" s="3">
+      <c r="L42" s="3">
         <v>211093600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>214354900</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>220805300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>278588300</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>286836300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>333485700</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>386787000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>309272100</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>378350900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>317149200</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>297141900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>275342400</v>
       </c>
-      <c r="W42" s="3">
+      <c r="X42" s="3">
         <v>214471200</v>
       </c>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2761,8 +2853,11 @@
       <c r="W43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2826,8 +2921,11 @@
       <c r="W44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2891,8 +2989,11 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2956,8 +3057,11 @@
       <c r="W46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3021,8 +3125,11 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3032,11 +3139,11 @@
       <c r="E48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F48" s="3">
-        <v>5373400</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>5</v>
+      <c r="F48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" s="3">
+        <v>5260100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>5</v>
@@ -3044,12 +3151,12 @@
       <c r="I48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K48" s="3">
         <v>5360700</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>5</v>
       </c>
@@ -3068,91 +3175,97 @@
       <c r="Q48" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R48" s="3">
+      <c r="R48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="S48" s="3">
         <v>6720800</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="T48" s="3">
+      <c r="T48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U48" s="3">
         <v>1785100</v>
       </c>
-      <c r="U48" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V48" s="3">
+      <c r="V48" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W48" s="3">
         <v>5746800</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>5609400</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>9445200</v>
+        <v>9323100</v>
       </c>
       <c r="E49" s="3">
-        <v>9087800</v>
+        <v>9246200</v>
       </c>
       <c r="F49" s="3">
-        <v>9018100</v>
+        <v>8896300</v>
       </c>
       <c r="G49" s="3">
-        <v>8821700</v>
+        <v>8828100</v>
       </c>
       <c r="H49" s="3">
-        <v>8705100</v>
+        <v>8635800</v>
       </c>
       <c r="I49" s="3">
-        <v>8584700</v>
+        <v>8521700</v>
       </c>
       <c r="J49" s="3">
+        <v>8403800</v>
+      </c>
+      <c r="K49" s="3">
         <v>8520100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>8341900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>7982700</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>7807900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>7872200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>8051300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>8606300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>8810600</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>9031000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>9404800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>9105600</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>8808500</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>8738300</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>8692100</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3216,8 +3329,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3281,35 +3397,38 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>5797900</v>
+        <v>1344800</v>
       </c>
       <c r="E52" s="3">
-        <v>7962400</v>
+        <v>5675700</v>
       </c>
       <c r="F52" s="3">
-        <v>8694900</v>
+        <v>7794700</v>
       </c>
       <c r="G52" s="3">
-        <v>15472500</v>
+        <v>8511800</v>
       </c>
       <c r="H52" s="3">
-        <v>17979200</v>
+        <v>15146500</v>
       </c>
       <c r="I52" s="3">
-        <v>11690800</v>
+        <v>17600400</v>
       </c>
       <c r="J52" s="3">
+        <v>11444500</v>
+      </c>
+      <c r="K52" s="3">
         <v>11424700</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="L52" s="3" t="s">
         <v>5</v>
       </c>
@@ -3325,8 +3444,8 @@
       <c r="P52" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
+      <c r="Q52" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="R52" s="3">
         <v>0</v>
@@ -3337,17 +3456,20 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V52" s="3">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W52" s="3">
         <v>3719300</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>2619100</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3411,73 +3533,79 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>890406200</v>
+        <v>889685100</v>
       </c>
       <c r="E54" s="3">
-        <v>881564300</v>
+        <v>871646800</v>
       </c>
       <c r="F54" s="3">
-        <v>912523200</v>
+        <v>862991100</v>
       </c>
       <c r="G54" s="3">
-        <v>1015732100</v>
+        <v>893297800</v>
       </c>
       <c r="H54" s="3">
-        <v>1022049600</v>
+        <v>994332200</v>
       </c>
       <c r="I54" s="3">
-        <v>995334900</v>
+        <v>1000516600</v>
       </c>
       <c r="J54" s="3">
+        <v>974364800</v>
+      </c>
+      <c r="K54" s="3">
         <v>991018500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>965687300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>925218400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>901638600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>945717900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>965625300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1051849800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1088365900</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>986073400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1098842800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1002248800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>957457700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>916938600</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>950820900</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3501,8 +3629,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3526,8 +3655,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3591,8 +3721,11 @@
       <c r="W57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3656,8 +3789,11 @@
       <c r="W58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3712,17 +3848,20 @@
       <c r="T59" s="3">
         <v>0</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V59" s="3">
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W59" s="3">
         <v>7039800</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>7399100</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3786,73 +3925,79 @@
       <c r="W60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>80384800</v>
+        <v>77552400</v>
       </c>
       <c r="E61" s="3">
-        <v>75759200</v>
+        <v>78691300</v>
       </c>
       <c r="F61" s="3">
-        <v>72593500</v>
+        <v>74163100</v>
       </c>
       <c r="G61" s="3">
-        <v>67784100</v>
+        <v>71064000</v>
       </c>
       <c r="H61" s="3">
-        <v>73308200</v>
+        <v>66356000</v>
       </c>
       <c r="I61" s="3">
-        <v>71000500</v>
+        <v>71763700</v>
       </c>
       <c r="J61" s="3">
+        <v>69504600</v>
+      </c>
+      <c r="K61" s="3">
         <v>73192900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>70144900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>67336300</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>60697900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>65973900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>72358400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>84759400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>78226100</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>75279800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>81663200</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>79910000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>69306000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>66392200</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>65257600</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3907,17 +4052,20 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V62" s="3">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W62" s="3">
         <v>4786500</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>7729300</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3981,8 +4129,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4046,8 +4197,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4111,73 +4265,79 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>846357400</v>
+        <v>845743100</v>
       </c>
       <c r="E66" s="3">
-        <v>833778200</v>
+        <v>828526000</v>
       </c>
       <c r="F66" s="3">
-        <v>866281900</v>
+        <v>816211800</v>
       </c>
       <c r="G66" s="3">
-        <v>971447500</v>
+        <v>848030700</v>
       </c>
       <c r="H66" s="3">
-        <v>973110200</v>
+        <v>950980700</v>
       </c>
       <c r="I66" s="3">
-        <v>945612400</v>
+        <v>952608400</v>
       </c>
       <c r="J66" s="3">
+        <v>925689800</v>
+      </c>
+      <c r="K66" s="3">
         <v>938050400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>913727600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>872897000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>851642900</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>893835900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>912940200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>995661200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>1029580600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>926684400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>1036394000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>938778600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>896037500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>856531000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>887586700</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4201,8 +4361,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4266,8 +4427,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4331,8 +4495,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4396,8 +4563,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4461,73 +4631,79 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>28888100</v>
+        <v>25610900</v>
       </c>
       <c r="E72" s="3">
-        <v>27693000</v>
+        <v>28279500</v>
       </c>
       <c r="F72" s="3">
-        <v>28578900</v>
+        <v>27109600</v>
       </c>
       <c r="G72" s="3">
-        <v>25050700</v>
+        <v>27976800</v>
       </c>
       <c r="H72" s="3">
-        <v>29719500</v>
+        <v>24522900</v>
       </c>
       <c r="I72" s="3">
-        <v>27959200</v>
+        <v>29093300</v>
       </c>
       <c r="J72" s="3">
+        <v>27370100</v>
+      </c>
+      <c r="K72" s="3">
         <v>31136300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>29426800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>28533200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>26792300</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>27736600</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>29219000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>31052800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>35865200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>33858800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>33317300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>35242900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>34094500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>33274700</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>36591200</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4591,8 +4767,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4656,8 +4835,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4721,73 +4903,79 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>44048800</v>
+        <v>43942100</v>
       </c>
       <c r="E76" s="3">
-        <v>47786100</v>
+        <v>43120800</v>
       </c>
       <c r="F76" s="3">
-        <v>46241200</v>
+        <v>46779300</v>
       </c>
       <c r="G76" s="3">
-        <v>44284500</v>
+        <v>45267000</v>
       </c>
       <c r="H76" s="3">
-        <v>48939300</v>
+        <v>43351500</v>
       </c>
       <c r="I76" s="3">
-        <v>49722500</v>
+        <v>47908300</v>
       </c>
       <c r="J76" s="3">
+        <v>48674900</v>
+      </c>
+      <c r="K76" s="3">
         <v>52968100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51959700</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>52321400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>49995800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>51882000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>52685000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>56188600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>58785400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>59389000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>62448800</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>63470200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>61420100</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>60407700</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>63234100</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4851,143 +5039,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>1292600</v>
+        <v>1074400</v>
       </c>
       <c r="E81" s="3">
-        <v>1620900</v>
+        <v>1265400</v>
       </c>
       <c r="F81" s="3">
-        <v>1599300</v>
+        <v>1586700</v>
       </c>
       <c r="G81" s="3">
-        <v>237000</v>
+        <v>1565600</v>
       </c>
       <c r="H81" s="3">
-        <v>1330700</v>
+        <v>232000</v>
       </c>
       <c r="I81" s="3">
-        <v>1065800</v>
+        <v>1302600</v>
       </c>
       <c r="J81" s="3">
+        <v>1043300</v>
+      </c>
+      <c r="K81" s="3">
         <v>550000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>836300</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>1457200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>726200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-890700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>74400</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1294500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>383400</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>1922900</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-445800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1827700</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>941300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>541500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>591700</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5011,8 +5208,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5076,8 +5274,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5141,8 +5342,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5206,8 +5410,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5271,8 +5478,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5336,8 +5546,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5401,46 +5614,49 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>0</v>
-      </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
-      <c r="O89" s="3" t="s">
-        <v>5</v>
+      <c r="D89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>5</v>
@@ -5448,8 +5664,8 @@
       <c r="Q89" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
+      <c r="R89" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S89" s="3">
         <v>0</v>
@@ -5466,8 +5682,11 @@
       <c r="W89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5491,8 +5710,9 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5556,8 +5776,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5621,8 +5844,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5686,46 +5912,49 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>0</v>
-      </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3" t="s">
-        <v>5</v>
+      <c r="D94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>5</v>
@@ -5733,8 +5962,8 @@
       <c r="Q94" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
+      <c r="R94" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S94" s="3">
         <v>0</v>
@@ -5751,8 +5980,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5776,8 +6008,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5841,8 +6074,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5906,8 +6142,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5971,8 +6210,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6036,46 +6278,49 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>5</v>
+      <c r="D100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>5</v>
@@ -6083,8 +6328,8 @@
       <c r="Q100" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
+      <c r="R100" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -6101,46 +6346,49 @@
       <c r="W100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
-      </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L101" s="3">
-        <v>0</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>5</v>
+      <c r="D101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>5</v>
@@ -6148,8 +6396,8 @@
       <c r="Q101" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R101" s="3">
-        <v>0</v>
+      <c r="R101" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S101" s="3">
         <v>0</v>
@@ -6166,46 +6414,49 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>0</v>
-      </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>5</v>
+      <c r="D102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
         <v>5</v>
@@ -6213,8 +6464,8 @@
       <c r="Q102" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R102" s="3">
-        <v>0</v>
+      <c r="R102" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="S102" s="3">
         <v>0</v>
@@ -6229,6 +6480,9 @@
         <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>0</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>
